--- a/Electronics/Balance Bot Electrical Connection.xlsx
+++ b/Electronics/Balance Bot Electrical Connection.xlsx
@@ -16,6 +16,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Matrix!$A$1:$DO$56</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -6391,7 +6392,7 @@
   <dimension ref="A1:DO126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
@@ -22648,11 +22649,11 @@
         <v>42</v>
       </c>
       <c r="B24" s="91">
-        <f t="shared" ref="B24:B27" si="0">0.127*92^((36-A24)/39)</f>
+        <f t="shared" ref="B24:B31" si="0">0.127*92^((36-A24)/39)</f>
         <v>6.3340650141794921E-2</v>
       </c>
       <c r="C24" s="93">
-        <f t="shared" ref="C24:C27" si="1">PI()*(B24/2)^2</f>
+        <f t="shared" ref="C24:C31" si="1">PI()*(B24/2)^2</f>
         <v>3.1510472455674311E-3</v>
       </c>
     </row>
@@ -22712,11 +22713,11 @@
         <v>34</v>
       </c>
       <c r="B28" s="91">
-        <f t="shared" ref="B28:B30" si="2">0.127*92^((36-A28)/39)</f>
+        <f t="shared" si="0"/>
         <v>0.16014404318711942</v>
       </c>
       <c r="C28" s="93">
-        <f t="shared" ref="C28:C30" si="3">PI()*(B28/2)^2</f>
+        <f t="shared" si="1"/>
         <v>2.0142411280237475E-2</v>
       </c>
     </row>
@@ -22725,11 +22726,11 @@
         <v>32</v>
       </c>
       <c r="B29" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.20193790998675565</v>
       </c>
       <c r="C29" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.2027688472636276E-2</v>
       </c>
     </row>
@@ -22738,11 +22739,11 @@
         <v>30</v>
       </c>
       <c r="B30" s="91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.25463900297665848</v>
       </c>
       <c r="C30" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.0926019463551769E-2</v>
       </c>
     </row>
@@ -22751,11 +22752,11 @@
         <v>28</v>
       </c>
       <c r="B31" s="91">
-        <f>0.127*92^((36-A31)/39)</f>
+        <f t="shared" si="0"/>
         <v>0.32109385425054349</v>
       </c>
       <c r="C31" s="93">
-        <f>PI()*(B31/2)^2</f>
+        <f t="shared" si="1"/>
         <v>8.0975542790665211E-2</v>
       </c>
       <c r="J31" s="1">
@@ -22768,11 +22769,11 @@
         <v>26</v>
       </c>
       <c r="B32" s="91">
-        <f t="shared" ref="B32:B39" si="4">0.127*92^((36-A32)/39)</f>
+        <f t="shared" ref="B32:B39" si="2">0.127*92^((36-A32)/39)</f>
         <v>0.40489187450565089</v>
       </c>
       <c r="C32" s="93">
-        <f t="shared" ref="C32:C39" si="5">PI()*(B32/2)^2</f>
+        <f t="shared" ref="C32:C39" si="3">PI()*(B32/2)^2</f>
         <v>0.12875615646606325</v>
       </c>
     </row>
@@ -22781,11 +22782,11 @@
         <v>24</v>
       </c>
       <c r="B33" s="91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.5105592270625724</v>
       </c>
       <c r="C33" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.20473030814712212</v>
       </c>
     </row>
@@ -22794,11 +22795,11 @@
         <v>22</v>
       </c>
       <c r="B34" s="91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.64380329849047946</v>
       </c>
       <c r="C34" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.32553394124546686</v>
       </c>
     </row>
@@ -22807,11 +22808,11 @@
         <v>20</v>
       </c>
       <c r="B35" s="91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.81182097037377388</v>
       </c>
       <c r="C35" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.51761924192803854</v>
       </c>
     </row>
@@ -22820,11 +22821,11 @@
         <v>18</v>
       </c>
       <c r="B36" s="91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.0236873428326523</v>
       </c>
       <c r="C36" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.8230468337313146</v>
       </c>
     </row>
@@ -22833,11 +22834,11 @@
         <v>16</v>
       </c>
       <c r="B37" s="91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.2908459058322816</v>
       </c>
       <c r="C37" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.3086957277552631</v>
       </c>
     </row>
@@ -22846,11 +22847,11 @@
         <v>14</v>
       </c>
       <c r="B38" s="91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.6277266337915051</v>
       </c>
       <c r="C38" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.080907717098377</v>
       </c>
     </row>
@@ -22859,11 +22860,11 @@
         <v>12</v>
       </c>
       <c r="B39" s="91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2.0525253884939478</v>
       </c>
       <c r="C39" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.308772876111477</v>
       </c>
     </row>

--- a/Electronics/Balance Bot Electrical Connection.xlsx
+++ b/Electronics/Balance Bot Electrical Connection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="3660" windowWidth="15720" windowHeight="7220"/>
+    <workbookView xWindow="2378" yWindow="3660" windowWidth="15720" windowHeight="7223"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Matrix!$A$1:$DO$56</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2197,6 +2196,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2215,37 +2232,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6392,50 +6391,50 @@
   <dimension ref="A1:DO126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="X9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.05859375" defaultRowHeight="13.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.64453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.703125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="6.76171875" style="1" customWidth="1"/>
-    <col min="6" max="25" width="7.9375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.234375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.41015625" style="1" customWidth="1"/>
-    <col min="28" max="29" width="8.64453125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="9.234375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="9.41015625" style="1" customWidth="1"/>
-    <col min="32" max="33" width="8.64453125" style="1" customWidth="1"/>
-    <col min="34" max="51" width="9.1171875" style="1" customWidth="1"/>
-    <col min="52" max="59" width="11.64453125" style="1" customWidth="1"/>
-    <col min="60" max="61" width="9.1171875" style="1" customWidth="1"/>
-    <col min="62" max="62" width="11.05859375" style="1" customWidth="1"/>
-    <col min="63" max="65" width="10.87890625" style="1" customWidth="1"/>
-    <col min="66" max="67" width="11.9375" style="1" customWidth="1"/>
-    <col min="68" max="69" width="13.05859375" style="1" customWidth="1"/>
-    <col min="70" max="70" width="9.1171875" style="1" customWidth="1"/>
-    <col min="71" max="71" width="10.76171875" style="1" customWidth="1"/>
-    <col min="72" max="72" width="9.1171875" style="1" customWidth="1"/>
-    <col min="73" max="73" width="10.76171875" style="1" customWidth="1"/>
-    <col min="74" max="82" width="9.1171875" style="1" customWidth="1"/>
-    <col min="83" max="83" width="10.76171875" style="1" customWidth="1"/>
-    <col min="84" max="84" width="9.1171875" style="1" customWidth="1"/>
-    <col min="85" max="85" width="10.76171875" style="1" customWidth="1"/>
-    <col min="86" max="119" width="9.1171875" style="1" customWidth="1"/>
-    <col min="120" max="16384" width="9.05859375" style="1"/>
+    <col min="1" max="1" width="50.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.73046875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="6.73046875" style="1" customWidth="1"/>
+    <col min="6" max="25" width="7.9296875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.19921875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9.3984375" style="1" customWidth="1"/>
+    <col min="28" max="29" width="8.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9.19921875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.3984375" style="1" customWidth="1"/>
+    <col min="32" max="33" width="8.6640625" style="1" customWidth="1"/>
+    <col min="34" max="51" width="9.1328125" style="1" customWidth="1"/>
+    <col min="52" max="59" width="11.6640625" style="1" customWidth="1"/>
+    <col min="60" max="61" width="9.1328125" style="1" customWidth="1"/>
+    <col min="62" max="62" width="11.06640625" style="1" customWidth="1"/>
+    <col min="63" max="65" width="10.86328125" style="1" customWidth="1"/>
+    <col min="66" max="67" width="11.9296875" style="1" customWidth="1"/>
+    <col min="68" max="69" width="13.06640625" style="1" customWidth="1"/>
+    <col min="70" max="70" width="9.1328125" style="1" customWidth="1"/>
+    <col min="71" max="71" width="10.73046875" style="1" customWidth="1"/>
+    <col min="72" max="72" width="9.1328125" style="1" customWidth="1"/>
+    <col min="73" max="73" width="10.73046875" style="1" customWidth="1"/>
+    <col min="74" max="82" width="9.1328125" style="1" customWidth="1"/>
+    <col min="83" max="83" width="10.73046875" style="1" customWidth="1"/>
+    <col min="84" max="84" width="9.1328125" style="1" customWidth="1"/>
+    <col min="85" max="85" width="10.73046875" style="1" customWidth="1"/>
+    <col min="86" max="119" width="9.1328125" style="1" customWidth="1"/>
+    <col min="120" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="18" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:119" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:119" x14ac:dyDescent="0.35">
       <c r="BD2" s="135" t="s">
         <v>258</v>
       </c>
@@ -6449,8 +6448,8 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:119" ht="14" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:119" ht="42.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:119" ht="13.9" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:119" ht="42.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="126" t="s">
         <v>216</v>
       </c>
@@ -6460,162 +6459,162 @@
       <c r="C4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="157" t="s">
+      <c r="D4" s="151" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="159"/>
-      <c r="F4" s="154" t="s">
+      <c r="E4" s="153"/>
+      <c r="F4" s="160" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="155"/>
-      <c r="U4" s="155"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="156"/>
-      <c r="Z4" s="151" t="s">
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161"/>
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
+      <c r="Z4" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="AA4" s="152"/>
-      <c r="AB4" s="152"/>
-      <c r="AC4" s="153"/>
-      <c r="AD4" s="151" t="s">
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
+      <c r="AC4" s="159"/>
+      <c r="AD4" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="AE4" s="152"/>
-      <c r="AF4" s="152"/>
-      <c r="AG4" s="153"/>
-      <c r="AH4" s="157" t="s">
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="158"/>
+      <c r="AG4" s="159"/>
+      <c r="AH4" s="151" t="s">
         <v>152</v>
       </c>
-      <c r="AI4" s="158"/>
-      <c r="AJ4" s="158"/>
-      <c r="AK4" s="158"/>
-      <c r="AL4" s="158"/>
-      <c r="AM4" s="160"/>
-      <c r="AN4" s="161" t="s">
+      <c r="AI4" s="152"/>
+      <c r="AJ4" s="152"/>
+      <c r="AK4" s="152"/>
+      <c r="AL4" s="152"/>
+      <c r="AM4" s="155"/>
+      <c r="AN4" s="156" t="s">
         <v>153</v>
       </c>
-      <c r="AO4" s="158"/>
-      <c r="AP4" s="158"/>
-      <c r="AQ4" s="158"/>
-      <c r="AR4" s="158"/>
-      <c r="AS4" s="158"/>
-      <c r="AT4" s="158"/>
-      <c r="AU4" s="158"/>
-      <c r="AV4" s="158"/>
-      <c r="AW4" s="159"/>
-      <c r="AX4" s="157" t="s">
+      <c r="AO4" s="152"/>
+      <c r="AP4" s="152"/>
+      <c r="AQ4" s="152"/>
+      <c r="AR4" s="152"/>
+      <c r="AS4" s="152"/>
+      <c r="AT4" s="152"/>
+      <c r="AU4" s="152"/>
+      <c r="AV4" s="152"/>
+      <c r="AW4" s="153"/>
+      <c r="AX4" s="151" t="s">
         <v>154</v>
       </c>
-      <c r="AY4" s="158"/>
-      <c r="AZ4" s="158"/>
-      <c r="BA4" s="158"/>
-      <c r="BB4" s="158"/>
-      <c r="BC4" s="158"/>
-      <c r="BD4" s="158"/>
-      <c r="BE4" s="158"/>
-      <c r="BF4" s="158"/>
-      <c r="BG4" s="159"/>
-      <c r="BH4" s="157" t="s">
+      <c r="AY4" s="152"/>
+      <c r="AZ4" s="152"/>
+      <c r="BA4" s="152"/>
+      <c r="BB4" s="152"/>
+      <c r="BC4" s="152"/>
+      <c r="BD4" s="152"/>
+      <c r="BE4" s="152"/>
+      <c r="BF4" s="152"/>
+      <c r="BG4" s="153"/>
+      <c r="BH4" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="BI4" s="158"/>
-      <c r="BJ4" s="158"/>
-      <c r="BK4" s="158"/>
-      <c r="BL4" s="158"/>
-      <c r="BM4" s="158"/>
-      <c r="BN4" s="158"/>
-      <c r="BO4" s="158"/>
-      <c r="BP4" s="158"/>
-      <c r="BQ4" s="159"/>
-      <c r="BR4" s="157" t="s">
+      <c r="BI4" s="152"/>
+      <c r="BJ4" s="152"/>
+      <c r="BK4" s="152"/>
+      <c r="BL4" s="152"/>
+      <c r="BM4" s="152"/>
+      <c r="BN4" s="152"/>
+      <c r="BO4" s="152"/>
+      <c r="BP4" s="152"/>
+      <c r="BQ4" s="153"/>
+      <c r="BR4" s="151" t="s">
         <v>156</v>
       </c>
-      <c r="BS4" s="160"/>
-      <c r="BT4" s="161" t="s">
+      <c r="BS4" s="155"/>
+      <c r="BT4" s="156" t="s">
         <v>157</v>
       </c>
-      <c r="BU4" s="159"/>
-      <c r="BV4" s="157" t="s">
+      <c r="BU4" s="153"/>
+      <c r="BV4" s="151" t="s">
         <v>160</v>
       </c>
-      <c r="BW4" s="158"/>
-      <c r="BX4" s="158"/>
-      <c r="BY4" s="159"/>
-      <c r="BZ4" s="162" t="s">
+      <c r="BW4" s="152"/>
+      <c r="BX4" s="152"/>
+      <c r="BY4" s="153"/>
+      <c r="BZ4" s="154" t="s">
         <v>233</v>
       </c>
-      <c r="CA4" s="158"/>
-      <c r="CB4" s="158"/>
-      <c r="CC4" s="159"/>
-      <c r="CD4" s="157" t="s">
+      <c r="CA4" s="152"/>
+      <c r="CB4" s="152"/>
+      <c r="CC4" s="153"/>
+      <c r="CD4" s="151" t="s">
         <v>158</v>
       </c>
-      <c r="CE4" s="160"/>
-      <c r="CF4" s="161" t="s">
+      <c r="CE4" s="155"/>
+      <c r="CF4" s="156" t="s">
         <v>159</v>
       </c>
-      <c r="CG4" s="159"/>
-      <c r="CH4" s="157" t="s">
+      <c r="CG4" s="153"/>
+      <c r="CH4" s="151" t="s">
         <v>162</v>
       </c>
-      <c r="CI4" s="158"/>
-      <c r="CJ4" s="158"/>
-      <c r="CK4" s="159"/>
-      <c r="CL4" s="162" t="s">
+      <c r="CI4" s="152"/>
+      <c r="CJ4" s="152"/>
+      <c r="CK4" s="153"/>
+      <c r="CL4" s="154" t="s">
         <v>275</v>
       </c>
-      <c r="CM4" s="158"/>
-      <c r="CN4" s="158"/>
-      <c r="CO4" s="159"/>
-      <c r="CP4" s="157" t="s">
+      <c r="CM4" s="152"/>
+      <c r="CN4" s="152"/>
+      <c r="CO4" s="153"/>
+      <c r="CP4" s="151" t="s">
         <v>164</v>
       </c>
-      <c r="CQ4" s="158"/>
-      <c r="CR4" s="158"/>
-      <c r="CS4" s="158"/>
-      <c r="CT4" s="158"/>
-      <c r="CU4" s="158"/>
-      <c r="CV4" s="158"/>
-      <c r="CW4" s="158"/>
-      <c r="CX4" s="158"/>
-      <c r="CY4" s="159"/>
-      <c r="CZ4" s="157" t="s">
+      <c r="CQ4" s="152"/>
+      <c r="CR4" s="152"/>
+      <c r="CS4" s="152"/>
+      <c r="CT4" s="152"/>
+      <c r="CU4" s="152"/>
+      <c r="CV4" s="152"/>
+      <c r="CW4" s="152"/>
+      <c r="CX4" s="152"/>
+      <c r="CY4" s="153"/>
+      <c r="CZ4" s="151" t="s">
         <v>165</v>
       </c>
-      <c r="DA4" s="158"/>
-      <c r="DB4" s="158"/>
-      <c r="DC4" s="158"/>
-      <c r="DD4" s="158"/>
-      <c r="DE4" s="158"/>
-      <c r="DF4" s="158"/>
-      <c r="DG4" s="159"/>
-      <c r="DH4" s="157" t="s">
+      <c r="DA4" s="152"/>
+      <c r="DB4" s="152"/>
+      <c r="DC4" s="152"/>
+      <c r="DD4" s="152"/>
+      <c r="DE4" s="152"/>
+      <c r="DF4" s="152"/>
+      <c r="DG4" s="153"/>
+      <c r="DH4" s="151" t="s">
         <v>178</v>
       </c>
-      <c r="DI4" s="158"/>
-      <c r="DJ4" s="158"/>
-      <c r="DK4" s="158"/>
-      <c r="DL4" s="158"/>
-      <c r="DM4" s="158"/>
-      <c r="DN4" s="158"/>
-      <c r="DO4" s="159"/>
+      <c r="DI4" s="152"/>
+      <c r="DJ4" s="152"/>
+      <c r="DK4" s="152"/>
+      <c r="DL4" s="152"/>
+      <c r="DM4" s="152"/>
+      <c r="DN4" s="152"/>
+      <c r="DO4" s="153"/>
     </row>
-    <row r="5" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A5" s="127" t="s">
         <v>217</v>
       </c>
@@ -6974,7 +6973,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:119" ht="27.35" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:119" ht="27" x14ac:dyDescent="0.35">
       <c r="A6" s="127" t="s">
         <v>218</v>
       </c>
@@ -7333,7 +7332,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:119" ht="27.35" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:119" ht="27" x14ac:dyDescent="0.35">
       <c r="A7" s="127" t="s">
         <v>228</v>
       </c>
@@ -7668,7 +7667,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:119" ht="62.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:119" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="141" t="s">
         <v>284</v>
       </c>
@@ -8027,7 +8026,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A9" s="147" t="s">
         <v>212</v>
       </c>
@@ -8152,7 +8151,7 @@
       <c r="DN9" s="116"/>
       <c r="DO9" s="116"/>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A10" s="148" t="s">
         <v>213</v>
       </c>
@@ -8277,7 +8276,7 @@
       <c r="DN10" s="116"/>
       <c r="DO10" s="116"/>
     </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A11" s="148" t="s">
         <v>290</v>
       </c>
@@ -8402,7 +8401,7 @@
       <c r="DN11" s="116"/>
       <c r="DO11" s="116"/>
     </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A12" s="128" t="s">
         <v>214</v>
       </c>
@@ -8527,7 +8526,7 @@
       <c r="DN12" s="116"/>
       <c r="DO12" s="116"/>
     </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A13" s="128" t="s">
         <v>219</v>
       </c>
@@ -8652,7 +8651,7 @@
       <c r="DN13" s="116"/>
       <c r="DO13" s="116"/>
     </row>
-    <row r="14" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A14" s="128" t="s">
         <v>220</v>
       </c>
@@ -8777,7 +8776,7 @@
       <c r="DN14" s="116"/>
       <c r="DO14" s="116"/>
     </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A15" s="118" t="s">
         <v>221</v>
       </c>
@@ -8902,7 +8901,7 @@
       <c r="DN15" s="116"/>
       <c r="DO15" s="116"/>
     </row>
-    <row r="16" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A16" s="123" t="s">
         <v>234</v>
       </c>
@@ -9027,7 +9026,7 @@
       <c r="DN16" s="116"/>
       <c r="DO16" s="116"/>
     </row>
-    <row r="17" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A17" s="130" t="s">
         <v>238</v>
       </c>
@@ -9152,7 +9151,7 @@
       <c r="DN17" s="116"/>
       <c r="DO17" s="116"/>
     </row>
-    <row r="18" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A18" s="149" t="s">
         <v>240</v>
       </c>
@@ -9277,7 +9276,7 @@
       <c r="DN18" s="116"/>
       <c r="DO18" s="116"/>
     </row>
-    <row r="19" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A19" s="150" t="s">
         <v>239</v>
       </c>
@@ -9402,7 +9401,7 @@
       <c r="DN19" s="116"/>
       <c r="DO19" s="116"/>
     </row>
-    <row r="20" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A20" s="150" t="s">
         <v>243</v>
       </c>
@@ -9527,7 +9526,7 @@
       <c r="DN20" s="116"/>
       <c r="DO20" s="116"/>
     </row>
-    <row r="21" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A21" s="123" t="s">
         <v>245</v>
       </c>
@@ -9652,7 +9651,7 @@
       <c r="DN21" s="116"/>
       <c r="DO21" s="116"/>
     </row>
-    <row r="22" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A22" s="150" t="s">
         <v>246</v>
       </c>
@@ -9777,7 +9776,7 @@
       <c r="DN22" s="116"/>
       <c r="DO22" s="116"/>
     </row>
-    <row r="23" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A23" s="150" t="s">
         <v>247</v>
       </c>
@@ -9902,7 +9901,7 @@
       <c r="DN23" s="116"/>
       <c r="DO23" s="116"/>
     </row>
-    <row r="24" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A24" s="118" t="s">
         <v>222</v>
       </c>
@@ -10027,7 +10026,7 @@
       <c r="DN24" s="116"/>
       <c r="DO24" s="116"/>
     </row>
-    <row r="25" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A25" s="118" t="s">
         <v>223</v>
       </c>
@@ -10152,7 +10151,7 @@
       <c r="DN25" s="116"/>
       <c r="DO25" s="116"/>
     </row>
-    <row r="26" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A26" s="150" t="s">
         <v>248</v>
       </c>
@@ -10277,7 +10276,7 @@
       <c r="DN26" s="116"/>
       <c r="DO26" s="116"/>
     </row>
-    <row r="27" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A27" s="150" t="s">
         <v>249</v>
       </c>
@@ -10402,7 +10401,7 @@
       <c r="DN27" s="116"/>
       <c r="DO27" s="116"/>
     </row>
-    <row r="28" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A28" s="123" t="s">
         <v>229</v>
       </c>
@@ -10527,7 +10526,7 @@
       <c r="DN28" s="116"/>
       <c r="DO28" s="116"/>
     </row>
-    <row r="29" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A29" s="123" t="s">
         <v>230</v>
       </c>
@@ -10652,7 +10651,7 @@
       <c r="DN29" s="116"/>
       <c r="DO29" s="116"/>
     </row>
-    <row r="30" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A30" s="130" t="s">
         <v>266</v>
       </c>
@@ -10777,7 +10776,7 @@
       <c r="DN30" s="116"/>
       <c r="DO30" s="116"/>
     </row>
-    <row r="31" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A31" s="130" t="s">
         <v>267</v>
       </c>
@@ -10902,7 +10901,7 @@
       <c r="DN31" s="116"/>
       <c r="DO31" s="116"/>
     </row>
-    <row r="32" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A32" s="130" t="s">
         <v>276</v>
       </c>
@@ -11027,7 +11026,7 @@
       <c r="DN32" s="116"/>
       <c r="DO32" s="116"/>
     </row>
-    <row r="33" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A33" s="130" t="s">
         <v>277</v>
       </c>
@@ -11152,7 +11151,7 @@
       <c r="DN33" s="116"/>
       <c r="DO33" s="116"/>
     </row>
-    <row r="34" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A34" s="118" t="s">
         <v>280</v>
       </c>
@@ -11277,7 +11276,7 @@
       <c r="DN34" s="116"/>
       <c r="DO34" s="116"/>
     </row>
-    <row r="35" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A35" s="118" t="s">
         <v>281</v>
       </c>
@@ -11402,7 +11401,7 @@
       <c r="DN35" s="116"/>
       <c r="DO35" s="116"/>
     </row>
-    <row r="36" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A36" s="118" t="s">
         <v>282</v>
       </c>
@@ -11527,7 +11526,7 @@
       <c r="DN36" s="116"/>
       <c r="DO36" s="116"/>
     </row>
-    <row r="37" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A37" s="130" t="s">
         <v>278</v>
       </c>
@@ -11652,7 +11651,7 @@
       <c r="DN37" s="116"/>
       <c r="DO37" s="116"/>
     </row>
-    <row r="38" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A38" s="123" t="s">
         <v>279</v>
       </c>
@@ -11777,7 +11776,7 @@
       <c r="DN38" s="116"/>
       <c r="DO38" s="116"/>
     </row>
-    <row r="39" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A39" s="118" t="s">
         <v>224</v>
       </c>
@@ -11902,7 +11901,7 @@
       <c r="DN39" s="116"/>
       <c r="DO39" s="116"/>
     </row>
-    <row r="40" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A40" s="118" t="s">
         <v>225</v>
       </c>
@@ -12027,7 +12026,7 @@
       <c r="DN40" s="116"/>
       <c r="DO40" s="116"/>
     </row>
-    <row r="41" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A41" s="118" t="s">
         <v>226</v>
       </c>
@@ -12152,7 +12151,7 @@
       <c r="DN41" s="116"/>
       <c r="DO41" s="116"/>
     </row>
-    <row r="42" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A42" s="118" t="s">
         <v>227</v>
       </c>
@@ -12277,7 +12276,7 @@
       <c r="DN42" s="116"/>
       <c r="DO42" s="116"/>
     </row>
-    <row r="43" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A43" s="123" t="s">
         <v>235</v>
       </c>
@@ -12402,7 +12401,7 @@
       <c r="DN43" s="116"/>
       <c r="DO43" s="116"/>
     </row>
-    <row r="44" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A44" s="130" t="s">
         <v>241</v>
       </c>
@@ -12527,7 +12526,7 @@
       <c r="DN44" s="116"/>
       <c r="DO44" s="116"/>
     </row>
-    <row r="45" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A45" s="123" t="s">
         <v>242</v>
       </c>
@@ -12652,7 +12651,7 @@
       <c r="DN45" s="116"/>
       <c r="DO45" s="116"/>
     </row>
-    <row r="46" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A46" s="123" t="s">
         <v>244</v>
       </c>
@@ -12777,7 +12776,7 @@
       <c r="DN46" s="116"/>
       <c r="DO46" s="116"/>
     </row>
-    <row r="47" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A47" s="123" t="s">
         <v>286</v>
       </c>
@@ -12902,7 +12901,7 @@
       <c r="DN47" s="116"/>
       <c r="DO47" s="116"/>
     </row>
-    <row r="48" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A48" s="123" t="s">
         <v>262</v>
       </c>
@@ -13027,7 +13026,7 @@
       <c r="DN48" s="116"/>
       <c r="DO48" s="116"/>
     </row>
-    <row r="49" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A49" s="123" t="s">
         <v>263</v>
       </c>
@@ -13152,7 +13151,7 @@
       <c r="DN49" s="116"/>
       <c r="DO49" s="116"/>
     </row>
-    <row r="50" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A50" s="123" t="s">
         <v>264</v>
       </c>
@@ -13277,7 +13276,7 @@
       <c r="DN50" s="116"/>
       <c r="DO50" s="116"/>
     </row>
-    <row r="51" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A51" s="123" t="s">
         <v>265</v>
       </c>
@@ -13402,7 +13401,7 @@
       <c r="DN51" s="116"/>
       <c r="DO51" s="116"/>
     </row>
-    <row r="52" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A52" s="123" t="s">
         <v>232</v>
       </c>
@@ -13527,7 +13526,7 @@
       <c r="DN52" s="116"/>
       <c r="DO52" s="116"/>
     </row>
-    <row r="53" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A53" s="123" t="s">
         <v>231</v>
       </c>
@@ -13652,7 +13651,7 @@
       <c r="DN53" s="116"/>
       <c r="DO53" s="116"/>
     </row>
-    <row r="54" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A54" s="130" t="s">
         <v>236</v>
       </c>
@@ -13777,7 +13776,7 @@
       <c r="DN54" s="116"/>
       <c r="DO54" s="116"/>
     </row>
-    <row r="55" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A55" s="130" t="s">
         <v>237</v>
       </c>
@@ -13902,7 +13901,7 @@
       <c r="DN55" s="116"/>
       <c r="DO55" s="116"/>
     </row>
-    <row r="56" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A56" s="123" t="s">
         <v>285</v>
       </c>
@@ -14027,7 +14026,7 @@
       <c r="DN56" s="116"/>
       <c r="DO56" s="116"/>
     </row>
-    <row r="57" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A57" s="129"/>
       <c r="B57" s="117"/>
       <c r="C57" s="116"/>
@@ -14148,7 +14147,7 @@
       <c r="DN57" s="116"/>
       <c r="DO57" s="116"/>
     </row>
-    <row r="58" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A58" s="129"/>
       <c r="B58" s="115"/>
       <c r="C58" s="116"/>
@@ -14269,7 +14268,7 @@
       <c r="DN58" s="116"/>
       <c r="DO58" s="116"/>
     </row>
-    <row r="59" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A59" s="129"/>
       <c r="B59" s="117"/>
       <c r="C59" s="116"/>
@@ -14390,7 +14389,7 @@
       <c r="DN59" s="116"/>
       <c r="DO59" s="116"/>
     </row>
-    <row r="60" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A60" s="129"/>
       <c r="B60" s="117"/>
       <c r="C60" s="116"/>
@@ -14511,7 +14510,7 @@
       <c r="DN60" s="116"/>
       <c r="DO60" s="116"/>
     </row>
-    <row r="61" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A61" s="129"/>
       <c r="B61" s="117"/>
       <c r="C61" s="116"/>
@@ -14632,7 +14631,7 @@
       <c r="DN61" s="116"/>
       <c r="DO61" s="116"/>
     </row>
-    <row r="62" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A62" s="129"/>
       <c r="B62" s="117"/>
       <c r="C62" s="116"/>
@@ -14753,7 +14752,7 @@
       <c r="DN62" s="116"/>
       <c r="DO62" s="116"/>
     </row>
-    <row r="63" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A63" s="129"/>
       <c r="B63" s="117"/>
       <c r="C63" s="116"/>
@@ -14874,7 +14873,7 @@
       <c r="DN63" s="116"/>
       <c r="DO63" s="116"/>
     </row>
-    <row r="64" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A64" s="129"/>
       <c r="B64" s="117"/>
       <c r="C64" s="116"/>
@@ -14995,7 +14994,7 @@
       <c r="DN64" s="116"/>
       <c r="DO64" s="116"/>
     </row>
-    <row r="65" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A65" s="129"/>
       <c r="B65" s="117"/>
       <c r="C65" s="116"/>
@@ -15116,7 +15115,7 @@
       <c r="DN65" s="116"/>
       <c r="DO65" s="116"/>
     </row>
-    <row r="66" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A66" s="129"/>
       <c r="B66" s="117"/>
       <c r="C66" s="116"/>
@@ -15237,7 +15236,7 @@
       <c r="DN66" s="116"/>
       <c r="DO66" s="116"/>
     </row>
-    <row r="67" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A67" s="129"/>
       <c r="B67" s="117"/>
       <c r="C67" s="116"/>
@@ -15358,7 +15357,7 @@
       <c r="DN67" s="116"/>
       <c r="DO67" s="116"/>
     </row>
-    <row r="68" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A68" s="129"/>
       <c r="B68" s="115"/>
       <c r="C68" s="116"/>
@@ -15479,7 +15478,7 @@
       <c r="DN68" s="116"/>
       <c r="DO68" s="116"/>
     </row>
-    <row r="69" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A69" s="129"/>
       <c r="B69" s="117"/>
       <c r="C69" s="116"/>
@@ -15600,7 +15599,7 @@
       <c r="DN69" s="116"/>
       <c r="DO69" s="116"/>
     </row>
-    <row r="70" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A70" s="129"/>
       <c r="B70" s="117"/>
       <c r="C70" s="116"/>
@@ -15721,7 +15720,7 @@
       <c r="DN70" s="116"/>
       <c r="DO70" s="116"/>
     </row>
-    <row r="71" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A71" s="129"/>
       <c r="B71" s="117"/>
       <c r="C71" s="116"/>
@@ -15842,7 +15841,7 @@
       <c r="DN71" s="116"/>
       <c r="DO71" s="116"/>
     </row>
-    <row r="72" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A72" s="129"/>
       <c r="B72" s="117"/>
       <c r="C72" s="116"/>
@@ -15963,7 +15962,7 @@
       <c r="DN72" s="116"/>
       <c r="DO72" s="116"/>
     </row>
-    <row r="73" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A73" s="115"/>
       <c r="B73" s="117"/>
       <c r="C73" s="116"/>
@@ -16084,7 +16083,7 @@
       <c r="DN73" s="116"/>
       <c r="DO73" s="116"/>
     </row>
-    <row r="74" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A74" s="115"/>
       <c r="B74" s="117"/>
       <c r="C74" s="116"/>
@@ -16205,7 +16204,7 @@
       <c r="DN74" s="116"/>
       <c r="DO74" s="116"/>
     </row>
-    <row r="75" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A75" s="115"/>
       <c r="B75" s="117"/>
       <c r="C75" s="116"/>
@@ -16326,7 +16325,7 @@
       <c r="DN75" s="116"/>
       <c r="DO75" s="116"/>
     </row>
-    <row r="76" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A76" s="115"/>
       <c r="B76" s="117"/>
       <c r="C76" s="116"/>
@@ -16447,7 +16446,7 @@
       <c r="DN76" s="116"/>
       <c r="DO76" s="116"/>
     </row>
-    <row r="77" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A77" s="115"/>
       <c r="B77" s="117"/>
       <c r="C77" s="116"/>
@@ -16568,7 +16567,7 @@
       <c r="DN77" s="116"/>
       <c r="DO77" s="116"/>
     </row>
-    <row r="78" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A78" s="115"/>
       <c r="B78" s="117"/>
       <c r="C78" s="116"/>
@@ -16689,7 +16688,7 @@
       <c r="DN78" s="116"/>
       <c r="DO78" s="116"/>
     </row>
-    <row r="79" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A79" s="115"/>
       <c r="B79" s="117"/>
       <c r="C79" s="116"/>
@@ -16810,7 +16809,7 @@
       <c r="DN79" s="116"/>
       <c r="DO79" s="116"/>
     </row>
-    <row r="80" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A80" s="115"/>
       <c r="B80" s="117"/>
       <c r="C80" s="116"/>
@@ -16931,7 +16930,7 @@
       <c r="DN80" s="116"/>
       <c r="DO80" s="116"/>
     </row>
-    <row r="81" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A81" s="115"/>
       <c r="B81" s="117"/>
       <c r="C81" s="116"/>
@@ -17052,7 +17051,7 @@
       <c r="DN81" s="116"/>
       <c r="DO81" s="116"/>
     </row>
-    <row r="82" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A82" s="115"/>
       <c r="B82" s="117"/>
       <c r="C82" s="116"/>
@@ -17173,7 +17172,7 @@
       <c r="DN82" s="116"/>
       <c r="DO82" s="116"/>
     </row>
-    <row r="83" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A83" s="115"/>
       <c r="B83" s="117"/>
       <c r="C83" s="116"/>
@@ -17294,7 +17293,7 @@
       <c r="DN83" s="116"/>
       <c r="DO83" s="116"/>
     </row>
-    <row r="84" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A84" s="115"/>
       <c r="B84" s="117"/>
       <c r="C84" s="116"/>
@@ -17415,7 +17414,7 @@
       <c r="DN84" s="116"/>
       <c r="DO84" s="116"/>
     </row>
-    <row r="85" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A85" s="115"/>
       <c r="B85" s="117"/>
       <c r="C85" s="116"/>
@@ -17536,7 +17535,7 @@
       <c r="DN85" s="116"/>
       <c r="DO85" s="116"/>
     </row>
-    <row r="86" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A86" s="115"/>
       <c r="B86" s="117"/>
       <c r="C86" s="116"/>
@@ -17657,7 +17656,7 @@
       <c r="DN86" s="116"/>
       <c r="DO86" s="116"/>
     </row>
-    <row r="87" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A87" s="115"/>
       <c r="B87" s="117"/>
       <c r="C87" s="116"/>
@@ -17778,7 +17777,7 @@
       <c r="DN87" s="116"/>
       <c r="DO87" s="116"/>
     </row>
-    <row r="88" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A88" s="115"/>
       <c r="B88" s="117"/>
       <c r="C88" s="116"/>
@@ -17899,7 +17898,7 @@
       <c r="DN88" s="116"/>
       <c r="DO88" s="116"/>
     </row>
-    <row r="89" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A89" s="115"/>
       <c r="B89" s="117"/>
       <c r="C89" s="116"/>
@@ -18020,7 +18019,7 @@
       <c r="DN89" s="116"/>
       <c r="DO89" s="116"/>
     </row>
-    <row r="90" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A90" s="115"/>
       <c r="B90" s="117"/>
       <c r="C90" s="116"/>
@@ -18141,7 +18140,7 @@
       <c r="DN90" s="116"/>
       <c r="DO90" s="116"/>
     </row>
-    <row r="91" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A91" s="115"/>
       <c r="B91" s="117"/>
       <c r="C91" s="116"/>
@@ -18262,7 +18261,7 @@
       <c r="DN91" s="116"/>
       <c r="DO91" s="116"/>
     </row>
-    <row r="92" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A92" s="115"/>
       <c r="B92" s="117"/>
       <c r="C92" s="116"/>
@@ -18383,7 +18382,7 @@
       <c r="DN92" s="116"/>
       <c r="DO92" s="116"/>
     </row>
-    <row r="93" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A93" s="115"/>
       <c r="B93" s="117"/>
       <c r="C93" s="116"/>
@@ -18504,7 +18503,7 @@
       <c r="DN93" s="116"/>
       <c r="DO93" s="116"/>
     </row>
-    <row r="94" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A94" s="115"/>
       <c r="B94" s="117"/>
       <c r="C94" s="116"/>
@@ -18625,7 +18624,7 @@
       <c r="DN94" s="116"/>
       <c r="DO94" s="116"/>
     </row>
-    <row r="95" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A95" s="115"/>
       <c r="B95" s="117"/>
       <c r="C95" s="116"/>
@@ -18746,7 +18745,7 @@
       <c r="DN95" s="116"/>
       <c r="DO95" s="116"/>
     </row>
-    <row r="96" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A96" s="115"/>
       <c r="B96" s="117"/>
       <c r="C96" s="116"/>
@@ -18867,7 +18866,7 @@
       <c r="DN96" s="116"/>
       <c r="DO96" s="116"/>
     </row>
-    <row r="97" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A97" s="115"/>
       <c r="B97" s="117"/>
       <c r="C97" s="116"/>
@@ -18988,7 +18987,7 @@
       <c r="DN97" s="116"/>
       <c r="DO97" s="116"/>
     </row>
-    <row r="98" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A98" s="115"/>
       <c r="B98" s="117"/>
       <c r="C98" s="116"/>
@@ -19109,7 +19108,7 @@
       <c r="DN98" s="116"/>
       <c r="DO98" s="116"/>
     </row>
-    <row r="100" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A100" s="115"/>
       <c r="B100" s="117"/>
       <c r="C100" s="116"/>
@@ -19230,7 +19229,7 @@
       <c r="DN100" s="116"/>
       <c r="DO100" s="116"/>
     </row>
-    <row r="101" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A101" s="115"/>
       <c r="B101" s="117"/>
       <c r="C101" s="116"/>
@@ -19351,7 +19350,7 @@
       <c r="DN101" s="116"/>
       <c r="DO101" s="116"/>
     </row>
-    <row r="102" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A102" s="115"/>
       <c r="B102" s="117"/>
       <c r="C102" s="116"/>
@@ -19472,7 +19471,7 @@
       <c r="DN102" s="116"/>
       <c r="DO102" s="116"/>
     </row>
-    <row r="103" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A103" s="115"/>
       <c r="B103" s="115"/>
       <c r="C103" s="116"/>
@@ -19593,7 +19592,7 @@
       <c r="DN103" s="116"/>
       <c r="DO103" s="116"/>
     </row>
-    <row r="104" spans="1:119" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:119" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="115"/>
       <c r="B104" s="115"/>
       <c r="C104" s="116"/>
@@ -19714,7 +19713,7 @@
       <c r="DN104" s="116"/>
       <c r="DO104" s="116"/>
     </row>
-    <row r="105" spans="1:119" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:119" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="115"/>
       <c r="B105" s="115"/>
       <c r="C105" s="116"/>
@@ -19835,7 +19834,7 @@
       <c r="DN105" s="116"/>
       <c r="DO105" s="116"/>
     </row>
-    <row r="106" spans="1:119" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:119" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="115"/>
       <c r="B106" s="115"/>
       <c r="C106" s="116"/>
@@ -19956,7 +19955,7 @@
       <c r="DN106" s="116"/>
       <c r="DO106" s="116"/>
     </row>
-    <row r="107" spans="1:119" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:119" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="115"/>
       <c r="B107" s="115"/>
       <c r="C107" s="116"/>
@@ -20077,7 +20076,7 @@
       <c r="DN107" s="116"/>
       <c r="DO107" s="116"/>
     </row>
-    <row r="108" spans="1:119" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:119" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="115"/>
       <c r="B108" s="115"/>
       <c r="C108" s="116"/>
@@ -20198,7 +20197,7 @@
       <c r="DN108" s="116"/>
       <c r="DO108" s="116"/>
     </row>
-    <row r="109" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A109" s="115"/>
       <c r="B109" s="115"/>
       <c r="C109" s="116"/>
@@ -20319,7 +20318,7 @@
       <c r="DN109" s="116"/>
       <c r="DO109" s="116"/>
     </row>
-    <row r="110" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A110" s="115"/>
       <c r="B110" s="115"/>
       <c r="C110" s="116"/>
@@ -20440,7 +20439,7 @@
       <c r="DN110" s="116"/>
       <c r="DO110" s="116"/>
     </row>
-    <row r="111" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A111" s="115"/>
       <c r="B111" s="117"/>
       <c r="C111" s="116"/>
@@ -20561,7 +20560,7 @@
       <c r="DN111" s="116"/>
       <c r="DO111" s="116"/>
     </row>
-    <row r="112" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A112" s="115"/>
       <c r="B112" s="115"/>
       <c r="C112" s="116"/>
@@ -20682,7 +20681,7 @@
       <c r="DN112" s="116"/>
       <c r="DO112" s="116"/>
     </row>
-    <row r="113" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A113" s="115"/>
       <c r="B113" s="117"/>
       <c r="C113" s="116"/>
@@ -20803,7 +20802,7 @@
       <c r="DN113" s="116"/>
       <c r="DO113" s="116"/>
     </row>
-    <row r="114" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A114" s="115"/>
       <c r="B114" s="117"/>
       <c r="C114" s="116"/>
@@ -20924,7 +20923,7 @@
       <c r="DN114" s="116"/>
       <c r="DO114" s="116"/>
     </row>
-    <row r="115" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A115" s="115"/>
       <c r="B115" s="117"/>
       <c r="C115" s="116"/>
@@ -21045,7 +21044,7 @@
       <c r="DN115" s="116"/>
       <c r="DO115" s="116"/>
     </row>
-    <row r="116" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A116" s="115"/>
       <c r="B116" s="117"/>
       <c r="C116" s="116"/>
@@ -21166,7 +21165,7 @@
       <c r="DN116" s="116"/>
       <c r="DO116" s="116"/>
     </row>
-    <row r="117" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A117" s="115"/>
       <c r="B117" s="117"/>
       <c r="C117" s="116"/>
@@ -21287,7 +21286,7 @@
       <c r="DN117" s="116"/>
       <c r="DO117" s="116"/>
     </row>
-    <row r="118" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A118" s="115"/>
       <c r="B118" s="117"/>
       <c r="C118" s="116"/>
@@ -21408,7 +21407,7 @@
       <c r="DN118" s="116"/>
       <c r="DO118" s="116"/>
     </row>
-    <row r="119" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A119" s="115"/>
       <c r="B119" s="115"/>
       <c r="C119" s="116"/>
@@ -21529,7 +21528,7 @@
       <c r="DN119" s="116"/>
       <c r="DO119" s="116"/>
     </row>
-    <row r="120" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A120" s="115"/>
       <c r="B120" s="115"/>
       <c r="C120" s="116"/>
@@ -21650,7 +21649,7 @@
       <c r="DN120" s="116"/>
       <c r="DO120" s="116"/>
     </row>
-    <row r="121" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A121" s="115"/>
       <c r="B121" s="117"/>
       <c r="C121" s="116"/>
@@ -21771,7 +21770,7 @@
       <c r="DN121" s="116"/>
       <c r="DO121" s="116"/>
     </row>
-    <row r="122" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A122" s="115"/>
       <c r="B122" s="117"/>
       <c r="C122" s="116"/>
@@ -21892,7 +21891,7 @@
       <c r="DN122" s="116"/>
       <c r="DO122" s="116"/>
     </row>
-    <row r="123" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A123" s="115"/>
       <c r="B123" s="115"/>
       <c r="C123" s="116"/>
@@ -22013,7 +22012,7 @@
       <c r="DN123" s="116"/>
       <c r="DO123" s="116"/>
     </row>
-    <row r="124" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A124" s="115"/>
       <c r="B124" s="115"/>
       <c r="C124" s="116"/>
@@ -22134,7 +22133,7 @@
       <c r="DN124" s="116"/>
       <c r="DO124" s="116"/>
     </row>
-    <row r="125" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A125" s="115"/>
       <c r="B125" s="115"/>
       <c r="C125" s="116"/>
@@ -22255,7 +22254,7 @@
       <c r="DN125" s="116"/>
       <c r="DO125" s="116"/>
     </row>
-    <row r="126" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A126" s="115"/>
       <c r="B126" s="115"/>
       <c r="C126" s="116"/>
@@ -22381,14 +22380,6 @@
     <sortCondition ref="B9:B56"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="CZ4:DG4"/>
-    <mergeCell ref="DH4:DO4"/>
-    <mergeCell ref="BZ4:CC4"/>
-    <mergeCell ref="CD4:CE4"/>
-    <mergeCell ref="CF4:CG4"/>
-    <mergeCell ref="CH4:CK4"/>
-    <mergeCell ref="CL4:CO4"/>
-    <mergeCell ref="CP4:CY4"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="F4:Y4"/>
@@ -22400,6 +22391,14 @@
     <mergeCell ref="BH4:BQ4"/>
     <mergeCell ref="BR4:BS4"/>
     <mergeCell ref="BT4:BU4"/>
+    <mergeCell ref="CZ4:DG4"/>
+    <mergeCell ref="DH4:DO4"/>
+    <mergeCell ref="BZ4:CC4"/>
+    <mergeCell ref="CD4:CE4"/>
+    <mergeCell ref="CF4:CG4"/>
+    <mergeCell ref="CH4:CK4"/>
+    <mergeCell ref="CL4:CO4"/>
+    <mergeCell ref="CP4:CY4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="11" orientation="landscape" r:id="rId1"/>
@@ -22415,34 +22414,34 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="4" spans="6:20" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="4" spans="6:20" ht="15.4" x14ac:dyDescent="0.45">
       <c r="T4" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="6:20" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="5" spans="6:20" ht="15.4" x14ac:dyDescent="0.45">
       <c r="T5" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="6:20" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="6" spans="6:20" ht="15.4" x14ac:dyDescent="0.45">
       <c r="T6" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="6:20" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="7" spans="6:20" ht="15.4" x14ac:dyDescent="0.45">
       <c r="T7" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="6:20" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="8" spans="6:20" ht="15.4" x14ac:dyDescent="0.45">
       <c r="T8" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="6:20" x14ac:dyDescent="0.5">
+    <row r="12" spans="6:20" x14ac:dyDescent="0.45">
       <c r="F12" t="s">
         <v>87</v>
       </c>
@@ -22462,12 +22461,12 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.05859375" defaultRowHeight="13.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.05859375" style="1"/>
+    <col min="1" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:8 16384:16384" ht="41" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8 16384:16384" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>187</v>
       </c>
@@ -22493,7 +22492,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8 16384:16384" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7.4</v>
       </c>
@@ -22523,7 +22522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8 16384:16384" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8 16384:16384" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -22556,7 +22555,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:8 16384:16384" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8 16384:16384" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>3.3</v>
       </c>
@@ -22585,7 +22584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8 16384:16384" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8 16384:16384" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>3.3</v>
       </c>
@@ -22614,17 +22613,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M19" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M21" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="41.35" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="89" t="s">
         <v>191</v>
       </c>
@@ -22644,7 +22643,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="90">
         <v>42</v>
       </c>
@@ -22657,7 +22656,7 @@
         <v>3.1510472455674311E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="90">
         <v>40</v>
       </c>
@@ -22674,7 +22673,7 @@
         <v>3.5072529647841501E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="90">
         <v>38</v>
       </c>
@@ -22691,7 +22690,7 @@
         <v>5.5767506575068009E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="90">
         <v>36</v>
       </c>
@@ -22708,7 +22707,7 @@
         <v>8.8673808842062107E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="90">
         <v>34</v>
       </c>
@@ -22721,7 +22720,7 @@
         <v>2.0142411280237475E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="90">
         <v>32</v>
       </c>
@@ -22734,7 +22733,7 @@
         <v>3.2027688472636276E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="90">
         <v>30</v>
       </c>
@@ -22747,7 +22746,7 @@
         <v>5.0926019463551769E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="90">
         <v>28</v>
       </c>
@@ -22764,7 +22763,7 @@
         <v>0.56682879953465648</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="90">
         <v>26</v>
       </c>
@@ -22777,7 +22776,7 @@
         <v>0.12875615646606325</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="90">
         <v>24</v>
       </c>
@@ -22790,7 +22789,7 @@
         <v>0.20473030814712212</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="90">
         <v>22</v>
       </c>
@@ -22803,7 +22802,7 @@
         <v>0.32553394124546686</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="90">
         <v>20</v>
       </c>
@@ -22816,7 +22815,7 @@
         <v>0.51761924192803854</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="90">
         <v>18</v>
       </c>
@@ -22829,7 +22828,7 @@
         <v>0.8230468337313146</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="90">
         <v>16</v>
       </c>
@@ -22842,7 +22841,7 @@
         <v>1.3086957277552631</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="90">
         <v>14</v>
       </c>
@@ -22855,7 +22854,7 @@
         <v>2.080907717098377</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="90">
         <v>12</v>
       </c>
@@ -22885,194 +22884,194 @@
       <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.05859375" defaultRowHeight="13.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.64453125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.64453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.64453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5859375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5859375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.64453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.76171875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="1" customWidth="1"/>
-    <col min="12" max="25" width="9.05859375" style="1"/>
-    <col min="26" max="26" width="10.3515625" style="1" customWidth="1"/>
-    <col min="27" max="29" width="9.05859375" style="1"/>
-    <col min="30" max="30" width="10.5859375" style="1" customWidth="1"/>
-    <col min="31" max="69" width="9.05859375" style="1"/>
-    <col min="70" max="73" width="10.64453125" style="1" customWidth="1"/>
-    <col min="74" max="81" width="9.05859375" style="1"/>
-    <col min="82" max="85" width="10.64453125" style="1" customWidth="1"/>
-    <col min="86" max="16384" width="9.05859375" style="1"/>
+    <col min="12" max="25" width="9.06640625" style="1"/>
+    <col min="26" max="26" width="10.33203125" style="1" customWidth="1"/>
+    <col min="27" max="29" width="9.06640625" style="1"/>
+    <col min="30" max="30" width="10.59765625" style="1" customWidth="1"/>
+    <col min="31" max="69" width="9.06640625" style="1"/>
+    <col min="70" max="73" width="10.6640625" style="1" customWidth="1"/>
+    <col min="74" max="81" width="9.06640625" style="1"/>
+    <col min="82" max="85" width="10.6640625" style="1" customWidth="1"/>
+    <col min="86" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:119" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:119" ht="14" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:119" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:119" ht="13.9" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:119" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="157" t="s">
+      <c r="G4" s="151" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="159"/>
-      <c r="I4" s="154" t="s">
+      <c r="H4" s="153"/>
+      <c r="I4" s="160" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="155"/>
-      <c r="U4" s="155"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="156"/>
-      <c r="Z4" s="151" t="s">
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161"/>
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="162"/>
+      <c r="Z4" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="AA4" s="152"/>
-      <c r="AB4" s="152"/>
-      <c r="AC4" s="153"/>
-      <c r="AD4" s="151" t="s">
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
+      <c r="AC4" s="159"/>
+      <c r="AD4" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="AE4" s="152"/>
-      <c r="AF4" s="152"/>
-      <c r="AG4" s="153"/>
-      <c r="AH4" s="157" t="s">
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="158"/>
+      <c r="AG4" s="159"/>
+      <c r="AH4" s="151" t="s">
         <v>152</v>
       </c>
-      <c r="AI4" s="158"/>
-      <c r="AJ4" s="158"/>
-      <c r="AK4" s="158"/>
-      <c r="AL4" s="158"/>
-      <c r="AM4" s="160"/>
-      <c r="AN4" s="161" t="s">
+      <c r="AI4" s="152"/>
+      <c r="AJ4" s="152"/>
+      <c r="AK4" s="152"/>
+      <c r="AL4" s="152"/>
+      <c r="AM4" s="155"/>
+      <c r="AN4" s="156" t="s">
         <v>153</v>
       </c>
-      <c r="AO4" s="158"/>
-      <c r="AP4" s="158"/>
-      <c r="AQ4" s="158"/>
-      <c r="AR4" s="158"/>
-      <c r="AS4" s="158"/>
-      <c r="AT4" s="158"/>
-      <c r="AU4" s="158"/>
-      <c r="AV4" s="158"/>
-      <c r="AW4" s="159"/>
-      <c r="AX4" s="157" t="s">
+      <c r="AO4" s="152"/>
+      <c r="AP4" s="152"/>
+      <c r="AQ4" s="152"/>
+      <c r="AR4" s="152"/>
+      <c r="AS4" s="152"/>
+      <c r="AT4" s="152"/>
+      <c r="AU4" s="152"/>
+      <c r="AV4" s="152"/>
+      <c r="AW4" s="153"/>
+      <c r="AX4" s="151" t="s">
         <v>154</v>
       </c>
-      <c r="AY4" s="158"/>
-      <c r="AZ4" s="158"/>
-      <c r="BA4" s="158"/>
-      <c r="BB4" s="158"/>
-      <c r="BC4" s="158"/>
-      <c r="BD4" s="158"/>
-      <c r="BE4" s="158"/>
-      <c r="BF4" s="158"/>
-      <c r="BG4" s="159"/>
-      <c r="BH4" s="157" t="s">
+      <c r="AY4" s="152"/>
+      <c r="AZ4" s="152"/>
+      <c r="BA4" s="152"/>
+      <c r="BB4" s="152"/>
+      <c r="BC4" s="152"/>
+      <c r="BD4" s="152"/>
+      <c r="BE4" s="152"/>
+      <c r="BF4" s="152"/>
+      <c r="BG4" s="153"/>
+      <c r="BH4" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="BI4" s="158"/>
-      <c r="BJ4" s="158"/>
-      <c r="BK4" s="158"/>
-      <c r="BL4" s="158"/>
-      <c r="BM4" s="158"/>
-      <c r="BN4" s="158"/>
-      <c r="BO4" s="158"/>
-      <c r="BP4" s="158"/>
-      <c r="BQ4" s="159"/>
-      <c r="BR4" s="157" t="s">
+      <c r="BI4" s="152"/>
+      <c r="BJ4" s="152"/>
+      <c r="BK4" s="152"/>
+      <c r="BL4" s="152"/>
+      <c r="BM4" s="152"/>
+      <c r="BN4" s="152"/>
+      <c r="BO4" s="152"/>
+      <c r="BP4" s="152"/>
+      <c r="BQ4" s="153"/>
+      <c r="BR4" s="151" t="s">
         <v>156</v>
       </c>
-      <c r="BS4" s="160"/>
-      <c r="BT4" s="161" t="s">
+      <c r="BS4" s="155"/>
+      <c r="BT4" s="156" t="s">
         <v>157</v>
       </c>
-      <c r="BU4" s="159"/>
-      <c r="BV4" s="157" t="s">
+      <c r="BU4" s="153"/>
+      <c r="BV4" s="151" t="s">
         <v>160</v>
       </c>
-      <c r="BW4" s="158"/>
-      <c r="BX4" s="158"/>
-      <c r="BY4" s="159"/>
-      <c r="BZ4" s="157" t="s">
+      <c r="BW4" s="152"/>
+      <c r="BX4" s="152"/>
+      <c r="BY4" s="153"/>
+      <c r="BZ4" s="151" t="s">
         <v>161</v>
       </c>
-      <c r="CA4" s="158"/>
-      <c r="CB4" s="158"/>
-      <c r="CC4" s="159"/>
-      <c r="CD4" s="157" t="s">
+      <c r="CA4" s="152"/>
+      <c r="CB4" s="152"/>
+      <c r="CC4" s="153"/>
+      <c r="CD4" s="151" t="s">
         <v>158</v>
       </c>
-      <c r="CE4" s="160"/>
-      <c r="CF4" s="161" t="s">
+      <c r="CE4" s="155"/>
+      <c r="CF4" s="156" t="s">
         <v>159</v>
       </c>
-      <c r="CG4" s="159"/>
-      <c r="CH4" s="157" t="s">
+      <c r="CG4" s="153"/>
+      <c r="CH4" s="151" t="s">
         <v>162</v>
       </c>
-      <c r="CI4" s="158"/>
-      <c r="CJ4" s="158"/>
-      <c r="CK4" s="159"/>
-      <c r="CL4" s="157" t="s">
+      <c r="CI4" s="152"/>
+      <c r="CJ4" s="152"/>
+      <c r="CK4" s="153"/>
+      <c r="CL4" s="151" t="s">
         <v>163</v>
       </c>
-      <c r="CM4" s="158"/>
-      <c r="CN4" s="158"/>
-      <c r="CO4" s="159"/>
-      <c r="CP4" s="157" t="s">
+      <c r="CM4" s="152"/>
+      <c r="CN4" s="152"/>
+      <c r="CO4" s="153"/>
+      <c r="CP4" s="151" t="s">
         <v>164</v>
       </c>
-      <c r="CQ4" s="158"/>
-      <c r="CR4" s="158"/>
-      <c r="CS4" s="158"/>
-      <c r="CT4" s="158"/>
-      <c r="CU4" s="158"/>
-      <c r="CV4" s="158"/>
-      <c r="CW4" s="158"/>
-      <c r="CX4" s="158"/>
-      <c r="CY4" s="159"/>
-      <c r="CZ4" s="157" t="s">
+      <c r="CQ4" s="152"/>
+      <c r="CR4" s="152"/>
+      <c r="CS4" s="152"/>
+      <c r="CT4" s="152"/>
+      <c r="CU4" s="152"/>
+      <c r="CV4" s="152"/>
+      <c r="CW4" s="152"/>
+      <c r="CX4" s="152"/>
+      <c r="CY4" s="153"/>
+      <c r="CZ4" s="151" t="s">
         <v>165</v>
       </c>
-      <c r="DA4" s="158"/>
-      <c r="DB4" s="158"/>
-      <c r="DC4" s="158"/>
-      <c r="DD4" s="158"/>
-      <c r="DE4" s="158"/>
-      <c r="DF4" s="158"/>
-      <c r="DG4" s="159"/>
-      <c r="DH4" s="157" t="s">
+      <c r="DA4" s="152"/>
+      <c r="DB4" s="152"/>
+      <c r="DC4" s="152"/>
+      <c r="DD4" s="152"/>
+      <c r="DE4" s="152"/>
+      <c r="DF4" s="152"/>
+      <c r="DG4" s="153"/>
+      <c r="DH4" s="151" t="s">
         <v>178</v>
       </c>
-      <c r="DI4" s="158"/>
-      <c r="DJ4" s="158"/>
-      <c r="DK4" s="158"/>
-      <c r="DL4" s="158"/>
-      <c r="DM4" s="158"/>
-      <c r="DN4" s="158"/>
-      <c r="DO4" s="159"/>
+      <c r="DI4" s="152"/>
+      <c r="DJ4" s="152"/>
+      <c r="DK4" s="152"/>
+      <c r="DL4" s="152"/>
+      <c r="DM4" s="152"/>
+      <c r="DN4" s="152"/>
+      <c r="DO4" s="153"/>
     </row>
-    <row r="5" spans="1:119" ht="72.349999999999994" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:119" ht="70.900000000000006" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>48</v>
       </c>
@@ -23422,7 +23421,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
@@ -23769,7 +23768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
@@ -24092,7 +24091,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:119" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:119" ht="49.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -24451,7 +24450,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:119" ht="55" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:119" ht="54.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="45" t="s">
         <v>147</v>
       </c>
@@ -24582,8 +24581,8 @@
       <c r="DN9" s="81"/>
       <c r="DO9" s="82"/>
     </row>
-    <row r="10" spans="1:119" ht="40.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="166" t="s">
+    <row r="10" spans="1:119" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="163" t="s">
         <v>148</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -24713,8 +24712,8 @@
       <c r="DN10" s="83"/>
       <c r="DO10" s="84"/>
     </row>
-    <row r="11" spans="1:119" ht="27.7" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="167"/>
+    <row r="11" spans="1:119" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="165"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17">
         <v>2</v>
@@ -24840,8 +24839,8 @@
       <c r="DN11" s="83"/>
       <c r="DO11" s="84"/>
     </row>
-    <row r="12" spans="1:119" ht="41.35" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="163" t="s">
+    <row r="12" spans="1:119" ht="40.9" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="166" t="s">
         <v>149</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -24971,7 +24970,7 @@
       <c r="DN12" s="83"/>
       <c r="DO12" s="84"/>
     </row>
-    <row r="13" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A13" s="164"/>
       <c r="B13" s="16" t="s">
         <v>5</v>
@@ -25100,7 +25099,7 @@
       <c r="DN13" s="83"/>
       <c r="DO13" s="84"/>
     </row>
-    <row r="14" spans="1:119" ht="43.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:119" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="164"/>
       <c r="B14" s="16" t="s">
         <v>35</v>
@@ -25231,7 +25230,7 @@
       <c r="DN14" s="83"/>
       <c r="DO14" s="84"/>
     </row>
-    <row r="15" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A15" s="164"/>
       <c r="B15" s="16" t="s">
         <v>8</v>
@@ -25360,7 +25359,7 @@
       <c r="DN15" s="83"/>
       <c r="DO15" s="84"/>
     </row>
-    <row r="16" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A16" s="164"/>
       <c r="B16" s="16" t="s">
         <v>30</v>
@@ -25489,7 +25488,7 @@
       <c r="DN16" s="83"/>
       <c r="DO16" s="84"/>
     </row>
-    <row r="17" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A17" s="164"/>
       <c r="B17" s="16" t="s">
         <v>31</v>
@@ -25618,7 +25617,7 @@
       <c r="DN17" s="83"/>
       <c r="DO17" s="84"/>
     </row>
-    <row r="18" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A18" s="164"/>
       <c r="B18" s="16" t="s">
         <v>32</v>
@@ -25747,7 +25746,7 @@
       <c r="DN18" s="83"/>
       <c r="DO18" s="84"/>
     </row>
-    <row r="19" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A19" s="164"/>
       <c r="B19" s="16" t="s">
         <v>22</v>
@@ -25876,7 +25875,7 @@
       <c r="DN19" s="83"/>
       <c r="DO19" s="84"/>
     </row>
-    <row r="20" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A20" s="164"/>
       <c r="B20" s="16" t="s">
         <v>23</v>
@@ -26005,7 +26004,7 @@
       <c r="DN20" s="83"/>
       <c r="DO20" s="84"/>
     </row>
-    <row r="21" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A21" s="164"/>
       <c r="B21" s="16" t="s">
         <v>24</v>
@@ -26134,7 +26133,7 @@
       <c r="DN21" s="83"/>
       <c r="DO21" s="84"/>
     </row>
-    <row r="22" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A22" s="164"/>
       <c r="B22" s="16" t="s">
         <v>25</v>
@@ -26263,7 +26262,7 @@
       <c r="DN22" s="83"/>
       <c r="DO22" s="84"/>
     </row>
-    <row r="23" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A23" s="164"/>
       <c r="B23" s="16" t="s">
         <v>26</v>
@@ -26392,7 +26391,7 @@
       <c r="DN23" s="83"/>
       <c r="DO23" s="84"/>
     </row>
-    <row r="24" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A24" s="164"/>
       <c r="B24" s="16" t="s">
         <v>27</v>
@@ -26521,7 +26520,7 @@
       <c r="DN24" s="83"/>
       <c r="DO24" s="84"/>
     </row>
-    <row r="25" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A25" s="164"/>
       <c r="B25" s="16" t="s">
         <v>28</v>
@@ -26650,7 +26649,7 @@
       <c r="DN25" s="83"/>
       <c r="DO25" s="84"/>
     </row>
-    <row r="26" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A26" s="164"/>
       <c r="B26" s="16" t="s">
         <v>29</v>
@@ -26779,7 +26778,7 @@
       <c r="DN26" s="83"/>
       <c r="DO26" s="84"/>
     </row>
-    <row r="27" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A27" s="164"/>
       <c r="B27" s="16" t="s">
         <v>45</v>
@@ -26908,8 +26907,8 @@
       <c r="DN27" s="83"/>
       <c r="DO27" s="84"/>
     </row>
-    <row r="28" spans="1:119" ht="41.35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="165"/>
+    <row r="28" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="167"/>
       <c r="B28" s="50" t="s">
         <v>46</v>
       </c>
@@ -27037,8 +27036,8 @@
       <c r="DN28" s="83"/>
       <c r="DO28" s="84"/>
     </row>
-    <row r="29" spans="1:119" ht="55" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="166" t="s">
+    <row r="29" spans="1:119" ht="54.4" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="163" t="s">
         <v>150</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -27168,7 +27167,7 @@
       <c r="DN29" s="83"/>
       <c r="DO29" s="84"/>
     </row>
-    <row r="30" spans="1:119" ht="54.7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A30" s="164"/>
       <c r="B30" s="16" t="s">
         <v>37</v>
@@ -27297,7 +27296,7 @@
       <c r="DN30" s="83"/>
       <c r="DO30" s="84"/>
     </row>
-    <row r="31" spans="1:119" ht="54.7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A31" s="164"/>
       <c r="B31" s="16" t="s">
         <v>38</v>
@@ -27428,8 +27427,8 @@
       <c r="DN31" s="83"/>
       <c r="DO31" s="84"/>
     </row>
-    <row r="32" spans="1:119" ht="41.35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="167"/>
+    <row r="32" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="165"/>
       <c r="B32" s="17" t="s">
         <v>39</v>
       </c>
@@ -27557,8 +27556,8 @@
       <c r="DN32" s="83"/>
       <c r="DO32" s="84"/>
     </row>
-    <row r="33" spans="1:119" ht="55" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="163" t="s">
+    <row r="33" spans="1:119" ht="54.4" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="166" t="s">
         <v>151</v>
       </c>
       <c r="B33" s="48" t="s">
@@ -27688,7 +27687,7 @@
       <c r="DN33" s="83"/>
       <c r="DO33" s="84"/>
     </row>
-    <row r="34" spans="1:119" ht="54.7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A34" s="164"/>
       <c r="B34" s="16" t="s">
         <v>37</v>
@@ -27817,7 +27816,7 @@
       <c r="DN34" s="83"/>
       <c r="DO34" s="84"/>
     </row>
-    <row r="35" spans="1:119" ht="68.349999999999994" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:119" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A35" s="164"/>
       <c r="B35" s="16" t="s">
         <v>38</v>
@@ -27948,8 +27947,8 @@
       <c r="DN35" s="83"/>
       <c r="DO35" s="84"/>
     </row>
-    <row r="36" spans="1:119" ht="41.35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="165"/>
+    <row r="36" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="167"/>
       <c r="B36" s="50" t="s">
         <v>39</v>
       </c>
@@ -28077,8 +28076,8 @@
       <c r="DN36" s="83"/>
       <c r="DO36" s="84"/>
     </row>
-    <row r="37" spans="1:119" ht="40.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="166" t="s">
+    <row r="37" spans="1:119" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="163" t="s">
         <v>152</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -28208,7 +28207,7 @@
       <c r="DN37" s="83"/>
       <c r="DO37" s="84"/>
     </row>
-    <row r="38" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A38" s="164"/>
       <c r="B38" s="16" t="s">
         <v>56</v>
@@ -28337,7 +28336,7 @@
       <c r="DN38" s="83"/>
       <c r="DO38" s="84"/>
     </row>
-    <row r="39" spans="1:119" ht="54.7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A39" s="164"/>
       <c r="B39" s="16" t="s">
         <v>56</v>
@@ -28466,7 +28465,7 @@
       <c r="DN39" s="83"/>
       <c r="DO39" s="84"/>
     </row>
-    <row r="40" spans="1:119" ht="54.7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A40" s="164"/>
       <c r="B40" s="16" t="s">
         <v>56</v>
@@ -28597,7 +28596,7 @@
       <c r="DN40" s="83"/>
       <c r="DO40" s="84"/>
     </row>
-    <row r="41" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A41" s="164"/>
       <c r="B41" s="16" t="s">
         <v>56</v>
@@ -28726,8 +28725,8 @@
       <c r="DN41" s="83"/>
       <c r="DO41" s="84"/>
     </row>
-    <row r="42" spans="1:119" ht="41.35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="167"/>
+    <row r="42" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="165"/>
       <c r="B42" s="17" t="s">
         <v>56</v>
       </c>
@@ -28855,8 +28854,8 @@
       <c r="DN42" s="83"/>
       <c r="DO42" s="84"/>
     </row>
-    <row r="43" spans="1:119" ht="40.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="163" t="s">
+    <row r="43" spans="1:119" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="166" t="s">
         <v>153</v>
       </c>
       <c r="B43" s="48" t="s">
@@ -28988,7 +28987,7 @@
       <c r="DN43" s="83"/>
       <c r="DO43" s="84"/>
     </row>
-    <row r="44" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A44" s="164"/>
       <c r="B44" s="16" t="s">
         <v>56</v>
@@ -29119,7 +29118,7 @@
       <c r="DN44" s="83"/>
       <c r="DO44" s="84"/>
     </row>
-    <row r="45" spans="1:119" ht="54.7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A45" s="164"/>
       <c r="B45" s="16" t="s">
         <v>56</v>
@@ -29248,7 +29247,7 @@
       <c r="DN45" s="83"/>
       <c r="DO45" s="84"/>
     </row>
-    <row r="46" spans="1:119" ht="54.7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A46" s="164"/>
       <c r="B46" s="16" t="s">
         <v>56</v>
@@ -29377,7 +29376,7 @@
       <c r="DN46" s="83"/>
       <c r="DO46" s="84"/>
     </row>
-    <row r="47" spans="1:119" ht="54.7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A47" s="164"/>
       <c r="B47" s="16" t="s">
         <v>56</v>
@@ -29506,7 +29505,7 @@
       <c r="DN47" s="83"/>
       <c r="DO47" s="84"/>
     </row>
-    <row r="48" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A48" s="164"/>
       <c r="B48" s="16" t="s">
         <v>56</v>
@@ -29635,7 +29634,7 @@
       <c r="DN48" s="83"/>
       <c r="DO48" s="84"/>
     </row>
-    <row r="49" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A49" s="164"/>
       <c r="B49" s="16" t="s">
         <v>56</v>
@@ -29764,7 +29763,7 @@
       <c r="DN49" s="83"/>
       <c r="DO49" s="84"/>
     </row>
-    <row r="50" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A50" s="164"/>
       <c r="B50" s="16" t="s">
         <v>56</v>
@@ -29893,7 +29892,7 @@
       <c r="DN50" s="83"/>
       <c r="DO50" s="84"/>
     </row>
-    <row r="51" spans="1:119" ht="54.7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A51" s="164"/>
       <c r="B51" s="16" t="s">
         <v>56</v>
@@ -30022,8 +30021,8 @@
       <c r="DN51" s="83"/>
       <c r="DO51" s="84"/>
     </row>
-    <row r="52" spans="1:119" ht="41.35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="165"/>
+    <row r="52" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="167"/>
       <c r="B52" s="50" t="s">
         <v>56</v>
       </c>
@@ -30151,8 +30150,8 @@
       <c r="DN52" s="83"/>
       <c r="DO52" s="84"/>
     </row>
-    <row r="53" spans="1:119" ht="54.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="166" t="s">
+    <row r="53" spans="1:119" ht="54.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="163" t="s">
         <v>154</v>
       </c>
       <c r="B53" s="15" t="s">
@@ -30280,7 +30279,7 @@
       <c r="DN53" s="83"/>
       <c r="DO53" s="84"/>
     </row>
-    <row r="54" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A54" s="164"/>
       <c r="B54" s="16" t="s">
         <v>71</v>
@@ -30407,7 +30406,7 @@
       <c r="DN54" s="83"/>
       <c r="DO54" s="84"/>
     </row>
-    <row r="55" spans="1:119" ht="68.349999999999994" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:119" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A55" s="164"/>
       <c r="B55" s="16" t="s">
         <v>72</v>
@@ -30534,7 +30533,7 @@
       <c r="DN55" s="83"/>
       <c r="DO55" s="84"/>
     </row>
-    <row r="56" spans="1:119" ht="68.349999999999994" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:119" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A56" s="164"/>
       <c r="B56" s="16" t="s">
         <v>73</v>
@@ -30661,7 +30660,7 @@
       <c r="DN56" s="83"/>
       <c r="DO56" s="84"/>
     </row>
-    <row r="57" spans="1:119" ht="68.349999999999994" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:119" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A57" s="164"/>
       <c r="B57" s="16" t="s">
         <v>74</v>
@@ -30788,7 +30787,7 @@
       <c r="DN57" s="83"/>
       <c r="DO57" s="84"/>
     </row>
-    <row r="58" spans="1:119" ht="68.349999999999994" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:119" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A58" s="164"/>
       <c r="B58" s="16" t="s">
         <v>75</v>
@@ -30915,7 +30914,7 @@
       <c r="DN58" s="83"/>
       <c r="DO58" s="84"/>
     </row>
-    <row r="59" spans="1:119" ht="82" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:119" ht="81" x14ac:dyDescent="0.35">
       <c r="A59" s="164"/>
       <c r="B59" s="16" t="s">
         <v>76</v>
@@ -31046,7 +31045,7 @@
       <c r="DN59" s="83"/>
       <c r="DO59" s="84"/>
     </row>
-    <row r="60" spans="1:119" ht="82" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:119" ht="81" x14ac:dyDescent="0.35">
       <c r="A60" s="164"/>
       <c r="B60" s="16" t="s">
         <v>77</v>
@@ -31177,7 +31176,7 @@
       <c r="DN60" s="83"/>
       <c r="DO60" s="84"/>
     </row>
-    <row r="61" spans="1:119" ht="95.7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:119" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A61" s="164"/>
       <c r="B61" s="16" t="s">
         <v>78</v>
@@ -31308,8 +31307,8 @@
       <c r="DN61" s="83"/>
       <c r="DO61" s="84"/>
     </row>
-    <row r="62" spans="1:119" ht="96" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="167"/>
+    <row r="62" spans="1:119" ht="94.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="165"/>
       <c r="B62" s="17" t="s">
         <v>79</v>
       </c>
@@ -31439,8 +31438,8 @@
       <c r="DN62" s="83"/>
       <c r="DO62" s="84"/>
     </row>
-    <row r="63" spans="1:119" ht="54.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="163" t="s">
+    <row r="63" spans="1:119" ht="54.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="166" t="s">
         <v>155</v>
       </c>
       <c r="B63" s="48" t="s">
@@ -31568,7 +31567,7 @@
       <c r="DN63" s="83"/>
       <c r="DO63" s="84"/>
     </row>
-    <row r="64" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A64" s="164"/>
       <c r="B64" s="16" t="s">
         <v>71</v>
@@ -31695,7 +31694,7 @@
       <c r="DN64" s="83"/>
       <c r="DO64" s="84"/>
     </row>
-    <row r="65" spans="1:119" ht="54.7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A65" s="164"/>
       <c r="B65" s="16" t="s">
         <v>72</v>
@@ -31822,7 +31821,7 @@
       <c r="DN65" s="83"/>
       <c r="DO65" s="84"/>
     </row>
-    <row r="66" spans="1:119" ht="68.349999999999994" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:119" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A66" s="164"/>
       <c r="B66" s="16" t="s">
         <v>73</v>
@@ -31949,7 +31948,7 @@
       <c r="DN66" s="83"/>
       <c r="DO66" s="84"/>
     </row>
-    <row r="67" spans="1:119" ht="54.7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A67" s="164"/>
       <c r="B67" s="16" t="s">
         <v>74</v>
@@ -32076,7 +32075,7 @@
       <c r="DN67" s="83"/>
       <c r="DO67" s="84"/>
     </row>
-    <row r="68" spans="1:119" ht="68.349999999999994" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:119" ht="67.5" x14ac:dyDescent="0.35">
       <c r="A68" s="164"/>
       <c r="B68" s="16" t="s">
         <v>75</v>
@@ -32203,7 +32202,7 @@
       <c r="DN68" s="83"/>
       <c r="DO68" s="84"/>
     </row>
-    <row r="69" spans="1:119" ht="68.349999999999994" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:119" ht="81" x14ac:dyDescent="0.35">
       <c r="A69" s="164"/>
       <c r="B69" s="16" t="s">
         <v>76</v>
@@ -32334,7 +32333,7 @@
       <c r="DN69" s="83"/>
       <c r="DO69" s="84"/>
     </row>
-    <row r="70" spans="1:119" ht="82" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:119" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A70" s="164"/>
       <c r="B70" s="16" t="s">
         <v>77</v>
@@ -32465,7 +32464,7 @@
       <c r="DN70" s="83"/>
       <c r="DO70" s="84"/>
     </row>
-    <row r="71" spans="1:119" ht="82" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:119" ht="81" x14ac:dyDescent="0.35">
       <c r="A71" s="164"/>
       <c r="B71" s="16" t="s">
         <v>78</v>
@@ -32596,8 +32595,8 @@
       <c r="DN71" s="83"/>
       <c r="DO71" s="84"/>
     </row>
-    <row r="72" spans="1:119" ht="96" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="165"/>
+    <row r="72" spans="1:119" ht="94.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="167"/>
       <c r="B72" s="50" t="s">
         <v>79</v>
       </c>
@@ -32727,8 +32726,8 @@
       <c r="DN72" s="83"/>
       <c r="DO72" s="84"/>
     </row>
-    <row r="73" spans="1:119" ht="41.35" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="166" t="s">
+    <row r="73" spans="1:119" ht="40.9" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="163" t="s">
         <v>156</v>
       </c>
       <c r="B73" s="15" t="s">
@@ -32858,8 +32857,8 @@
       <c r="DN73" s="83"/>
       <c r="DO73" s="84"/>
     </row>
-    <row r="74" spans="1:119" ht="55" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="167"/>
+    <row r="74" spans="1:119" ht="67.900000000000006" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="165"/>
       <c r="B74" s="17" t="s">
         <v>67</v>
       </c>
@@ -32987,8 +32986,8 @@
       <c r="DN74" s="83"/>
       <c r="DO74" s="84"/>
     </row>
-    <row r="75" spans="1:119" ht="41.35" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="163" t="s">
+    <row r="75" spans="1:119" ht="40.9" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="166" t="s">
         <v>157</v>
       </c>
       <c r="B75" s="48" t="s">
@@ -33118,8 +33117,8 @@
       <c r="DN75" s="83"/>
       <c r="DO75" s="84"/>
     </row>
-    <row r="76" spans="1:119" ht="55" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="165"/>
+    <row r="76" spans="1:119" ht="67.900000000000006" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="167"/>
       <c r="B76" s="50" t="s">
         <v>67</v>
       </c>
@@ -33247,8 +33246,8 @@
       <c r="DN76" s="83"/>
       <c r="DO76" s="84"/>
     </row>
-    <row r="77" spans="1:119" ht="40.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="166" t="s">
+    <row r="77" spans="1:119" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="163" t="s">
         <v>160</v>
       </c>
       <c r="B77" s="15" t="s">
@@ -33378,7 +33377,7 @@
       <c r="DN77" s="83"/>
       <c r="DO77" s="84"/>
     </row>
-    <row r="78" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A78" s="164"/>
       <c r="B78" s="16" t="s">
         <v>80</v>
@@ -33507,7 +33506,7 @@
       <c r="DN78" s="83"/>
       <c r="DO78" s="84"/>
     </row>
-    <row r="79" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A79" s="164"/>
       <c r="B79" s="16" t="s">
         <v>112</v>
@@ -33636,8 +33635,8 @@
       <c r="DN79" s="83"/>
       <c r="DO79" s="84"/>
     </row>
-    <row r="80" spans="1:119" ht="41.35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="167"/>
+    <row r="80" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="165"/>
       <c r="B80" s="17" t="s">
         <v>113</v>
       </c>
@@ -33765,8 +33764,8 @@
       <c r="DN80" s="83"/>
       <c r="DO80" s="84"/>
     </row>
-    <row r="81" spans="1:119" ht="40.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="163" t="s">
+    <row r="81" spans="1:119" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="166" t="s">
         <v>161</v>
       </c>
       <c r="B81" s="48" t="s">
@@ -33896,7 +33895,7 @@
       <c r="DN81" s="83"/>
       <c r="DO81" s="84"/>
     </row>
-    <row r="82" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A82" s="164"/>
       <c r="B82" s="16" t="s">
         <v>80</v>
@@ -34025,7 +34024,7 @@
       <c r="DN82" s="83"/>
       <c r="DO82" s="84"/>
     </row>
-    <row r="83" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A83" s="164"/>
       <c r="B83" s="16" t="s">
         <v>112</v>
@@ -34154,8 +34153,8 @@
       <c r="DN83" s="83"/>
       <c r="DO83" s="84"/>
     </row>
-    <row r="84" spans="1:119" ht="41.35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="165"/>
+    <row r="84" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="167"/>
       <c r="B84" s="50" t="s">
         <v>113</v>
       </c>
@@ -34283,8 +34282,8 @@
       <c r="DN84" s="83"/>
       <c r="DO84" s="84"/>
     </row>
-    <row r="85" spans="1:119" ht="41.35" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="166" t="s">
+    <row r="85" spans="1:119" ht="40.9" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="163" t="s">
         <v>158</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -34414,8 +34413,8 @@
       <c r="DN85" s="83"/>
       <c r="DO85" s="84"/>
     </row>
-    <row r="86" spans="1:119" ht="68.7" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="167"/>
+    <row r="86" spans="1:119" ht="67.900000000000006" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="165"/>
       <c r="B86" s="17" t="s">
         <v>67</v>
       </c>
@@ -34543,8 +34542,8 @@
       <c r="DN86" s="83"/>
       <c r="DO86" s="84"/>
     </row>
-    <row r="87" spans="1:119" ht="41.35" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="163" t="s">
+    <row r="87" spans="1:119" ht="40.9" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="166" t="s">
         <v>159</v>
       </c>
       <c r="B87" s="48" t="s">
@@ -34674,8 +34673,8 @@
       <c r="DN87" s="83"/>
       <c r="DO87" s="84"/>
     </row>
-    <row r="88" spans="1:119" ht="68.7" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="165"/>
+    <row r="88" spans="1:119" ht="67.900000000000006" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="167"/>
       <c r="B88" s="50" t="s">
         <v>67</v>
       </c>
@@ -34803,8 +34802,8 @@
       <c r="DN88" s="83"/>
       <c r="DO88" s="84"/>
     </row>
-    <row r="89" spans="1:119" ht="40.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="166" t="s">
+    <row r="89" spans="1:119" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="163" t="s">
         <v>162</v>
       </c>
       <c r="B89" s="15" t="s">
@@ -34934,7 +34933,7 @@
       <c r="DN89" s="83"/>
       <c r="DO89" s="84"/>
     </row>
-    <row r="90" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A90" s="164"/>
       <c r="B90" s="16" t="s">
         <v>80</v>
@@ -35063,7 +35062,7 @@
       <c r="DN90" s="83"/>
       <c r="DO90" s="84"/>
     </row>
-    <row r="91" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A91" s="164"/>
       <c r="B91" s="16" t="s">
         <v>112</v>
@@ -35192,8 +35191,8 @@
       <c r="DN91" s="83"/>
       <c r="DO91" s="84"/>
     </row>
-    <row r="92" spans="1:119" ht="41.35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="167"/>
+    <row r="92" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="165"/>
       <c r="B92" s="39" t="s">
         <v>113</v>
       </c>
@@ -35321,8 +35320,8 @@
       <c r="DN92" s="83"/>
       <c r="DO92" s="84"/>
     </row>
-    <row r="93" spans="1:119" ht="40.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="163" t="s">
+    <row r="93" spans="1:119" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="166" t="s">
         <v>163</v>
       </c>
       <c r="B93" s="48" t="s">
@@ -35452,7 +35451,7 @@
       <c r="DN93" s="83"/>
       <c r="DO93" s="84"/>
     </row>
-    <row r="94" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A94" s="164"/>
       <c r="B94" s="16" t="s">
         <v>80</v>
@@ -35581,7 +35580,7 @@
       <c r="DN94" s="83"/>
       <c r="DO94" s="84"/>
     </row>
-    <row r="95" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A95" s="164"/>
       <c r="B95" s="16" t="s">
         <v>112</v>
@@ -35710,8 +35709,8 @@
       <c r="DN95" s="83"/>
       <c r="DO95" s="84"/>
     </row>
-    <row r="96" spans="1:119" ht="41.35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="165"/>
+    <row r="96" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="167"/>
       <c r="B96" s="53" t="s">
         <v>113</v>
       </c>
@@ -35839,8 +35838,8 @@
       <c r="DN96" s="83"/>
       <c r="DO96" s="84"/>
     </row>
-    <row r="97" spans="1:119" ht="40.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="166" t="s">
+    <row r="97" spans="1:119" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="163" t="s">
         <v>164</v>
       </c>
       <c r="B97" s="15" t="s">
@@ -35970,7 +35969,7 @@
       <c r="DN97" s="83"/>
       <c r="DO97" s="84"/>
     </row>
-    <row r="98" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A98" s="164"/>
       <c r="B98" s="36" t="s">
         <v>130</v>
@@ -36099,7 +36098,7 @@
       <c r="DN98" s="83"/>
       <c r="DO98" s="84"/>
     </row>
-    <row r="99" spans="1:119" ht="27.35" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:119" ht="27" x14ac:dyDescent="0.35">
       <c r="A99" s="164"/>
       <c r="B99" s="16" t="s">
         <v>80</v>
@@ -36228,7 +36227,7 @@
       <c r="DN99" s="83"/>
       <c r="DO99" s="84"/>
     </row>
-    <row r="100" spans="1:119" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:119" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="164"/>
       <c r="B100" s="16" t="s">
         <v>131</v>
@@ -36357,7 +36356,7 @@
       <c r="DN100" s="83"/>
       <c r="DO100" s="84"/>
     </row>
-    <row r="101" spans="1:119" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:119" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="164"/>
       <c r="B101" s="16" t="s">
         <v>132</v>
@@ -36486,7 +36485,7 @@
       <c r="DN101" s="83"/>
       <c r="DO101" s="84"/>
     </row>
-    <row r="102" spans="1:119" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:119" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="164"/>
       <c r="B102" s="16" t="s">
         <v>133</v>
@@ -36615,7 +36614,7 @@
       <c r="DN102" s="83"/>
       <c r="DO102" s="84"/>
     </row>
-    <row r="103" spans="1:119" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:119" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="164"/>
       <c r="B103" s="36" t="s">
         <v>134</v>
@@ -36744,7 +36743,7 @@
       <c r="DN103" s="83"/>
       <c r="DO103" s="84"/>
     </row>
-    <row r="104" spans="1:119" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:119" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="164"/>
       <c r="B104" s="36" t="s">
         <v>135</v>
@@ -36873,7 +36872,7 @@
       <c r="DN104" s="83"/>
       <c r="DO104" s="84"/>
     </row>
-    <row r="105" spans="1:119" ht="27.35" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:119" ht="27" x14ac:dyDescent="0.35">
       <c r="A105" s="164"/>
       <c r="B105" s="36" t="s">
         <v>136</v>
@@ -37002,8 +37001,8 @@
       <c r="DN105" s="83"/>
       <c r="DO105" s="84"/>
     </row>
-    <row r="106" spans="1:119" ht="41.35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="167"/>
+    <row r="106" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="165"/>
       <c r="B106" s="39" t="s">
         <v>137</v>
       </c>
@@ -37131,8 +37130,8 @@
       <c r="DN106" s="83"/>
       <c r="DO106" s="84"/>
     </row>
-    <row r="107" spans="1:119" ht="55" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="163" t="s">
+    <row r="107" spans="1:119" ht="54.4" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="166" t="s">
         <v>165</v>
       </c>
       <c r="B107" s="48" t="s">
@@ -37262,7 +37261,7 @@
       <c r="DN107" s="83"/>
       <c r="DO107" s="84"/>
     </row>
-    <row r="108" spans="1:119" ht="54.7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A108" s="164"/>
       <c r="B108" s="16" t="s">
         <v>56</v>
@@ -37391,7 +37390,7 @@
       <c r="DN108" s="83"/>
       <c r="DO108" s="84"/>
     </row>
-    <row r="109" spans="1:119" ht="54.7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A109" s="164"/>
       <c r="B109" s="16" t="s">
         <v>56</v>
@@ -37520,7 +37519,7 @@
       <c r="DN109" s="83"/>
       <c r="DO109" s="84"/>
     </row>
-    <row r="110" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A110" s="164"/>
       <c r="B110" s="16" t="s">
         <v>56</v>
@@ -37649,7 +37648,7 @@
       <c r="DN110" s="83"/>
       <c r="DO110" s="84"/>
     </row>
-    <row r="111" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A111" s="164"/>
       <c r="B111" s="16" t="s">
         <v>56</v>
@@ -37778,7 +37777,7 @@
       <c r="DN111" s="83"/>
       <c r="DO111" s="84"/>
     </row>
-    <row r="112" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A112" s="164"/>
       <c r="B112" s="16" t="s">
         <v>56</v>
@@ -37907,7 +37906,7 @@
       <c r="DN112" s="83"/>
       <c r="DO112" s="84"/>
     </row>
-    <row r="113" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A113" s="164"/>
       <c r="B113" s="16" t="s">
         <v>56</v>
@@ -38036,8 +38035,8 @@
       <c r="DN113" s="83"/>
       <c r="DO113" s="84"/>
     </row>
-    <row r="114" spans="1:119" ht="41.35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="165"/>
+    <row r="114" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="167"/>
       <c r="B114" s="50" t="s">
         <v>56</v>
       </c>
@@ -38165,8 +38164,8 @@
       <c r="DN114" s="83"/>
       <c r="DO114" s="84"/>
     </row>
-    <row r="115" spans="1:119" ht="55" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="166" t="s">
+    <row r="115" spans="1:119" ht="54.4" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="163" t="s">
         <v>178</v>
       </c>
       <c r="B115" s="15" t="s">
@@ -38296,7 +38295,7 @@
       <c r="DN115" s="83"/>
       <c r="DO115" s="84"/>
     </row>
-    <row r="116" spans="1:119" ht="54.7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A116" s="164"/>
       <c r="B116" s="16" t="s">
         <v>56</v>
@@ -38425,7 +38424,7 @@
       <c r="DN116" s="83"/>
       <c r="DO116" s="84"/>
     </row>
-    <row r="117" spans="1:119" ht="54.7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:119" ht="54" x14ac:dyDescent="0.35">
       <c r="A117" s="164"/>
       <c r="B117" s="16" t="s">
         <v>56</v>
@@ -38554,7 +38553,7 @@
       <c r="DN117" s="83"/>
       <c r="DO117" s="84"/>
     </row>
-    <row r="118" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A118" s="164"/>
       <c r="B118" s="16" t="s">
         <v>56</v>
@@ -38683,7 +38682,7 @@
       <c r="DN118" s="83"/>
       <c r="DO118" s="84"/>
     </row>
-    <row r="119" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A119" s="164"/>
       <c r="B119" s="16" t="s">
         <v>56</v>
@@ -38812,7 +38811,7 @@
       <c r="DN119" s="83"/>
       <c r="DO119" s="84"/>
     </row>
-    <row r="120" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A120" s="164"/>
       <c r="B120" s="16" t="s">
         <v>56</v>
@@ -38941,7 +38940,7 @@
       <c r="DN120" s="83"/>
       <c r="DO120" s="84"/>
     </row>
-    <row r="121" spans="1:119" ht="41" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A121" s="164"/>
       <c r="B121" s="16" t="s">
         <v>56</v>
@@ -39070,8 +39069,8 @@
       <c r="DN121" s="83"/>
       <c r="DO121" s="84"/>
     </row>
-    <row r="122" spans="1:119" ht="41.35" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="167"/>
+    <row r="122" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="165"/>
       <c r="B122" s="17" t="s">
         <v>56</v>
       </c>
@@ -39201,15 +39200,19 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="BT4:BU4"/>
-    <mergeCell ref="BV4:BY4"/>
-    <mergeCell ref="BZ4:CC4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:Y4"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AW4"/>
+    <mergeCell ref="A107:A114"/>
+    <mergeCell ref="A115:A122"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A106"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="A63:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
     <mergeCell ref="A77:A80"/>
     <mergeCell ref="DH4:DO4"/>
     <mergeCell ref="A10:A11"/>
@@ -39226,19 +39229,15 @@
     <mergeCell ref="AX4:BG4"/>
     <mergeCell ref="BH4:BQ4"/>
     <mergeCell ref="BR4:BS4"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="A63:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A107:A114"/>
-    <mergeCell ref="A115:A122"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A106"/>
+    <mergeCell ref="BT4:BU4"/>
+    <mergeCell ref="BV4:BY4"/>
+    <mergeCell ref="BZ4:CC4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:Y4"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AW4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Electronics/Balance Bot Electrical Connection.xlsx
+++ b/Electronics/Balance Bot Electrical Connection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2378" yWindow="3660" windowWidth="15720" windowHeight="7223"/>
+    <workbookView xWindow="2378" yWindow="3660" windowWidth="15720" windowHeight="7223" tabRatio="349"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -6391,10 +6391,10 @@
   <dimension ref="A1:DO126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="X9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -6843,7 +6843,7 @@
       <c r="BX5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="BY5" s="12" t="s">
+      <c r="BY5" s="31" t="s">
         <v>113</v>
       </c>
       <c r="BZ5" s="21" t="s">
@@ -6855,7 +6855,7 @@
       <c r="CB5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="CC5" s="12" t="s">
+      <c r="CC5" s="31" t="s">
         <v>113</v>
       </c>
       <c r="CD5" s="131" t="s">
@@ -7202,7 +7202,7 @@
       <c r="BX6" s="16">
         <v>3</v>
       </c>
-      <c r="BY6" s="13">
+      <c r="BY6" s="32">
         <v>4</v>
       </c>
       <c r="BZ6" s="22">
@@ -7214,7 +7214,7 @@
       <c r="CB6" s="16">
         <v>3</v>
       </c>
-      <c r="CC6" s="13">
+      <c r="CC6" s="32">
         <v>4</v>
       </c>
       <c r="CD6" s="26">
@@ -7537,7 +7537,7 @@
       <c r="BX7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="BY7" s="13" t="s">
+      <c r="BY7" s="32" t="s">
         <v>47</v>
       </c>
       <c r="BZ7" s="22" t="s">
@@ -7549,7 +7549,7 @@
       <c r="CB7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="CC7" s="13" t="s">
+      <c r="CC7" s="32" t="s">
         <v>47</v>
       </c>
       <c r="CD7" s="26" t="s">
@@ -7896,7 +7896,7 @@
       <c r="BX8" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="BY8" s="52" t="s">
+      <c r="BY8" s="54" t="s">
         <v>116</v>
       </c>
       <c r="BZ8" s="72" t="s">
@@ -7908,7 +7908,7 @@
       <c r="CB8" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="CC8" s="52" t="s">
+      <c r="CC8" s="54" t="s">
         <v>116</v>
       </c>
       <c r="CD8" s="133" t="s">

--- a/Electronics/Balance Bot Electrical Connection.xlsx
+++ b/Electronics/Balance Bot Electrical Connection.xlsx
@@ -13,14 +13,14 @@
     <sheet name="Matrix-old" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Matrix!$A$1:$DO$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Matrix!$A$1:$DR$56</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="296">
   <si>
     <t>Balance Bot Electrical Connections</t>
   </si>
@@ -840,9 +840,6 @@
 SDL PC</t>
   </si>
   <si>
-    <t>Sensor</t>
-  </si>
-  <si>
     <t>SCL</t>
   </si>
   <si>
@@ -905,6 +902,24 @@
   <si>
     <t>2-Batt. Pack to Middle Shelf GND Rail (GND)</t>
   </si>
+  <si>
+    <t>+5 V</t>
+  </si>
+  <si>
+    <t>Power for Motor Power Relay</t>
+  </si>
+  <si>
+    <t>Ground for Motor Power Relay</t>
+  </si>
+  <si>
+    <t>9DOF Sensor</t>
+  </si>
+  <si>
+    <t>GPIO14 (TXD)</t>
+  </si>
+  <si>
+    <t>Signal to Motor Power Relay</t>
+  </si>
 </sst>
 </file>
 
@@ -913,13 +928,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -960,7 +981,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -970,6 +991,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1749,227 +1776,397 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1978,225 +2175,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2205,46 +2250,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2276,7 +2318,7 @@
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>275167</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
@@ -2633,7 +2675,7 @@
       <xdr:rowOff>94192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>312208</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>94192</xdr:rowOff>
@@ -2678,13 +2720,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>312208</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>98414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>291042</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>98414</xdr:rowOff>
@@ -2735,7 +2777,7 @@
       <xdr:rowOff>74083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>74083</xdr:rowOff>
@@ -2780,13 +2822,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>322792</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>328083</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
@@ -2837,7 +2879,7 @@
       <xdr:rowOff>79377</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>79377</xdr:rowOff>
@@ -3008,13 +3050,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>305855</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>343958</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -3059,13 +3101,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>266697</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>83609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>386291</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>83609</xdr:rowOff>
@@ -3110,13 +3152,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>270930</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>77259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>402167</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>77259</xdr:rowOff>
@@ -3161,13 +3203,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>269872</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
@@ -3212,13 +3254,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>274105</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>80434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>439208</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>80434</xdr:rowOff>
@@ -3263,13 +3305,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>249764</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>77259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>444501</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>77259</xdr:rowOff>
@@ -3314,13 +3356,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>253997</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>70909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>439209</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>70909</xdr:rowOff>
@@ -3365,13 +3407,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>252939</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>497417</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -3416,13 +3458,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>257172</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>74084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>486833</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>74084</xdr:rowOff>
@@ -3467,13 +3509,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>280464</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>87</xdr:col>
+      <xdr:col>90</xdr:col>
       <xdr:colOff>359833</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
@@ -3530,13 +3572,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>268822</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>78316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>91</xdr:col>
+      <xdr:col>94</xdr:col>
       <xdr:colOff>338667</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>78316</xdr:rowOff>
@@ -3593,13 +3635,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>257182</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>82548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>306917</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>82548</xdr:rowOff>
@@ -3656,13 +3698,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>266709</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>81490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
+      <xdr:col>82</xdr:col>
       <xdr:colOff>322792</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>81490</xdr:rowOff>
@@ -3719,13 +3761,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>333374</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
@@ -3770,13 +3812,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>275167</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>296333</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -3821,13 +3863,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>322792</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>74084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>73</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>328084</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>74084</xdr:rowOff>
@@ -3872,13 +3914,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>328083</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>80</xdr:col>
       <xdr:colOff>301624</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
@@ -3923,13 +3965,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>83608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>103</xdr:col>
+      <xdr:col>106</xdr:col>
       <xdr:colOff>322792</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>83608</xdr:rowOff>
@@ -3974,13 +4016,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>333377</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>365125</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
@@ -4037,13 +4079,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>317499</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
@@ -4088,13 +4130,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>328085</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>312208</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
@@ -4151,13 +4193,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>328084</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>349251</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
@@ -4202,13 +4244,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>327026</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>78316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>322792</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>78316</xdr:rowOff>
@@ -4253,13 +4295,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>296333</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>74084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>74</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>322792</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>74084</xdr:rowOff>
@@ -4304,13 +4346,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>327025</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>78318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>78</xdr:col>
+      <xdr:col>81</xdr:col>
       <xdr:colOff>322791</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>78318</xdr:rowOff>
@@ -4355,13 +4397,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>74083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>111</xdr:col>
+      <xdr:col>114</xdr:col>
       <xdr:colOff>306916</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>74083</xdr:rowOff>
@@ -4406,13 +4448,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>391583</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>89961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>81</xdr:col>
+      <xdr:col>84</xdr:col>
       <xdr:colOff>317499</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>89961</xdr:rowOff>
@@ -4469,13 +4511,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>396876</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>82</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>391583</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
@@ -4532,13 +4574,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>386292</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>83</xdr:col>
+      <xdr:col>86</xdr:col>
       <xdr:colOff>328084</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
@@ -4595,13 +4637,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>423333</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>84665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:col>87</xdr:col>
       <xdr:colOff>375708</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>84665</xdr:rowOff>
@@ -4658,13 +4700,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>312209</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>72</xdr:col>
       <xdr:colOff>317501</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
@@ -4721,13 +4763,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>497418</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>74080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>70</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>375708</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>74080</xdr:rowOff>
@@ -4784,13 +4826,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>63</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>539752</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>84664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>328084</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>84664</xdr:rowOff>
@@ -4847,13 +4889,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>629709</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>74078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>74078</xdr:rowOff>
@@ -4910,13 +4952,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>85</xdr:col>
+      <xdr:col>88</xdr:col>
       <xdr:colOff>328083</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>100542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>104</xdr:col>
+      <xdr:col>107</xdr:col>
       <xdr:colOff>322792</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>100542</xdr:rowOff>
@@ -4961,13 +5003,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>86</xdr:col>
+      <xdr:col>89</xdr:col>
       <xdr:colOff>322792</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>112</xdr:col>
+      <xdr:col>115</xdr:col>
       <xdr:colOff>301625</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
@@ -5012,13 +5054,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>89</xdr:col>
+      <xdr:col>92</xdr:col>
       <xdr:colOff>322792</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>84669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>105</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>338666</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>84669</xdr:rowOff>
@@ -5063,13 +5105,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>90</xdr:col>
+      <xdr:col>93</xdr:col>
       <xdr:colOff>317499</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>89962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>113</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>322792</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>89962</xdr:rowOff>
@@ -5114,13 +5156,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>89958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>106</xdr:col>
+      <xdr:col>109</xdr:col>
       <xdr:colOff>306917</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>89958</xdr:rowOff>
@@ -5165,13 +5207,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>311163</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>83610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>114</xdr:col>
+      <xdr:col>117</xdr:col>
       <xdr:colOff>306916</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>83610</xdr:rowOff>
@@ -5216,13 +5258,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>280458</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>370416</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
@@ -5279,13 +5321,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>296333</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>79373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
+      <xdr:col>100</xdr:col>
       <xdr:colOff>338667</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>79373</xdr:rowOff>
@@ -5342,13 +5384,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>301625</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>83608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
+      <xdr:col>101</xdr:col>
       <xdr:colOff>319615</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>83608</xdr:rowOff>
@@ -6388,13 +6430,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DO126"/>
+  <dimension ref="A1:DR126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -6403,53 +6445,53 @@
     <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.73046875" style="1" customWidth="1"/>
     <col min="4" max="5" width="6.73046875" style="1" customWidth="1"/>
-    <col min="6" max="25" width="7.9296875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.19921875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.3984375" style="1" customWidth="1"/>
-    <col min="28" max="29" width="8.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="9.19921875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="9.3984375" style="1" customWidth="1"/>
-    <col min="32" max="33" width="8.6640625" style="1" customWidth="1"/>
-    <col min="34" max="51" width="9.1328125" style="1" customWidth="1"/>
-    <col min="52" max="59" width="11.6640625" style="1" customWidth="1"/>
-    <col min="60" max="61" width="9.1328125" style="1" customWidth="1"/>
-    <col min="62" max="62" width="11.06640625" style="1" customWidth="1"/>
-    <col min="63" max="65" width="10.86328125" style="1" customWidth="1"/>
-    <col min="66" max="67" width="11.9296875" style="1" customWidth="1"/>
-    <col min="68" max="69" width="13.06640625" style="1" customWidth="1"/>
-    <col min="70" max="70" width="9.1328125" style="1" customWidth="1"/>
-    <col min="71" max="71" width="10.73046875" style="1" customWidth="1"/>
-    <col min="72" max="72" width="9.1328125" style="1" customWidth="1"/>
-    <col min="73" max="73" width="10.73046875" style="1" customWidth="1"/>
-    <col min="74" max="82" width="9.1328125" style="1" customWidth="1"/>
-    <col min="83" max="83" width="10.73046875" style="1" customWidth="1"/>
-    <col min="84" max="84" width="9.1328125" style="1" customWidth="1"/>
-    <col min="85" max="85" width="10.73046875" style="1" customWidth="1"/>
-    <col min="86" max="119" width="9.1328125" style="1" customWidth="1"/>
-    <col min="120" max="16384" width="9.06640625" style="1"/>
+    <col min="6" max="28" width="7.9296875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.19921875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9.3984375" style="1" customWidth="1"/>
+    <col min="31" max="32" width="8.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="9.19921875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="9.3984375" style="1" customWidth="1"/>
+    <col min="35" max="36" width="8.6640625" style="1" customWidth="1"/>
+    <col min="37" max="54" width="9.1328125" style="1" customWidth="1"/>
+    <col min="55" max="62" width="11.6640625" style="1" customWidth="1"/>
+    <col min="63" max="64" width="9.1328125" style="1" customWidth="1"/>
+    <col min="65" max="65" width="11.06640625" style="1" customWidth="1"/>
+    <col min="66" max="68" width="10.86328125" style="1" customWidth="1"/>
+    <col min="69" max="70" width="11.9296875" style="1" customWidth="1"/>
+    <col min="71" max="72" width="13.06640625" style="1" customWidth="1"/>
+    <col min="73" max="73" width="9.1328125" style="1" customWidth="1"/>
+    <col min="74" max="74" width="10.73046875" style="1" customWidth="1"/>
+    <col min="75" max="75" width="9.1328125" style="1" customWidth="1"/>
+    <col min="76" max="76" width="10.73046875" style="1" customWidth="1"/>
+    <col min="77" max="85" width="9.1328125" style="1" customWidth="1"/>
+    <col min="86" max="86" width="10.73046875" style="1" customWidth="1"/>
+    <col min="87" max="87" width="9.1328125" style="1" customWidth="1"/>
+    <col min="88" max="88" width="10.73046875" style="1" customWidth="1"/>
+    <col min="89" max="122" width="9.1328125" style="1" customWidth="1"/>
+    <col min="123" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:122" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.35">
-      <c r="BD2" s="135" t="s">
+    <row r="2" spans="1:122" x14ac:dyDescent="0.35">
+      <c r="BG2" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="BE2" s="135" t="s">
+      <c r="BH2" s="135" t="s">
         <v>259</v>
       </c>
-      <c r="BF2" s="135" t="s">
+      <c r="BI2" s="135" t="s">
         <v>260</v>
       </c>
-      <c r="BG2" s="136" t="s">
+      <c r="BJ2" s="136" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:119" ht="13.9" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:119" ht="42.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:122" ht="13.9" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:122" ht="42.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="126" t="s">
         <v>216</v>
       </c>
@@ -6459,162 +6501,165 @@
       <c r="C4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="153"/>
-      <c r="F4" s="160" t="s">
+      <c r="E4" s="159"/>
+      <c r="F4" s="154" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="161"/>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
-      <c r="Z4" s="157" t="s">
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="155"/>
+      <c r="Z4" s="155"/>
+      <c r="AA4" s="155"/>
+      <c r="AB4" s="156"/>
+      <c r="AC4" s="151" t="s">
         <v>150</v>
       </c>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="159"/>
-      <c r="AD4" s="157" t="s">
+      <c r="AD4" s="152"/>
+      <c r="AE4" s="152"/>
+      <c r="AF4" s="153"/>
+      <c r="AG4" s="151" t="s">
         <v>151</v>
       </c>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="158"/>
-      <c r="AG4" s="159"/>
-      <c r="AH4" s="151" t="s">
+      <c r="AH4" s="152"/>
+      <c r="AI4" s="152"/>
+      <c r="AJ4" s="153"/>
+      <c r="AK4" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="AI4" s="152"/>
-      <c r="AJ4" s="152"/>
-      <c r="AK4" s="152"/>
-      <c r="AL4" s="152"/>
-      <c r="AM4" s="155"/>
-      <c r="AN4" s="156" t="s">
+      <c r="AL4" s="158"/>
+      <c r="AM4" s="158"/>
+      <c r="AN4" s="158"/>
+      <c r="AO4" s="158"/>
+      <c r="AP4" s="160"/>
+      <c r="AQ4" s="161" t="s">
         <v>153</v>
       </c>
-      <c r="AO4" s="152"/>
-      <c r="AP4" s="152"/>
-      <c r="AQ4" s="152"/>
-      <c r="AR4" s="152"/>
-      <c r="AS4" s="152"/>
-      <c r="AT4" s="152"/>
-      <c r="AU4" s="152"/>
-      <c r="AV4" s="152"/>
-      <c r="AW4" s="153"/>
-      <c r="AX4" s="151" t="s">
+      <c r="AR4" s="158"/>
+      <c r="AS4" s="158"/>
+      <c r="AT4" s="158"/>
+      <c r="AU4" s="158"/>
+      <c r="AV4" s="158"/>
+      <c r="AW4" s="158"/>
+      <c r="AX4" s="158"/>
+      <c r="AY4" s="158"/>
+      <c r="AZ4" s="159"/>
+      <c r="BA4" s="157" t="s">
         <v>154</v>
       </c>
-      <c r="AY4" s="152"/>
-      <c r="AZ4" s="152"/>
-      <c r="BA4" s="152"/>
-      <c r="BB4" s="152"/>
-      <c r="BC4" s="152"/>
-      <c r="BD4" s="152"/>
-      <c r="BE4" s="152"/>
-      <c r="BF4" s="152"/>
-      <c r="BG4" s="153"/>
-      <c r="BH4" s="151" t="s">
+      <c r="BB4" s="158"/>
+      <c r="BC4" s="158"/>
+      <c r="BD4" s="158"/>
+      <c r="BE4" s="158"/>
+      <c r="BF4" s="158"/>
+      <c r="BG4" s="158"/>
+      <c r="BH4" s="158"/>
+      <c r="BI4" s="158"/>
+      <c r="BJ4" s="159"/>
+      <c r="BK4" s="157" t="s">
         <v>155</v>
       </c>
-      <c r="BI4" s="152"/>
-      <c r="BJ4" s="152"/>
-      <c r="BK4" s="152"/>
-      <c r="BL4" s="152"/>
-      <c r="BM4" s="152"/>
-      <c r="BN4" s="152"/>
-      <c r="BO4" s="152"/>
-      <c r="BP4" s="152"/>
-      <c r="BQ4" s="153"/>
-      <c r="BR4" s="151" t="s">
+      <c r="BL4" s="158"/>
+      <c r="BM4" s="158"/>
+      <c r="BN4" s="158"/>
+      <c r="BO4" s="158"/>
+      <c r="BP4" s="158"/>
+      <c r="BQ4" s="158"/>
+      <c r="BR4" s="158"/>
+      <c r="BS4" s="158"/>
+      <c r="BT4" s="159"/>
+      <c r="BU4" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="BS4" s="155"/>
-      <c r="BT4" s="156" t="s">
+      <c r="BV4" s="160"/>
+      <c r="BW4" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="BU4" s="153"/>
-      <c r="BV4" s="151" t="s">
+      <c r="BX4" s="159"/>
+      <c r="BY4" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="BW4" s="152"/>
-      <c r="BX4" s="152"/>
-      <c r="BY4" s="153"/>
-      <c r="BZ4" s="154" t="s">
+      <c r="BZ4" s="158"/>
+      <c r="CA4" s="158"/>
+      <c r="CB4" s="159"/>
+      <c r="CC4" s="162" t="s">
         <v>233</v>
       </c>
-      <c r="CA4" s="152"/>
-      <c r="CB4" s="152"/>
-      <c r="CC4" s="153"/>
-      <c r="CD4" s="151" t="s">
+      <c r="CD4" s="158"/>
+      <c r="CE4" s="158"/>
+      <c r="CF4" s="159"/>
+      <c r="CG4" s="157" t="s">
         <v>158</v>
       </c>
-      <c r="CE4" s="155"/>
-      <c r="CF4" s="156" t="s">
+      <c r="CH4" s="160"/>
+      <c r="CI4" s="161" t="s">
         <v>159</v>
       </c>
-      <c r="CG4" s="153"/>
-      <c r="CH4" s="151" t="s">
+      <c r="CJ4" s="159"/>
+      <c r="CK4" s="157" t="s">
         <v>162</v>
       </c>
-      <c r="CI4" s="152"/>
-      <c r="CJ4" s="152"/>
-      <c r="CK4" s="153"/>
-      <c r="CL4" s="154" t="s">
-        <v>275</v>
-      </c>
-      <c r="CM4" s="152"/>
-      <c r="CN4" s="152"/>
-      <c r="CO4" s="153"/>
-      <c r="CP4" s="151" t="s">
+      <c r="CL4" s="158"/>
+      <c r="CM4" s="158"/>
+      <c r="CN4" s="159"/>
+      <c r="CO4" s="162" t="s">
+        <v>274</v>
+      </c>
+      <c r="CP4" s="158"/>
+      <c r="CQ4" s="158"/>
+      <c r="CR4" s="159"/>
+      <c r="CS4" s="157" t="s">
         <v>164</v>
       </c>
-      <c r="CQ4" s="152"/>
-      <c r="CR4" s="152"/>
-      <c r="CS4" s="152"/>
-      <c r="CT4" s="152"/>
-      <c r="CU4" s="152"/>
-      <c r="CV4" s="152"/>
-      <c r="CW4" s="152"/>
-      <c r="CX4" s="152"/>
-      <c r="CY4" s="153"/>
-      <c r="CZ4" s="151" t="s">
+      <c r="CT4" s="158"/>
+      <c r="CU4" s="158"/>
+      <c r="CV4" s="158"/>
+      <c r="CW4" s="158"/>
+      <c r="CX4" s="158"/>
+      <c r="CY4" s="158"/>
+      <c r="CZ4" s="158"/>
+      <c r="DA4" s="158"/>
+      <c r="DB4" s="159"/>
+      <c r="DC4" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="DA4" s="152"/>
-      <c r="DB4" s="152"/>
-      <c r="DC4" s="152"/>
-      <c r="DD4" s="152"/>
-      <c r="DE4" s="152"/>
-      <c r="DF4" s="152"/>
-      <c r="DG4" s="153"/>
-      <c r="DH4" s="151" t="s">
+      <c r="DD4" s="158"/>
+      <c r="DE4" s="158"/>
+      <c r="DF4" s="158"/>
+      <c r="DG4" s="158"/>
+      <c r="DH4" s="158"/>
+      <c r="DI4" s="158"/>
+      <c r="DJ4" s="159"/>
+      <c r="DK4" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="DI4" s="152"/>
-      <c r="DJ4" s="152"/>
-      <c r="DK4" s="152"/>
-      <c r="DL4" s="152"/>
-      <c r="DM4" s="152"/>
-      <c r="DN4" s="152"/>
-      <c r="DO4" s="153"/>
+      <c r="DL4" s="158"/>
+      <c r="DM4" s="158"/>
+      <c r="DN4" s="158"/>
+      <c r="DO4" s="158"/>
+      <c r="DP4" s="158"/>
+      <c r="DQ4" s="158"/>
+      <c r="DR4" s="159"/>
     </row>
-    <row r="5" spans="1:119" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:122" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A5" s="127" t="s">
         <v>217</v>
       </c>
@@ -6633,115 +6678,115 @@
       <c r="F5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="169" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="172" t="s">
+        <v>294</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="137" t="s">
+      <c r="L5" s="137" t="s">
         <v>268</v>
       </c>
-      <c r="J5" s="137" t="s">
+      <c r="M5" s="137" t="s">
         <v>269</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="N5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="O5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="P5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="Q5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="R5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="S5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="T5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="U5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="V5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="W5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="X5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="Y5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="Z5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="AA5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="Y5" s="140" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z5" s="21" t="s">
+      <c r="AB5" s="140" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AD5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AB5" s="15" t="s">
+      <c r="AE5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AC5" s="12" t="s">
+      <c r="AF5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AD5" s="21" t="s">
+      <c r="AG5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AE5" s="15" t="s">
+      <c r="AH5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AF5" s="15" t="s">
+      <c r="AI5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AJ5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AH5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK5" s="15" t="s">
+      <c r="AK5" s="10" t="s">
         <v>56</v>
       </c>
       <c r="AL5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AM5" s="23" t="s">
+      <c r="AM5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AN5" s="10" t="s">
+      <c r="AN5" s="15" t="s">
         <v>56</v>
       </c>
       <c r="AO5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AP5" s="15" t="s">
+      <c r="AP5" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AQ5" s="15" t="s">
+      <c r="AQ5" s="10" t="s">
         <v>56</v>
       </c>
       <c r="AR5" s="15" t="s">
@@ -6759,181 +6804,181 @@
       <c r="AV5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AW5" s="18" t="s">
+      <c r="AW5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AX5" s="21" t="s">
+      <c r="AX5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA5" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AY5" s="15" t="s">
+      <c r="BB5" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AZ5" s="135" t="s">
+      <c r="BC5" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="BA5" s="135" t="s">
+      <c r="BD5" s="135" t="s">
         <v>259</v>
       </c>
-      <c r="BB5" s="135" t="s">
+      <c r="BE5" s="135" t="s">
         <v>260</v>
       </c>
-      <c r="BC5" s="136" t="s">
+      <c r="BF5" s="136" t="s">
         <v>261</v>
       </c>
-      <c r="BD5" s="135" t="s">
+      <c r="BG5" s="135" t="s">
         <v>254</v>
       </c>
-      <c r="BE5" s="135" t="s">
+      <c r="BH5" s="135" t="s">
         <v>255</v>
       </c>
-      <c r="BF5" s="135" t="s">
+      <c r="BI5" s="135" t="s">
         <v>256</v>
       </c>
-      <c r="BG5" s="135" t="s">
+      <c r="BJ5" s="135" t="s">
         <v>257</v>
       </c>
-      <c r="BH5" s="21" t="s">
+      <c r="BK5" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="BI5" s="15" t="s">
+      <c r="BL5" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="BJ5" s="135" t="s">
+      <c r="BM5" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="BK5" s="135" t="s">
+      <c r="BN5" s="135" t="s">
         <v>259</v>
       </c>
-      <c r="BL5" s="135" t="s">
+      <c r="BO5" s="135" t="s">
         <v>260</v>
       </c>
-      <c r="BM5" s="135" t="s">
+      <c r="BP5" s="135" t="s">
         <v>261</v>
       </c>
-      <c r="BN5" s="135" t="s">
+      <c r="BQ5" s="135" t="s">
         <v>254</v>
       </c>
-      <c r="BO5" s="135" t="s">
+      <c r="BR5" s="135" t="s">
         <v>255</v>
       </c>
-      <c r="BP5" s="135" t="s">
+      <c r="BS5" s="135" t="s">
         <v>256</v>
       </c>
-      <c r="BQ5" s="136" t="s">
+      <c r="BT5" s="136" t="s">
         <v>257</v>
       </c>
-      <c r="BR5" s="25" t="s">
+      <c r="BU5" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="BS5" s="27" t="s">
+      <c r="BV5" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="BT5" s="29" t="s">
+      <c r="BW5" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BU5" s="25" t="s">
+      <c r="BX5" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="BV5" s="21" t="s">
+      <c r="BY5" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="BW5" s="15" t="s">
+      <c r="BZ5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="BX5" s="15" t="s">
+      <c r="CA5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="BY5" s="31" t="s">
+      <c r="CB5" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="BZ5" s="21" t="s">
+      <c r="CC5" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="CA5" s="15" t="s">
+      <c r="CD5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="CB5" s="15" t="s">
+      <c r="CE5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="CC5" s="31" t="s">
+      <c r="CF5" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="CD5" s="131" t="s">
+      <c r="CG5" s="131" t="s">
         <v>250</v>
       </c>
-      <c r="CE5" s="132" t="s">
+      <c r="CH5" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="CF5" s="29" t="s">
+      <c r="CI5" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="CG5" s="25" t="s">
+      <c r="CJ5" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="CH5" s="21" t="s">
+      <c r="CK5" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="CI5" s="15" t="s">
+      <c r="CL5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="CJ5" s="15" t="s">
+      <c r="CM5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="CK5" s="31" t="s">
+      <c r="CN5" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="CL5" s="21" t="s">
+      <c r="CO5" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="CM5" s="15" t="s">
+      <c r="CP5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="CN5" s="15" t="s">
+      <c r="CQ5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="CO5" s="31" t="s">
+      <c r="CR5" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="CP5" s="21" t="s">
+      <c r="CS5" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="CQ5" s="34" t="s">
+      <c r="CT5" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="CR5" s="15" t="s">
+      <c r="CU5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="CS5" s="15" t="s">
+      <c r="CV5" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="CT5" s="135" t="s">
-        <v>271</v>
-      </c>
-      <c r="CU5" s="15" t="s">
+      <c r="CW5" s="135" t="s">
+        <v>270</v>
+      </c>
+      <c r="CX5" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="CV5" s="34" t="s">
+      <c r="CY5" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="CW5" s="34" t="s">
+      <c r="CZ5" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="CX5" s="34" t="s">
+      <c r="DA5" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="CY5" s="31" t="s">
+      <c r="DB5" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="CZ5" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="DA5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="DB5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="DC5" s="15" t="s">
+      <c r="DC5" s="41" t="s">
         <v>56</v>
       </c>
       <c r="DD5" s="15" t="s">
@@ -6945,19 +6990,19 @@
       <c r="DF5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="DG5" s="18" t="s">
+      <c r="DG5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="DH5" s="21" t="s">
+      <c r="DH5" s="15" t="s">
         <v>56</v>
       </c>
       <c r="DI5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="DJ5" s="15" t="s">
+      <c r="DJ5" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="DK5" s="15" t="s">
+      <c r="DK5" s="21" t="s">
         <v>56</v>
       </c>
       <c r="DL5" s="15" t="s">
@@ -6969,11 +7014,20 @@
       <c r="DN5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="DO5" s="12" t="s">
+      <c r="DO5" s="15" t="s">
         <v>56</v>
       </c>
+      <c r="DP5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="DQ5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="DR5" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="6" spans="1:119" ht="27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:122" ht="27" x14ac:dyDescent="0.35">
       <c r="A6" s="127" t="s">
         <v>218</v>
       </c>
@@ -6992,347 +7046,356 @@
       <c r="F6" s="11">
         <v>1</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="11">
+        <v>4</v>
+      </c>
+      <c r="H6" s="11">
+        <v>6</v>
+      </c>
+      <c r="I6" s="11">
+        <v>8</v>
+      </c>
+      <c r="J6" s="16">
         <v>9</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="K6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="16">
+      <c r="L6" s="16">
         <v>3</v>
       </c>
-      <c r="J6" s="16">
+      <c r="M6" s="16">
         <v>5</v>
       </c>
-      <c r="K6" s="16">
+      <c r="N6" s="16">
         <v>7</v>
       </c>
-      <c r="L6" s="16">
+      <c r="O6" s="16">
         <v>11</v>
       </c>
-      <c r="M6" s="16">
+      <c r="P6" s="16">
         <v>13</v>
       </c>
-      <c r="N6" s="16">
+      <c r="Q6" s="16">
         <v>15</v>
       </c>
-      <c r="O6" s="16">
+      <c r="R6" s="16">
         <v>29</v>
       </c>
-      <c r="P6" s="16">
+      <c r="S6" s="16">
         <v>31</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="T6" s="16">
         <v>33</v>
       </c>
-      <c r="R6" s="16">
+      <c r="U6" s="16">
         <v>35</v>
       </c>
-      <c r="S6" s="16">
+      <c r="V6" s="16">
         <v>37</v>
       </c>
-      <c r="T6" s="16">
+      <c r="W6" s="16">
         <v>40</v>
       </c>
-      <c r="U6" s="16">
+      <c r="X6" s="16">
         <v>38</v>
       </c>
-      <c r="V6" s="19">
+      <c r="Y6" s="19">
         <v>36</v>
       </c>
-      <c r="W6" s="19">
+      <c r="Z6" s="19">
         <v>32</v>
       </c>
-      <c r="X6" s="19">
+      <c r="AA6" s="19">
         <v>22</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="AB6" s="19">
         <v>18</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="AC6" s="22">
         <v>1</v>
       </c>
-      <c r="AA6" s="16">
+      <c r="AD6" s="16">
         <v>2</v>
       </c>
-      <c r="AB6" s="16">
+      <c r="AE6" s="16">
         <v>3</v>
       </c>
-      <c r="AC6" s="13">
+      <c r="AF6" s="13">
         <v>4</v>
       </c>
-      <c r="AD6" s="22">
+      <c r="AG6" s="22">
         <v>1</v>
       </c>
-      <c r="AE6" s="16">
+      <c r="AH6" s="16">
         <v>2</v>
       </c>
-      <c r="AF6" s="16">
+      <c r="AI6" s="16">
         <v>3</v>
       </c>
-      <c r="AG6" s="13">
+      <c r="AJ6" s="13">
         <v>4</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AK6" s="11">
         <v>1</v>
       </c>
-      <c r="AI6" s="16">
+      <c r="AL6" s="16">
         <v>2</v>
       </c>
-      <c r="AJ6" s="16">
+      <c r="AM6" s="16">
         <v>3</v>
       </c>
-      <c r="AK6" s="16">
+      <c r="AN6" s="16">
         <v>4</v>
       </c>
-      <c r="AL6" s="16">
+      <c r="AO6" s="16">
         <v>5</v>
       </c>
-      <c r="AM6" s="24">
+      <c r="AP6" s="24">
         <v>6</v>
       </c>
-      <c r="AN6" s="11">
+      <c r="AQ6" s="11">
         <v>1</v>
       </c>
-      <c r="AO6" s="16">
+      <c r="AR6" s="16">
         <v>2</v>
       </c>
-      <c r="AP6" s="16">
+      <c r="AS6" s="16">
         <v>3</v>
       </c>
-      <c r="AQ6" s="16">
+      <c r="AT6" s="16">
         <v>4</v>
       </c>
-      <c r="AR6" s="16">
+      <c r="AU6" s="16">
         <v>5</v>
       </c>
-      <c r="AS6" s="16">
+      <c r="AV6" s="16">
         <v>6</v>
       </c>
-      <c r="AT6" s="16">
+      <c r="AW6" s="16">
         <v>7</v>
       </c>
-      <c r="AU6" s="16">
+      <c r="AX6" s="16">
         <v>8</v>
       </c>
-      <c r="AV6" s="16">
+      <c r="AY6" s="16">
         <v>9</v>
       </c>
-      <c r="AW6" s="19">
+      <c r="AZ6" s="19">
         <v>10</v>
       </c>
-      <c r="AX6" s="22" t="s">
+      <c r="BA6" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AY6" s="16" t="s">
+      <c r="BB6" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="AZ6" s="16" t="s">
+      <c r="BC6" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="BA6" s="16" t="s">
+      <c r="BD6" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="BB6" s="16" t="s">
+      <c r="BE6" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="BC6" s="16" t="s">
+      <c r="BF6" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="BD6" s="16">
+      <c r="BG6" s="16">
         <v>1</v>
       </c>
-      <c r="BE6" s="16">
+      <c r="BH6" s="16">
         <v>2</v>
       </c>
-      <c r="BF6" s="16">
+      <c r="BI6" s="16">
         <v>5</v>
       </c>
-      <c r="BG6" s="13">
+      <c r="BJ6" s="13">
         <v>6</v>
       </c>
-      <c r="BH6" s="22" t="s">
+      <c r="BK6" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="BI6" s="16" t="s">
+      <c r="BL6" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="BJ6" s="16" t="s">
+      <c r="BM6" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="BK6" s="16" t="s">
+      <c r="BN6" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="BL6" s="16" t="s">
+      <c r="BO6" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="BM6" s="16" t="s">
+      <c r="BP6" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="BN6" s="16">
+      <c r="BQ6" s="16">
         <v>1</v>
       </c>
-      <c r="BO6" s="16">
+      <c r="BR6" s="16">
         <v>2</v>
       </c>
-      <c r="BP6" s="16">
+      <c r="BS6" s="16">
         <v>5</v>
       </c>
-      <c r="BQ6" s="13">
+      <c r="BT6" s="13">
         <v>6</v>
       </c>
-      <c r="BR6" s="26">
+      <c r="BU6" s="26">
         <v>1</v>
       </c>
-      <c r="BS6" s="28">
+      <c r="BV6" s="28">
         <v>2</v>
       </c>
-      <c r="BT6" s="30">
+      <c r="BW6" s="30">
         <v>1</v>
       </c>
-      <c r="BU6" s="26">
+      <c r="BX6" s="26">
         <v>2</v>
       </c>
-      <c r="BV6" s="22">
+      <c r="BY6" s="22">
         <v>1</v>
       </c>
-      <c r="BW6" s="16">
+      <c r="BZ6" s="16">
         <v>2</v>
       </c>
-      <c r="BX6" s="16">
+      <c r="CA6" s="16">
         <v>3</v>
       </c>
-      <c r="BY6" s="32">
+      <c r="CB6" s="32">
         <v>4</v>
       </c>
-      <c r="BZ6" s="22">
+      <c r="CC6" s="22">
         <v>1</v>
       </c>
-      <c r="CA6" s="16">
+      <c r="CD6" s="16">
         <v>2</v>
       </c>
-      <c r="CB6" s="16">
+      <c r="CE6" s="16">
         <v>3</v>
       </c>
-      <c r="CC6" s="32">
+      <c r="CF6" s="32">
         <v>4</v>
       </c>
-      <c r="CD6" s="26">
+      <c r="CG6" s="26">
         <v>1</v>
       </c>
-      <c r="CE6" s="28">
+      <c r="CH6" s="28">
         <v>2</v>
       </c>
-      <c r="CF6" s="30">
+      <c r="CI6" s="30">
         <v>1</v>
       </c>
-      <c r="CG6" s="26">
+      <c r="CJ6" s="26">
         <v>2</v>
       </c>
-      <c r="CH6" s="22">
+      <c r="CK6" s="22">
         <v>1</v>
       </c>
-      <c r="CI6" s="16">
+      <c r="CL6" s="16">
         <v>2</v>
       </c>
-      <c r="CJ6" s="16">
+      <c r="CM6" s="16">
         <v>3</v>
       </c>
-      <c r="CK6" s="32">
+      <c r="CN6" s="32">
         <v>4</v>
       </c>
-      <c r="CL6" s="22">
+      <c r="CO6" s="22">
         <v>1</v>
       </c>
-      <c r="CM6" s="16">
+      <c r="CP6" s="16">
         <v>2</v>
       </c>
-      <c r="CN6" s="16">
+      <c r="CQ6" s="16">
         <v>3</v>
       </c>
-      <c r="CO6" s="32">
+      <c r="CR6" s="32">
         <v>4</v>
       </c>
-      <c r="CP6" s="33" t="s">
+      <c r="CS6" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="CQ6" s="35" t="s">
+      <c r="CT6" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="CR6" s="38" t="s">
+      <c r="CU6" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="CS6" s="38" t="s">
+      <c r="CV6" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="CT6" s="38" t="s">
+      <c r="CW6" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="CU6" s="38" t="s">
+      <c r="CX6" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="CV6" s="35" t="s">
+      <c r="CY6" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="CW6" s="35" t="s">
+      <c r="CZ6" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="CX6" s="35" t="s">
+      <c r="DA6" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="CY6" s="40" t="s">
+      <c r="DB6" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="CZ6" s="42">
+      <c r="DC6" s="42">
         <v>1</v>
       </c>
-      <c r="DA6" s="16">
+      <c r="DD6" s="16">
         <v>2</v>
       </c>
-      <c r="DB6" s="16">
+      <c r="DE6" s="16">
         <v>3</v>
       </c>
-      <c r="DC6" s="16">
+      <c r="DF6" s="16">
         <v>4</v>
       </c>
-      <c r="DD6" s="16">
+      <c r="DG6" s="16">
         <v>5</v>
       </c>
-      <c r="DE6" s="16">
+      <c r="DH6" s="16">
         <v>6</v>
       </c>
-      <c r="DF6" s="16">
+      <c r="DI6" s="16">
         <v>7</v>
       </c>
-      <c r="DG6" s="19">
+      <c r="DJ6" s="19">
         <v>8</v>
       </c>
-      <c r="DH6" s="119" t="s">
+      <c r="DK6" s="119" t="s">
         <v>204</v>
       </c>
-      <c r="DI6" s="120" t="s">
+      <c r="DL6" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="DJ6" s="120" t="s">
+      <c r="DM6" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="DK6" s="120" t="s">
+      <c r="DN6" s="120" t="s">
         <v>207</v>
       </c>
-      <c r="DL6" s="120" t="s">
+      <c r="DO6" s="120" t="s">
         <v>208</v>
       </c>
-      <c r="DM6" s="120" t="s">
+      <c r="DP6" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="DN6" s="120" t="s">
+      <c r="DQ6" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="DO6" s="121" t="s">
+      <c r="DR6" s="121" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:119" ht="27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:122" ht="27" x14ac:dyDescent="0.35">
       <c r="A7" s="127" t="s">
         <v>228</v>
       </c>
@@ -7355,7 +7418,7 @@
         <v>47</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>47</v>
@@ -7364,7 +7427,7 @@
         <v>47</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="L7" s="16" t="s">
         <v>47</v>
@@ -7396,70 +7459,70 @@
       <c r="U7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="19" t="s">
+      <c r="V7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="19" t="s">
+      <c r="W7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="X7" s="19" t="s">
+      <c r="X7" s="16" t="s">
         <v>47</v>
       </c>
       <c r="Y7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Z7" s="22" t="s">
+      <c r="Z7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AA7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD7" s="22" t="s">
+      <c r="AD7" s="16" t="s">
         <v>40</v>
       </c>
       <c r="AE7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AF7" s="16" t="s">
+      <c r="AF7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AG7" s="13" t="s">
+      <c r="AG7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AH7" s="11" t="s">
-        <v>47</v>
+      <c r="AH7" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="AI7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK7" s="11" t="s">
         <v>47</v>
       </c>
       <c r="AL7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AM7" s="24" t="s">
+      <c r="AM7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AN7" s="11" t="s">
+      <c r="AN7" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AO7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AP7" s="16" t="s">
+      <c r="AP7" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AQ7" s="16" t="s">
+      <c r="AQ7" s="11" t="s">
         <v>47</v>
       </c>
       <c r="AR7" s="16" t="s">
@@ -7477,157 +7540,157 @@
       <c r="AV7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AW7" s="19" t="s">
+      <c r="AW7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AX7" s="22"/>
-      <c r="AY7" s="16"/>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="16"/>
+      <c r="AX7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA7" s="22"/>
       <c r="BB7" s="16"/>
-      <c r="BC7" s="13"/>
-      <c r="BD7" s="16" t="s">
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="13"/>
+      <c r="BG7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="BE7" s="16" t="s">
+      <c r="BH7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="BF7" s="16" t="s">
+      <c r="BI7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="BG7" s="13" t="s">
+      <c r="BJ7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="BH7" s="22"/>
-      <c r="BI7" s="16"/>
-      <c r="BJ7" s="16"/>
-      <c r="BK7" s="16"/>
+      <c r="BK7" s="22"/>
       <c r="BL7" s="16"/>
       <c r="BM7" s="16"/>
-      <c r="BN7" s="16" t="s">
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="16"/>
+      <c r="BP7" s="16"/>
+      <c r="BQ7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="BO7" s="16" t="s">
+      <c r="BR7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="BP7" s="16" t="s">
+      <c r="BS7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="BQ7" s="13" t="s">
+      <c r="BT7" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="BR7" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="BS7" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="BT7" s="30" t="s">
-        <v>65</v>
       </c>
       <c r="BU7" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="BV7" s="22" t="s">
+      <c r="BV7" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW7" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="BX7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="BY7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="BW7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="BX7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="BY7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="BZ7" s="22" t="s">
+      <c r="BZ7" s="16" t="s">
         <v>47</v>
       </c>
       <c r="CA7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="CB7" s="16" t="s">
+      <c r="CB7" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="CC7" s="32" t="s">
+      <c r="CC7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="CD7" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="CE7" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="CF7" s="30" t="s">
-        <v>65</v>
+      <c r="CD7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="CE7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="CF7" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="CG7" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="CH7" s="22" t="s">
+      <c r="CH7" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="CI7" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="CJ7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="CK7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="CI7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="CJ7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="CK7" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="CL7" s="22" t="s">
+      <c r="CL7" s="16" t="s">
         <v>47</v>
       </c>
       <c r="CM7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="CN7" s="16" t="s">
+      <c r="CN7" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="CO7" s="32" t="s">
+      <c r="CO7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="CP7" s="22" t="s">
+      <c r="CP7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="CQ7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="CR7" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="CS7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="CQ7" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="CR7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="CS7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="CT7" s="16" t="s">
+      <c r="CT7" s="36" t="s">
         <v>40</v>
       </c>
       <c r="CU7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="CV7" s="36" t="s">
+      <c r="CV7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="CW7" s="36" t="s">
+      <c r="CW7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="CX7" s="36" t="s">
+      <c r="CX7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="CY7" s="32" t="s">
+      <c r="CY7" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="CZ7" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="DA7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="DB7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="DC7" s="16" t="s">
+      <c r="CZ7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="DA7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="DB7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="DC7" s="42" t="s">
         <v>47</v>
       </c>
       <c r="DD7" s="16" t="s">
@@ -7639,19 +7702,19 @@
       <c r="DF7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="DG7" s="19" t="s">
+      <c r="DG7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="DH7" s="22" t="s">
+      <c r="DH7" s="16" t="s">
         <v>47</v>
       </c>
       <c r="DI7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="DJ7" s="16" t="s">
+      <c r="DJ7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="DK7" s="16" t="s">
+      <c r="DK7" s="22" t="s">
         <v>47</v>
       </c>
       <c r="DL7" s="16" t="s">
@@ -7663,16 +7726,25 @@
       <c r="DN7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="DO7" s="13" t="s">
+      <c r="DO7" s="16" t="s">
         <v>47</v>
       </c>
+      <c r="DP7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="DQ7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="DR7" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:119" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:122" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="141" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" s="142" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C8" s="75" t="s">
         <v>64</v>
@@ -7686,352 +7758,361 @@
       <c r="F8" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="170" t="s">
+        <v>291</v>
+      </c>
+      <c r="H8" s="170" t="s">
+        <v>292</v>
+      </c>
+      <c r="I8" s="170" t="s">
+        <v>295</v>
+      </c>
+      <c r="J8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="K8" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="I8" s="138" t="s">
-        <v>270</v>
-      </c>
-      <c r="J8" s="138" t="s">
-        <v>270</v>
-      </c>
-      <c r="K8" s="50" t="s">
+      <c r="L8" s="171" t="s">
+        <v>293</v>
+      </c>
+      <c r="M8" s="171" t="s">
+        <v>293</v>
+      </c>
+      <c r="N8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="O8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="50" t="s">
+      <c r="P8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="Q8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="50" t="s">
+      <c r="R8" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="50" t="s">
+      <c r="S8" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="50" t="s">
+      <c r="T8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="50" t="s">
+      <c r="U8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="50" t="s">
+      <c r="V8" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="50" t="s">
+      <c r="W8" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="50" t="s">
+      <c r="X8" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="58" t="s">
+      <c r="Y8" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="58" t="s">
+      <c r="Z8" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="X8" s="58" t="s">
+      <c r="AA8" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="Y8" s="138" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z8" s="72" t="s">
+      <c r="AB8" s="138" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC8" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="AA8" s="50" t="s">
+      <c r="AD8" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="AB8" s="50" t="s">
+      <c r="AE8" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="AC8" s="51" t="s">
+      <c r="AF8" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="72" t="s">
+      <c r="AG8" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="AE8" s="50" t="s">
+      <c r="AH8" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="AF8" s="50" t="s">
+      <c r="AI8" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="51" t="s">
+      <c r="AJ8" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="AH8" s="69" t="s">
+      <c r="AK8" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="AI8" s="50" t="s">
+      <c r="AL8" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="AJ8" s="70" t="s">
+      <c r="AM8" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="AK8" s="125" t="s">
+      <c r="AN8" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="AL8" s="70" t="s">
+      <c r="AO8" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="AM8" s="71" t="s">
+      <c r="AP8" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="AN8" s="68" t="s">
+      <c r="AQ8" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="AO8" s="50" t="s">
+      <c r="AR8" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AP8" s="50" t="s">
+      <c r="AS8" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="AQ8" s="50" t="s">
+      <c r="AT8" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AR8" s="50" t="s">
+      <c r="AU8" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="AS8" s="50" t="s">
+      <c r="AV8" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AT8" s="50" t="s">
+      <c r="AW8" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="AU8" s="50" t="s">
+      <c r="AX8" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="AV8" s="50" t="s">
+      <c r="AY8" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="AW8" s="58" t="s">
+      <c r="AZ8" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="AX8" s="72" t="s">
+      <c r="BA8" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="AY8" s="50" t="s">
+      <c r="BB8" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="AZ8" s="125" t="s">
+      <c r="BC8" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="BA8" s="125" t="s">
+      <c r="BD8" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="BB8" s="125" t="s">
+      <c r="BE8" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="BC8" s="125" t="s">
+      <c r="BF8" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="BD8" s="70" t="s">
+      <c r="BG8" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="BE8" s="70" t="s">
+      <c r="BH8" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="BF8" s="70" t="s">
+      <c r="BI8" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="BG8" s="52" t="s">
+      <c r="BJ8" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="BH8" s="72" t="s">
+      <c r="BK8" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="BI8" s="50" t="s">
+      <c r="BL8" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="BJ8" s="70" t="s">
+      <c r="BM8" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="BK8" s="70" t="s">
+      <c r="BN8" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="BL8" s="70" t="s">
+      <c r="BO8" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="BM8" s="70" t="s">
+      <c r="BP8" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="BN8" s="70" t="s">
+      <c r="BQ8" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="BO8" s="70" t="s">
+      <c r="BR8" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="BP8" s="70" t="s">
+      <c r="BS8" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="BQ8" s="52" t="s">
+      <c r="BT8" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="BR8" s="76" t="s">
+      <c r="BU8" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="BS8" s="77" t="s">
+      <c r="BV8" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="BT8" s="78" t="s">
+      <c r="BW8" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="BU8" s="76" t="s">
+      <c r="BX8" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="BV8" s="72" t="s">
+      <c r="BY8" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="BW8" s="70" t="s">
+      <c r="BZ8" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="BX8" s="70" t="s">
+      <c r="CA8" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="BY8" s="54" t="s">
+      <c r="CB8" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="BZ8" s="72" t="s">
+      <c r="CC8" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="CA8" s="70" t="s">
+      <c r="CD8" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="CB8" s="70" t="s">
+      <c r="CE8" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="CC8" s="54" t="s">
+      <c r="CF8" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="CD8" s="133" t="s">
+      <c r="CG8" s="133" t="s">
         <v>253</v>
       </c>
-      <c r="CE8" s="134" t="s">
+      <c r="CH8" s="134" t="s">
         <v>252</v>
       </c>
-      <c r="CF8" s="133" t="s">
+      <c r="CI8" s="133" t="s">
         <v>253</v>
       </c>
-      <c r="CG8" s="134" t="s">
+      <c r="CJ8" s="134" t="s">
         <v>252</v>
       </c>
-      <c r="CH8" s="72" t="s">
+      <c r="CK8" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="CI8" s="70" t="s">
+      <c r="CL8" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="CJ8" s="70" t="s">
+      <c r="CM8" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="CK8" s="54" t="s">
+      <c r="CN8" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="CL8" s="72" t="s">
+      <c r="CO8" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="CM8" s="70" t="s">
+      <c r="CP8" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="CN8" s="70" t="s">
+      <c r="CQ8" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="CO8" s="54" t="s">
+      <c r="CR8" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="CP8" s="72" t="s">
+      <c r="CS8" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="CQ8" s="79" t="s">
+      <c r="CT8" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="CR8" s="50" t="s">
+      <c r="CU8" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="CS8" s="50" t="s">
+      <c r="CV8" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="CT8" s="139" t="s">
-        <v>272</v>
-      </c>
-      <c r="CU8" s="50" t="s">
+      <c r="CW8" s="139" t="s">
+        <v>271</v>
+      </c>
+      <c r="CX8" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="CV8" s="53" t="s">
+      <c r="CY8" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="CW8" s="53" t="s">
+      <c r="CZ8" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="CX8" s="53" t="s">
+      <c r="DA8" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="CY8" s="80" t="s">
+      <c r="DB8" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="CZ8" s="73" t="s">
+      <c r="DC8" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="DA8" s="50" t="s">
+      <c r="DD8" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="DB8" s="70" t="s">
+      <c r="DE8" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="DC8" s="70" t="s">
+      <c r="DF8" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="DD8" s="70" t="s">
+      <c r="DG8" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="DE8" s="70" t="s">
+      <c r="DH8" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="DF8" s="70" t="s">
+      <c r="DI8" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="DG8" s="62" t="s">
+      <c r="DJ8" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="DH8" s="74" t="s">
+      <c r="DK8" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="DI8" s="50" t="s">
+      <c r="DL8" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="DJ8" s="70" t="s">
+      <c r="DM8" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="DK8" s="70" t="s">
+      <c r="DN8" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="DL8" s="50" t="s">
+      <c r="DO8" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="DM8" s="50" t="s">
+      <c r="DP8" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="DN8" s="50" t="s">
+      <c r="DQ8" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="DO8" s="51" t="s">
+      <c r="DR8" s="51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A9" s="147" t="s">
         <v>212</v>
       </c>
       <c r="B9" s="145" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C9" s="124"/>
       <c r="D9" s="116"/>
@@ -8150,13 +8231,16 @@
       <c r="DM9" s="116"/>
       <c r="DN9" s="116"/>
       <c r="DO9" s="116"/>
+      <c r="DP9" s="116"/>
+      <c r="DQ9" s="116"/>
+      <c r="DR9" s="116"/>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A10" s="148" t="s">
         <v>213</v>
       </c>
       <c r="B10" s="143" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C10" s="116"/>
       <c r="D10" s="116"/>
@@ -8275,13 +8359,16 @@
       <c r="DM10" s="116"/>
       <c r="DN10" s="116"/>
       <c r="DO10" s="116"/>
+      <c r="DP10" s="116"/>
+      <c r="DQ10" s="116"/>
+      <c r="DR10" s="116"/>
     </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A11" s="148" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B11" s="143" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C11" s="116"/>
       <c r="D11" s="116"/>
@@ -8400,13 +8487,16 @@
       <c r="DM11" s="116"/>
       <c r="DN11" s="116"/>
       <c r="DO11" s="116"/>
+      <c r="DP11" s="116"/>
+      <c r="DQ11" s="116"/>
+      <c r="DR11" s="116"/>
     </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A12" s="128" t="s">
         <v>214</v>
       </c>
       <c r="B12" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C12" s="124"/>
       <c r="D12" s="116"/>
@@ -8525,13 +8615,16 @@
       <c r="DM12" s="116"/>
       <c r="DN12" s="116"/>
       <c r="DO12" s="116"/>
+      <c r="DP12" s="116"/>
+      <c r="DQ12" s="116"/>
+      <c r="DR12" s="116"/>
     </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A13" s="128" t="s">
         <v>219</v>
       </c>
       <c r="B13" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C13" s="124"/>
       <c r="D13" s="116"/>
@@ -8650,13 +8743,16 @@
       <c r="DM13" s="116"/>
       <c r="DN13" s="116"/>
       <c r="DO13" s="116"/>
+      <c r="DP13" s="116"/>
+      <c r="DQ13" s="116"/>
+      <c r="DR13" s="116"/>
     </row>
-    <row r="14" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A14" s="128" t="s">
         <v>220</v>
       </c>
       <c r="B14" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C14" s="124"/>
       <c r="D14" s="116"/>
@@ -8775,13 +8871,16 @@
       <c r="DM14" s="116"/>
       <c r="DN14" s="116"/>
       <c r="DO14" s="116"/>
+      <c r="DP14" s="116"/>
+      <c r="DQ14" s="116"/>
+      <c r="DR14" s="116"/>
     </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A15" s="118" t="s">
         <v>221</v>
       </c>
       <c r="B15" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
@@ -8900,13 +8999,16 @@
       <c r="DM15" s="116"/>
       <c r="DN15" s="116"/>
       <c r="DO15" s="116"/>
+      <c r="DP15" s="116"/>
+      <c r="DQ15" s="116"/>
+      <c r="DR15" s="116"/>
     </row>
-    <row r="16" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A16" s="123" t="s">
         <v>234</v>
       </c>
       <c r="B16" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C16" s="116"/>
       <c r="D16" s="116"/>
@@ -9025,13 +9127,16 @@
       <c r="DM16" s="116"/>
       <c r="DN16" s="116"/>
       <c r="DO16" s="116"/>
+      <c r="DP16" s="116"/>
+      <c r="DQ16" s="116"/>
+      <c r="DR16" s="116"/>
     </row>
-    <row r="17" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A17" s="130" t="s">
         <v>238</v>
       </c>
       <c r="B17" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C17" s="116"/>
       <c r="D17" s="116"/>
@@ -9150,13 +9255,16 @@
       <c r="DM17" s="116"/>
       <c r="DN17" s="116"/>
       <c r="DO17" s="116"/>
+      <c r="DP17" s="116"/>
+      <c r="DQ17" s="116"/>
+      <c r="DR17" s="116"/>
     </row>
-    <row r="18" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A18" s="149" t="s">
         <v>240</v>
       </c>
       <c r="B18" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C18" s="116"/>
       <c r="D18" s="116"/>
@@ -9275,13 +9383,16 @@
       <c r="DM18" s="116"/>
       <c r="DN18" s="116"/>
       <c r="DO18" s="116"/>
+      <c r="DP18" s="116"/>
+      <c r="DQ18" s="116"/>
+      <c r="DR18" s="116"/>
     </row>
-    <row r="19" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A19" s="150" t="s">
         <v>239</v>
       </c>
       <c r="B19" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C19" s="116"/>
       <c r="D19" s="116"/>
@@ -9400,13 +9511,16 @@
       <c r="DM19" s="116"/>
       <c r="DN19" s="116"/>
       <c r="DO19" s="116"/>
+      <c r="DP19" s="116"/>
+      <c r="DQ19" s="116"/>
+      <c r="DR19" s="116"/>
     </row>
-    <row r="20" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A20" s="150" t="s">
         <v>243</v>
       </c>
       <c r="B20" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C20" s="116"/>
       <c r="D20" s="116"/>
@@ -9525,13 +9639,16 @@
       <c r="DM20" s="116"/>
       <c r="DN20" s="116"/>
       <c r="DO20" s="116"/>
+      <c r="DP20" s="116"/>
+      <c r="DQ20" s="116"/>
+      <c r="DR20" s="116"/>
     </row>
-    <row r="21" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A21" s="123" t="s">
         <v>245</v>
       </c>
       <c r="B21" s="122" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C21" s="116"/>
       <c r="D21" s="116"/>
@@ -9650,13 +9767,16 @@
       <c r="DM21" s="116"/>
       <c r="DN21" s="116"/>
       <c r="DO21" s="116"/>
+      <c r="DP21" s="116"/>
+      <c r="DQ21" s="116"/>
+      <c r="DR21" s="116"/>
     </row>
-    <row r="22" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A22" s="150" t="s">
         <v>246</v>
       </c>
       <c r="B22" s="146" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C22" s="116"/>
       <c r="D22" s="116"/>
@@ -9775,21 +9895,24 @@
       <c r="DM22" s="116"/>
       <c r="DN22" s="116"/>
       <c r="DO22" s="116"/>
+      <c r="DP22" s="116"/>
+      <c r="DQ22" s="116"/>
+      <c r="DR22" s="116"/>
     </row>
-    <row r="23" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A23" s="150" t="s">
         <v>247</v>
       </c>
       <c r="B23" s="146" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C23" s="116"/>
       <c r="D23" s="116"/>
       <c r="E23" s="116"/>
       <c r="F23" s="118"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
       <c r="J23" s="116"/>
       <c r="K23" s="116"/>
       <c r="L23" s="116"/>
@@ -9900,13 +10023,16 @@
       <c r="DM23" s="116"/>
       <c r="DN23" s="116"/>
       <c r="DO23" s="116"/>
+      <c r="DP23" s="116"/>
+      <c r="DQ23" s="116"/>
+      <c r="DR23" s="116"/>
     </row>
-    <row r="24" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A24" s="118" t="s">
         <v>222</v>
       </c>
       <c r="B24" s="122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C24" s="116"/>
       <c r="D24" s="116"/>
@@ -10025,13 +10151,16 @@
       <c r="DM24" s="116"/>
       <c r="DN24" s="116"/>
       <c r="DO24" s="116"/>
+      <c r="DP24" s="116"/>
+      <c r="DQ24" s="116"/>
+      <c r="DR24" s="116"/>
     </row>
-    <row r="25" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A25" s="118" t="s">
         <v>223</v>
       </c>
       <c r="B25" s="122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C25" s="116"/>
       <c r="D25" s="116"/>
@@ -10150,13 +10279,16 @@
       <c r="DM25" s="116"/>
       <c r="DN25" s="116"/>
       <c r="DO25" s="116"/>
+      <c r="DP25" s="116"/>
+      <c r="DQ25" s="116"/>
+      <c r="DR25" s="116"/>
     </row>
-    <row r="26" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A26" s="150" t="s">
         <v>248</v>
       </c>
       <c r="B26" s="146" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C26" s="116"/>
       <c r="D26" s="116"/>
@@ -10275,13 +10407,16 @@
       <c r="DM26" s="116"/>
       <c r="DN26" s="116"/>
       <c r="DO26" s="116"/>
+      <c r="DP26" s="116"/>
+      <c r="DQ26" s="116"/>
+      <c r="DR26" s="116"/>
     </row>
-    <row r="27" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A27" s="150" t="s">
         <v>249</v>
       </c>
       <c r="B27" s="146" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C27" s="116"/>
       <c r="D27" s="116"/>
@@ -10400,8 +10535,11 @@
       <c r="DM27" s="116"/>
       <c r="DN27" s="116"/>
       <c r="DO27" s="116"/>
+      <c r="DP27" s="116"/>
+      <c r="DQ27" s="116"/>
+      <c r="DR27" s="116"/>
     </row>
-    <row r="28" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A28" s="123" t="s">
         <v>229</v>
       </c>
@@ -10525,8 +10663,11 @@
       <c r="DM28" s="116"/>
       <c r="DN28" s="116"/>
       <c r="DO28" s="116"/>
+      <c r="DP28" s="116"/>
+      <c r="DQ28" s="116"/>
+      <c r="DR28" s="116"/>
     </row>
-    <row r="29" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A29" s="123" t="s">
         <v>230</v>
       </c>
@@ -10650,8 +10791,11 @@
       <c r="DM29" s="116"/>
       <c r="DN29" s="116"/>
       <c r="DO29" s="116"/>
+      <c r="DP29" s="116"/>
+      <c r="DQ29" s="116"/>
+      <c r="DR29" s="116"/>
     </row>
-    <row r="30" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A30" s="130" t="s">
         <v>266</v>
       </c>
@@ -10775,8 +10919,11 @@
       <c r="DM30" s="116"/>
       <c r="DN30" s="116"/>
       <c r="DO30" s="116"/>
+      <c r="DP30" s="116"/>
+      <c r="DQ30" s="116"/>
+      <c r="DR30" s="116"/>
     </row>
-    <row r="31" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A31" s="130" t="s">
         <v>267</v>
       </c>
@@ -10900,10 +11047,13 @@
       <c r="DM31" s="116"/>
       <c r="DN31" s="116"/>
       <c r="DO31" s="116"/>
+      <c r="DP31" s="116"/>
+      <c r="DQ31" s="116"/>
+      <c r="DR31" s="116"/>
     </row>
-    <row r="32" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A32" s="130" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B32" s="115">
         <v>2</v>
@@ -11025,10 +11175,13 @@
       <c r="DM32" s="116"/>
       <c r="DN32" s="116"/>
       <c r="DO32" s="116"/>
+      <c r="DP32" s="116"/>
+      <c r="DQ32" s="116"/>
+      <c r="DR32" s="116"/>
     </row>
-    <row r="33" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A33" s="130" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B33" s="115">
         <v>2</v>
@@ -11150,10 +11303,13 @@
       <c r="DM33" s="116"/>
       <c r="DN33" s="116"/>
       <c r="DO33" s="116"/>
+      <c r="DP33" s="116"/>
+      <c r="DQ33" s="116"/>
+      <c r="DR33" s="116"/>
     </row>
-    <row r="34" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A34" s="118" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B34" s="115">
         <v>3</v>
@@ -11275,10 +11431,13 @@
       <c r="DM34" s="116"/>
       <c r="DN34" s="116"/>
       <c r="DO34" s="116"/>
+      <c r="DP34" s="116"/>
+      <c r="DQ34" s="116"/>
+      <c r="DR34" s="116"/>
     </row>
-    <row r="35" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A35" s="118" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B35" s="115">
         <v>3</v>
@@ -11400,10 +11559,13 @@
       <c r="DM35" s="116"/>
       <c r="DN35" s="116"/>
       <c r="DO35" s="116"/>
+      <c r="DP35" s="116"/>
+      <c r="DQ35" s="116"/>
+      <c r="DR35" s="116"/>
     </row>
-    <row r="36" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A36" s="118" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B36" s="115">
         <v>3</v>
@@ -11525,10 +11687,13 @@
       <c r="DM36" s="116"/>
       <c r="DN36" s="116"/>
       <c r="DO36" s="116"/>
+      <c r="DP36" s="116"/>
+      <c r="DQ36" s="116"/>
+      <c r="DR36" s="116"/>
     </row>
-    <row r="37" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A37" s="130" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B37" s="115">
         <v>3</v>
@@ -11650,10 +11815,13 @@
       <c r="DM37" s="116"/>
       <c r="DN37" s="116"/>
       <c r="DO37" s="116"/>
+      <c r="DP37" s="116"/>
+      <c r="DQ37" s="116"/>
+      <c r="DR37" s="116"/>
     </row>
-    <row r="38" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A38" s="123" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B38" s="115">
         <v>3</v>
@@ -11775,8 +11943,11 @@
       <c r="DM38" s="116"/>
       <c r="DN38" s="116"/>
       <c r="DO38" s="116"/>
+      <c r="DP38" s="116"/>
+      <c r="DQ38" s="116"/>
+      <c r="DR38" s="116"/>
     </row>
-    <row r="39" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A39" s="118" t="s">
         <v>224</v>
       </c>
@@ -11900,8 +12071,11 @@
       <c r="DM39" s="116"/>
       <c r="DN39" s="116"/>
       <c r="DO39" s="116"/>
+      <c r="DP39" s="116"/>
+      <c r="DQ39" s="116"/>
+      <c r="DR39" s="116"/>
     </row>
-    <row r="40" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A40" s="118" t="s">
         <v>225</v>
       </c>
@@ -12025,8 +12199,11 @@
       <c r="DM40" s="116"/>
       <c r="DN40" s="116"/>
       <c r="DO40" s="116"/>
+      <c r="DP40" s="116"/>
+      <c r="DQ40" s="116"/>
+      <c r="DR40" s="116"/>
     </row>
-    <row r="41" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A41" s="118" t="s">
         <v>226</v>
       </c>
@@ -12150,8 +12327,11 @@
       <c r="DM41" s="116"/>
       <c r="DN41" s="116"/>
       <c r="DO41" s="116"/>
+      <c r="DP41" s="116"/>
+      <c r="DQ41" s="116"/>
+      <c r="DR41" s="116"/>
     </row>
-    <row r="42" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A42" s="118" t="s">
         <v>227</v>
       </c>
@@ -12275,8 +12455,11 @@
       <c r="DM42" s="116"/>
       <c r="DN42" s="116"/>
       <c r="DO42" s="116"/>
+      <c r="DP42" s="116"/>
+      <c r="DQ42" s="116"/>
+      <c r="DR42" s="116"/>
     </row>
-    <row r="43" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A43" s="123" t="s">
         <v>235</v>
       </c>
@@ -12400,8 +12583,11 @@
       <c r="DM43" s="116"/>
       <c r="DN43" s="116"/>
       <c r="DO43" s="116"/>
+      <c r="DP43" s="116"/>
+      <c r="DQ43" s="116"/>
+      <c r="DR43" s="116"/>
     </row>
-    <row r="44" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A44" s="130" t="s">
         <v>241</v>
       </c>
@@ -12525,8 +12711,11 @@
       <c r="DM44" s="116"/>
       <c r="DN44" s="116"/>
       <c r="DO44" s="116"/>
+      <c r="DP44" s="116"/>
+      <c r="DQ44" s="116"/>
+      <c r="DR44" s="116"/>
     </row>
-    <row r="45" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A45" s="123" t="s">
         <v>242</v>
       </c>
@@ -12650,8 +12839,11 @@
       <c r="DM45" s="116"/>
       <c r="DN45" s="116"/>
       <c r="DO45" s="116"/>
+      <c r="DP45" s="116"/>
+      <c r="DQ45" s="116"/>
+      <c r="DR45" s="116"/>
     </row>
-    <row r="46" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A46" s="123" t="s">
         <v>244</v>
       </c>
@@ -12775,10 +12967,13 @@
       <c r="DM46" s="116"/>
       <c r="DN46" s="116"/>
       <c r="DO46" s="116"/>
+      <c r="DP46" s="116"/>
+      <c r="DQ46" s="116"/>
+      <c r="DR46" s="116"/>
     </row>
-    <row r="47" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A47" s="123" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B47" s="117">
         <v>4</v>
@@ -12900,8 +13095,11 @@
       <c r="DM47" s="116"/>
       <c r="DN47" s="116"/>
       <c r="DO47" s="116"/>
+      <c r="DP47" s="116"/>
+      <c r="DQ47" s="116"/>
+      <c r="DR47" s="116"/>
     </row>
-    <row r="48" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A48" s="123" t="s">
         <v>262</v>
       </c>
@@ -12912,10 +13110,10 @@
       <c r="D48" s="116"/>
       <c r="E48" s="116"/>
       <c r="F48" s="116"/>
-      <c r="G48" s="118"/>
+      <c r="G48" s="116"/>
       <c r="H48" s="116"/>
       <c r="I48" s="116"/>
-      <c r="J48" s="116"/>
+      <c r="J48" s="118"/>
       <c r="K48" s="116"/>
       <c r="L48" s="116"/>
       <c r="M48" s="116"/>
@@ -13025,8 +13223,11 @@
       <c r="DM48" s="116"/>
       <c r="DN48" s="116"/>
       <c r="DO48" s="116"/>
+      <c r="DP48" s="116"/>
+      <c r="DQ48" s="116"/>
+      <c r="DR48" s="116"/>
     </row>
-    <row r="49" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A49" s="123" t="s">
         <v>263</v>
       </c>
@@ -13150,8 +13351,11 @@
       <c r="DM49" s="116"/>
       <c r="DN49" s="116"/>
       <c r="DO49" s="116"/>
+      <c r="DP49" s="116"/>
+      <c r="DQ49" s="116"/>
+      <c r="DR49" s="116"/>
     </row>
-    <row r="50" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A50" s="123" t="s">
         <v>264</v>
       </c>
@@ -13275,8 +13479,11 @@
       <c r="DM50" s="116"/>
       <c r="DN50" s="116"/>
       <c r="DO50" s="116"/>
+      <c r="DP50" s="116"/>
+      <c r="DQ50" s="116"/>
+      <c r="DR50" s="116"/>
     </row>
-    <row r="51" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A51" s="123" t="s">
         <v>265</v>
       </c>
@@ -13400,8 +13607,11 @@
       <c r="DM51" s="116"/>
       <c r="DN51" s="116"/>
       <c r="DO51" s="116"/>
+      <c r="DP51" s="116"/>
+      <c r="DQ51" s="116"/>
+      <c r="DR51" s="116"/>
     </row>
-    <row r="52" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A52" s="123" t="s">
         <v>232</v>
       </c>
@@ -13525,8 +13735,11 @@
       <c r="DM52" s="116"/>
       <c r="DN52" s="116"/>
       <c r="DO52" s="116"/>
+      <c r="DP52" s="116"/>
+      <c r="DQ52" s="116"/>
+      <c r="DR52" s="116"/>
     </row>
-    <row r="53" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A53" s="123" t="s">
         <v>231</v>
       </c>
@@ -13650,8 +13863,11 @@
       <c r="DM53" s="116"/>
       <c r="DN53" s="116"/>
       <c r="DO53" s="116"/>
+      <c r="DP53" s="116"/>
+      <c r="DQ53" s="116"/>
+      <c r="DR53" s="116"/>
     </row>
-    <row r="54" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A54" s="130" t="s">
         <v>236</v>
       </c>
@@ -13775,8 +13991,11 @@
       <c r="DM54" s="116"/>
       <c r="DN54" s="116"/>
       <c r="DO54" s="116"/>
+      <c r="DP54" s="116"/>
+      <c r="DQ54" s="116"/>
+      <c r="DR54" s="116"/>
     </row>
-    <row r="55" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A55" s="130" t="s">
         <v>237</v>
       </c>
@@ -13900,10 +14119,13 @@
       <c r="DM55" s="116"/>
       <c r="DN55" s="116"/>
       <c r="DO55" s="116"/>
+      <c r="DP55" s="116"/>
+      <c r="DQ55" s="116"/>
+      <c r="DR55" s="116"/>
     </row>
-    <row r="56" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A56" s="123" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B56" s="115">
         <v>5</v>
@@ -14025,8 +14247,11 @@
       <c r="DM56" s="116"/>
       <c r="DN56" s="116"/>
       <c r="DO56" s="116"/>
+      <c r="DP56" s="116"/>
+      <c r="DQ56" s="116"/>
+      <c r="DR56" s="116"/>
     </row>
-    <row r="57" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A57" s="129"/>
       <c r="B57" s="117"/>
       <c r="C57" s="116"/>
@@ -14146,8 +14371,11 @@
       <c r="DM57" s="116"/>
       <c r="DN57" s="116"/>
       <c r="DO57" s="116"/>
+      <c r="DP57" s="116"/>
+      <c r="DQ57" s="116"/>
+      <c r="DR57" s="116"/>
     </row>
-    <row r="58" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A58" s="129"/>
       <c r="B58" s="115"/>
       <c r="C58" s="116"/>
@@ -14267,8 +14495,11 @@
       <c r="DM58" s="116"/>
       <c r="DN58" s="116"/>
       <c r="DO58" s="116"/>
+      <c r="DP58" s="116"/>
+      <c r="DQ58" s="116"/>
+      <c r="DR58" s="116"/>
     </row>
-    <row r="59" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A59" s="129"/>
       <c r="B59" s="117"/>
       <c r="C59" s="116"/>
@@ -14388,8 +14619,11 @@
       <c r="DM59" s="116"/>
       <c r="DN59" s="116"/>
       <c r="DO59" s="116"/>
+      <c r="DP59" s="116"/>
+      <c r="DQ59" s="116"/>
+      <c r="DR59" s="116"/>
     </row>
-    <row r="60" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A60" s="129"/>
       <c r="B60" s="117"/>
       <c r="C60" s="116"/>
@@ -14509,8 +14743,11 @@
       <c r="DM60" s="116"/>
       <c r="DN60" s="116"/>
       <c r="DO60" s="116"/>
+      <c r="DP60" s="116"/>
+      <c r="DQ60" s="116"/>
+      <c r="DR60" s="116"/>
     </row>
-    <row r="61" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A61" s="129"/>
       <c r="B61" s="117"/>
       <c r="C61" s="116"/>
@@ -14630,8 +14867,11 @@
       <c r="DM61" s="116"/>
       <c r="DN61" s="116"/>
       <c r="DO61" s="116"/>
+      <c r="DP61" s="116"/>
+      <c r="DQ61" s="116"/>
+      <c r="DR61" s="116"/>
     </row>
-    <row r="62" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A62" s="129"/>
       <c r="B62" s="117"/>
       <c r="C62" s="116"/>
@@ -14751,8 +14991,11 @@
       <c r="DM62" s="116"/>
       <c r="DN62" s="116"/>
       <c r="DO62" s="116"/>
+      <c r="DP62" s="116"/>
+      <c r="DQ62" s="116"/>
+      <c r="DR62" s="116"/>
     </row>
-    <row r="63" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A63" s="129"/>
       <c r="B63" s="117"/>
       <c r="C63" s="116"/>
@@ -14763,10 +15006,10 @@
       <c r="H63" s="116"/>
       <c r="I63" s="116"/>
       <c r="J63" s="116"/>
-      <c r="K63" s="118"/>
+      <c r="K63" s="116"/>
       <c r="L63" s="116"/>
       <c r="M63" s="116"/>
-      <c r="N63" s="116"/>
+      <c r="N63" s="118"/>
       <c r="O63" s="116"/>
       <c r="P63" s="116"/>
       <c r="Q63" s="116"/>
@@ -14872,8 +15115,11 @@
       <c r="DM63" s="116"/>
       <c r="DN63" s="116"/>
       <c r="DO63" s="116"/>
+      <c r="DP63" s="116"/>
+      <c r="DQ63" s="116"/>
+      <c r="DR63" s="116"/>
     </row>
-    <row r="64" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A64" s="129"/>
       <c r="B64" s="117"/>
       <c r="C64" s="116"/>
@@ -14885,10 +15131,10 @@
       <c r="I64" s="116"/>
       <c r="J64" s="116"/>
       <c r="K64" s="116"/>
-      <c r="L64" s="118"/>
+      <c r="L64" s="116"/>
       <c r="M64" s="116"/>
       <c r="N64" s="116"/>
-      <c r="O64" s="116"/>
+      <c r="O64" s="118"/>
       <c r="P64" s="116"/>
       <c r="Q64" s="116"/>
       <c r="R64" s="116"/>
@@ -14993,8 +15239,11 @@
       <c r="DM64" s="116"/>
       <c r="DN64" s="116"/>
       <c r="DO64" s="116"/>
+      <c r="DP64" s="116"/>
+      <c r="DQ64" s="116"/>
+      <c r="DR64" s="116"/>
     </row>
-    <row r="65" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A65" s="129"/>
       <c r="B65" s="117"/>
       <c r="C65" s="116"/>
@@ -15007,10 +15256,10 @@
       <c r="J65" s="116"/>
       <c r="K65" s="116"/>
       <c r="L65" s="116"/>
-      <c r="M65" s="118"/>
+      <c r="M65" s="116"/>
       <c r="N65" s="116"/>
       <c r="O65" s="116"/>
-      <c r="P65" s="116"/>
+      <c r="P65" s="118"/>
       <c r="Q65" s="116"/>
       <c r="R65" s="116"/>
       <c r="S65" s="116"/>
@@ -15114,8 +15363,11 @@
       <c r="DM65" s="116"/>
       <c r="DN65" s="116"/>
       <c r="DO65" s="116"/>
+      <c r="DP65" s="116"/>
+      <c r="DQ65" s="116"/>
+      <c r="DR65" s="116"/>
     </row>
-    <row r="66" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A66" s="129"/>
       <c r="B66" s="117"/>
       <c r="C66" s="116"/>
@@ -15129,10 +15381,10 @@
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
       <c r="M66" s="116"/>
-      <c r="N66" s="118"/>
+      <c r="N66" s="116"/>
       <c r="O66" s="116"/>
       <c r="P66" s="116"/>
-      <c r="Q66" s="116"/>
+      <c r="Q66" s="118"/>
       <c r="R66" s="116"/>
       <c r="S66" s="116"/>
       <c r="T66" s="116"/>
@@ -15235,8 +15487,11 @@
       <c r="DM66" s="116"/>
       <c r="DN66" s="116"/>
       <c r="DO66" s="116"/>
+      <c r="DP66" s="116"/>
+      <c r="DQ66" s="116"/>
+      <c r="DR66" s="116"/>
     </row>
-    <row r="67" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A67" s="129"/>
       <c r="B67" s="117"/>
       <c r="C67" s="116"/>
@@ -15356,8 +15611,11 @@
       <c r="DM67" s="116"/>
       <c r="DN67" s="116"/>
       <c r="DO67" s="116"/>
+      <c r="DP67" s="116"/>
+      <c r="DQ67" s="116"/>
+      <c r="DR67" s="116"/>
     </row>
-    <row r="68" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A68" s="129"/>
       <c r="B68" s="115"/>
       <c r="C68" s="116"/>
@@ -15477,8 +15735,11 @@
       <c r="DM68" s="116"/>
       <c r="DN68" s="116"/>
       <c r="DO68" s="116"/>
+      <c r="DP68" s="116"/>
+      <c r="DQ68" s="116"/>
+      <c r="DR68" s="116"/>
     </row>
-    <row r="69" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A69" s="129"/>
       <c r="B69" s="117"/>
       <c r="C69" s="116"/>
@@ -15598,8 +15859,11 @@
       <c r="DM69" s="116"/>
       <c r="DN69" s="116"/>
       <c r="DO69" s="116"/>
+      <c r="DP69" s="116"/>
+      <c r="DQ69" s="116"/>
+      <c r="DR69" s="116"/>
     </row>
-    <row r="70" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A70" s="129"/>
       <c r="B70" s="117"/>
       <c r="C70" s="116"/>
@@ -15719,8 +15983,11 @@
       <c r="DM70" s="116"/>
       <c r="DN70" s="116"/>
       <c r="DO70" s="116"/>
+      <c r="DP70" s="116"/>
+      <c r="DQ70" s="116"/>
+      <c r="DR70" s="116"/>
     </row>
-    <row r="71" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A71" s="129"/>
       <c r="B71" s="117"/>
       <c r="C71" s="116"/>
@@ -15840,8 +16107,11 @@
       <c r="DM71" s="116"/>
       <c r="DN71" s="116"/>
       <c r="DO71" s="116"/>
+      <c r="DP71" s="116"/>
+      <c r="DQ71" s="116"/>
+      <c r="DR71" s="116"/>
     </row>
-    <row r="72" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A72" s="129"/>
       <c r="B72" s="117"/>
       <c r="C72" s="116"/>
@@ -15961,8 +16231,11 @@
       <c r="DM72" s="116"/>
       <c r="DN72" s="116"/>
       <c r="DO72" s="116"/>
+      <c r="DP72" s="116"/>
+      <c r="DQ72" s="116"/>
+      <c r="DR72" s="116"/>
     </row>
-    <row r="73" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A73" s="115"/>
       <c r="B73" s="117"/>
       <c r="C73" s="116"/>
@@ -15977,10 +16250,10 @@
       <c r="L73" s="116"/>
       <c r="M73" s="116"/>
       <c r="N73" s="116"/>
-      <c r="O73" s="118"/>
+      <c r="O73" s="116"/>
       <c r="P73" s="116"/>
       <c r="Q73" s="116"/>
-      <c r="R73" s="116"/>
+      <c r="R73" s="118"/>
       <c r="S73" s="116"/>
       <c r="T73" s="116"/>
       <c r="U73" s="116"/>
@@ -16082,8 +16355,11 @@
       <c r="DM73" s="116"/>
       <c r="DN73" s="116"/>
       <c r="DO73" s="116"/>
+      <c r="DP73" s="116"/>
+      <c r="DQ73" s="116"/>
+      <c r="DR73" s="116"/>
     </row>
-    <row r="74" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A74" s="115"/>
       <c r="B74" s="117"/>
       <c r="C74" s="116"/>
@@ -16099,10 +16375,10 @@
       <c r="M74" s="116"/>
       <c r="N74" s="116"/>
       <c r="O74" s="116"/>
-      <c r="P74" s="118"/>
+      <c r="P74" s="116"/>
       <c r="Q74" s="116"/>
       <c r="R74" s="116"/>
-      <c r="S74" s="116"/>
+      <c r="S74" s="118"/>
       <c r="T74" s="116"/>
       <c r="U74" s="116"/>
       <c r="V74" s="116"/>
@@ -16203,8 +16479,11 @@
       <c r="DM74" s="116"/>
       <c r="DN74" s="116"/>
       <c r="DO74" s="116"/>
+      <c r="DP74" s="116"/>
+      <c r="DQ74" s="116"/>
+      <c r="DR74" s="116"/>
     </row>
-    <row r="75" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A75" s="115"/>
       <c r="B75" s="117"/>
       <c r="C75" s="116"/>
@@ -16221,10 +16500,10 @@
       <c r="N75" s="116"/>
       <c r="O75" s="116"/>
       <c r="P75" s="116"/>
-      <c r="Q75" s="118"/>
+      <c r="Q75" s="116"/>
       <c r="R75" s="116"/>
       <c r="S75" s="116"/>
-      <c r="T75" s="116"/>
+      <c r="T75" s="118"/>
       <c r="U75" s="116"/>
       <c r="V75" s="116"/>
       <c r="W75" s="116"/>
@@ -16324,8 +16603,11 @@
       <c r="DM75" s="116"/>
       <c r="DN75" s="116"/>
       <c r="DO75" s="116"/>
+      <c r="DP75" s="116"/>
+      <c r="DQ75" s="116"/>
+      <c r="DR75" s="116"/>
     </row>
-    <row r="76" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A76" s="115"/>
       <c r="B76" s="117"/>
       <c r="C76" s="116"/>
@@ -16343,10 +16625,10 @@
       <c r="O76" s="116"/>
       <c r="P76" s="116"/>
       <c r="Q76" s="116"/>
-      <c r="R76" s="118"/>
+      <c r="R76" s="116"/>
       <c r="S76" s="116"/>
       <c r="T76" s="116"/>
-      <c r="U76" s="116"/>
+      <c r="U76" s="118"/>
       <c r="V76" s="116"/>
       <c r="W76" s="116"/>
       <c r="X76" s="116"/>
@@ -16445,8 +16727,11 @@
       <c r="DM76" s="116"/>
       <c r="DN76" s="116"/>
       <c r="DO76" s="116"/>
+      <c r="DP76" s="116"/>
+      <c r="DQ76" s="116"/>
+      <c r="DR76" s="116"/>
     </row>
-    <row r="77" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A77" s="115"/>
       <c r="B77" s="117"/>
       <c r="C77" s="116"/>
@@ -16566,8 +16851,11 @@
       <c r="DM77" s="116"/>
       <c r="DN77" s="116"/>
       <c r="DO77" s="116"/>
+      <c r="DP77" s="116"/>
+      <c r="DQ77" s="116"/>
+      <c r="DR77" s="116"/>
     </row>
-    <row r="78" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A78" s="115"/>
       <c r="B78" s="117"/>
       <c r="C78" s="116"/>
@@ -16687,8 +16975,11 @@
       <c r="DM78" s="116"/>
       <c r="DN78" s="116"/>
       <c r="DO78" s="116"/>
+      <c r="DP78" s="116"/>
+      <c r="DQ78" s="116"/>
+      <c r="DR78" s="116"/>
     </row>
-    <row r="79" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A79" s="115"/>
       <c r="B79" s="117"/>
       <c r="C79" s="116"/>
@@ -16808,8 +17099,11 @@
       <c r="DM79" s="116"/>
       <c r="DN79" s="116"/>
       <c r="DO79" s="116"/>
+      <c r="DP79" s="116"/>
+      <c r="DQ79" s="116"/>
+      <c r="DR79" s="116"/>
     </row>
-    <row r="80" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A80" s="115"/>
       <c r="B80" s="117"/>
       <c r="C80" s="116"/>
@@ -16929,8 +17223,11 @@
       <c r="DM80" s="116"/>
       <c r="DN80" s="116"/>
       <c r="DO80" s="116"/>
+      <c r="DP80" s="116"/>
+      <c r="DQ80" s="116"/>
+      <c r="DR80" s="116"/>
     </row>
-    <row r="81" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A81" s="115"/>
       <c r="B81" s="117"/>
       <c r="C81" s="116"/>
@@ -17050,8 +17347,11 @@
       <c r="DM81" s="116"/>
       <c r="DN81" s="116"/>
       <c r="DO81" s="116"/>
+      <c r="DP81" s="116"/>
+      <c r="DQ81" s="116"/>
+      <c r="DR81" s="116"/>
     </row>
-    <row r="82" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A82" s="115"/>
       <c r="B82" s="117"/>
       <c r="C82" s="116"/>
@@ -17171,8 +17471,11 @@
       <c r="DM82" s="116"/>
       <c r="DN82" s="116"/>
       <c r="DO82" s="116"/>
+      <c r="DP82" s="116"/>
+      <c r="DQ82" s="116"/>
+      <c r="DR82" s="116"/>
     </row>
-    <row r="83" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A83" s="115"/>
       <c r="B83" s="117"/>
       <c r="C83" s="116"/>
@@ -17292,8 +17595,11 @@
       <c r="DM83" s="116"/>
       <c r="DN83" s="116"/>
       <c r="DO83" s="116"/>
+      <c r="DP83" s="116"/>
+      <c r="DQ83" s="116"/>
+      <c r="DR83" s="116"/>
     </row>
-    <row r="84" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A84" s="115"/>
       <c r="B84" s="117"/>
       <c r="C84" s="116"/>
@@ -17413,8 +17719,11 @@
       <c r="DM84" s="116"/>
       <c r="DN84" s="116"/>
       <c r="DO84" s="116"/>
+      <c r="DP84" s="116"/>
+      <c r="DQ84" s="116"/>
+      <c r="DR84" s="116"/>
     </row>
-    <row r="85" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A85" s="115"/>
       <c r="B85" s="117"/>
       <c r="C85" s="116"/>
@@ -17534,8 +17843,11 @@
       <c r="DM85" s="116"/>
       <c r="DN85" s="116"/>
       <c r="DO85" s="116"/>
+      <c r="DP85" s="116"/>
+      <c r="DQ85" s="116"/>
+      <c r="DR85" s="116"/>
     </row>
-    <row r="86" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A86" s="115"/>
       <c r="B86" s="117"/>
       <c r="C86" s="116"/>
@@ -17655,8 +17967,11 @@
       <c r="DM86" s="116"/>
       <c r="DN86" s="116"/>
       <c r="DO86" s="116"/>
+      <c r="DP86" s="116"/>
+      <c r="DQ86" s="116"/>
+      <c r="DR86" s="116"/>
     </row>
-    <row r="87" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A87" s="115"/>
       <c r="B87" s="117"/>
       <c r="C87" s="116"/>
@@ -17776,8 +18091,11 @@
       <c r="DM87" s="116"/>
       <c r="DN87" s="116"/>
       <c r="DO87" s="116"/>
+      <c r="DP87" s="116"/>
+      <c r="DQ87" s="116"/>
+      <c r="DR87" s="116"/>
     </row>
-    <row r="88" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A88" s="115"/>
       <c r="B88" s="117"/>
       <c r="C88" s="116"/>
@@ -17897,8 +18215,11 @@
       <c r="DM88" s="116"/>
       <c r="DN88" s="116"/>
       <c r="DO88" s="116"/>
+      <c r="DP88" s="116"/>
+      <c r="DQ88" s="116"/>
+      <c r="DR88" s="116"/>
     </row>
-    <row r="89" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A89" s="115"/>
       <c r="B89" s="117"/>
       <c r="C89" s="116"/>
@@ -18018,8 +18339,11 @@
       <c r="DM89" s="116"/>
       <c r="DN89" s="116"/>
       <c r="DO89" s="116"/>
+      <c r="DP89" s="116"/>
+      <c r="DQ89" s="116"/>
+      <c r="DR89" s="116"/>
     </row>
-    <row r="90" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A90" s="115"/>
       <c r="B90" s="117"/>
       <c r="C90" s="116"/>
@@ -18139,8 +18463,11 @@
       <c r="DM90" s="116"/>
       <c r="DN90" s="116"/>
       <c r="DO90" s="116"/>
+      <c r="DP90" s="116"/>
+      <c r="DQ90" s="116"/>
+      <c r="DR90" s="116"/>
     </row>
-    <row r="91" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A91" s="115"/>
       <c r="B91" s="117"/>
       <c r="C91" s="116"/>
@@ -18260,8 +18587,11 @@
       <c r="DM91" s="116"/>
       <c r="DN91" s="116"/>
       <c r="DO91" s="116"/>
+      <c r="DP91" s="116"/>
+      <c r="DQ91" s="116"/>
+      <c r="DR91" s="116"/>
     </row>
-    <row r="92" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A92" s="115"/>
       <c r="B92" s="117"/>
       <c r="C92" s="116"/>
@@ -18381,8 +18711,11 @@
       <c r="DM92" s="116"/>
       <c r="DN92" s="116"/>
       <c r="DO92" s="116"/>
+      <c r="DP92" s="116"/>
+      <c r="DQ92" s="116"/>
+      <c r="DR92" s="116"/>
     </row>
-    <row r="93" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A93" s="115"/>
       <c r="B93" s="117"/>
       <c r="C93" s="116"/>
@@ -18502,8 +18835,11 @@
       <c r="DM93" s="116"/>
       <c r="DN93" s="116"/>
       <c r="DO93" s="116"/>
+      <c r="DP93" s="116"/>
+      <c r="DQ93" s="116"/>
+      <c r="DR93" s="116"/>
     </row>
-    <row r="94" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A94" s="115"/>
       <c r="B94" s="117"/>
       <c r="C94" s="116"/>
@@ -18623,8 +18959,11 @@
       <c r="DM94" s="116"/>
       <c r="DN94" s="116"/>
       <c r="DO94" s="116"/>
+      <c r="DP94" s="116"/>
+      <c r="DQ94" s="116"/>
+      <c r="DR94" s="116"/>
     </row>
-    <row r="95" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A95" s="115"/>
       <c r="B95" s="117"/>
       <c r="C95" s="116"/>
@@ -18744,8 +19083,11 @@
       <c r="DM95" s="116"/>
       <c r="DN95" s="116"/>
       <c r="DO95" s="116"/>
+      <c r="DP95" s="116"/>
+      <c r="DQ95" s="116"/>
+      <c r="DR95" s="116"/>
     </row>
-    <row r="96" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A96" s="115"/>
       <c r="B96" s="117"/>
       <c r="C96" s="116"/>
@@ -18865,8 +19207,11 @@
       <c r="DM96" s="116"/>
       <c r="DN96" s="116"/>
       <c r="DO96" s="116"/>
+      <c r="DP96" s="116"/>
+      <c r="DQ96" s="116"/>
+      <c r="DR96" s="116"/>
     </row>
-    <row r="97" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A97" s="115"/>
       <c r="B97" s="117"/>
       <c r="C97" s="116"/>
@@ -18986,8 +19331,11 @@
       <c r="DM97" s="116"/>
       <c r="DN97" s="116"/>
       <c r="DO97" s="116"/>
+      <c r="DP97" s="116"/>
+      <c r="DQ97" s="116"/>
+      <c r="DR97" s="116"/>
     </row>
-    <row r="98" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A98" s="115"/>
       <c r="B98" s="117"/>
       <c r="C98" s="116"/>
@@ -19107,8 +19455,11 @@
       <c r="DM98" s="116"/>
       <c r="DN98" s="116"/>
       <c r="DO98" s="116"/>
+      <c r="DP98" s="116"/>
+      <c r="DQ98" s="116"/>
+      <c r="DR98" s="116"/>
     </row>
-    <row r="100" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A100" s="115"/>
       <c r="B100" s="117"/>
       <c r="C100" s="116"/>
@@ -19228,8 +19579,11 @@
       <c r="DM100" s="116"/>
       <c r="DN100" s="116"/>
       <c r="DO100" s="116"/>
+      <c r="DP100" s="116"/>
+      <c r="DQ100" s="116"/>
+      <c r="DR100" s="116"/>
     </row>
-    <row r="101" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A101" s="115"/>
       <c r="B101" s="117"/>
       <c r="C101" s="116"/>
@@ -19349,8 +19703,11 @@
       <c r="DM101" s="116"/>
       <c r="DN101" s="116"/>
       <c r="DO101" s="116"/>
+      <c r="DP101" s="116"/>
+      <c r="DQ101" s="116"/>
+      <c r="DR101" s="116"/>
     </row>
-    <row r="102" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A102" s="115"/>
       <c r="B102" s="117"/>
       <c r="C102" s="116"/>
@@ -19470,8 +19827,11 @@
       <c r="DM102" s="116"/>
       <c r="DN102" s="116"/>
       <c r="DO102" s="116"/>
+      <c r="DP102" s="116"/>
+      <c r="DQ102" s="116"/>
+      <c r="DR102" s="116"/>
     </row>
-    <row r="103" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A103" s="115"/>
       <c r="B103" s="115"/>
       <c r="C103" s="116"/>
@@ -19591,8 +19951,11 @@
       <c r="DM103" s="116"/>
       <c r="DN103" s="116"/>
       <c r="DO103" s="116"/>
+      <c r="DP103" s="116"/>
+      <c r="DQ103" s="116"/>
+      <c r="DR103" s="116"/>
     </row>
-    <row r="104" spans="1:119" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:122" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="115"/>
       <c r="B104" s="115"/>
       <c r="C104" s="116"/>
@@ -19712,8 +20075,11 @@
       <c r="DM104" s="116"/>
       <c r="DN104" s="116"/>
       <c r="DO104" s="116"/>
+      <c r="DP104" s="116"/>
+      <c r="DQ104" s="116"/>
+      <c r="DR104" s="116"/>
     </row>
-    <row r="105" spans="1:119" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:122" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="115"/>
       <c r="B105" s="115"/>
       <c r="C105" s="116"/>
@@ -19833,8 +20199,11 @@
       <c r="DM105" s="116"/>
       <c r="DN105" s="116"/>
       <c r="DO105" s="116"/>
+      <c r="DP105" s="116"/>
+      <c r="DQ105" s="116"/>
+      <c r="DR105" s="116"/>
     </row>
-    <row r="106" spans="1:119" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:122" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="115"/>
       <c r="B106" s="115"/>
       <c r="C106" s="116"/>
@@ -19954,8 +20323,11 @@
       <c r="DM106" s="116"/>
       <c r="DN106" s="116"/>
       <c r="DO106" s="116"/>
+      <c r="DP106" s="116"/>
+      <c r="DQ106" s="116"/>
+      <c r="DR106" s="116"/>
     </row>
-    <row r="107" spans="1:119" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:122" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="115"/>
       <c r="B107" s="115"/>
       <c r="C107" s="116"/>
@@ -20075,8 +20447,11 @@
       <c r="DM107" s="116"/>
       <c r="DN107" s="116"/>
       <c r="DO107" s="116"/>
+      <c r="DP107" s="116"/>
+      <c r="DQ107" s="116"/>
+      <c r="DR107" s="116"/>
     </row>
-    <row r="108" spans="1:119" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:122" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="115"/>
       <c r="B108" s="115"/>
       <c r="C108" s="116"/>
@@ -20196,8 +20571,11 @@
       <c r="DM108" s="116"/>
       <c r="DN108" s="116"/>
       <c r="DO108" s="116"/>
+      <c r="DP108" s="116"/>
+      <c r="DQ108" s="116"/>
+      <c r="DR108" s="116"/>
     </row>
-    <row r="109" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A109" s="115"/>
       <c r="B109" s="115"/>
       <c r="C109" s="116"/>
@@ -20317,8 +20695,11 @@
       <c r="DM109" s="116"/>
       <c r="DN109" s="116"/>
       <c r="DO109" s="116"/>
+      <c r="DP109" s="116"/>
+      <c r="DQ109" s="116"/>
+      <c r="DR109" s="116"/>
     </row>
-    <row r="110" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A110" s="115"/>
       <c r="B110" s="115"/>
       <c r="C110" s="116"/>
@@ -20438,8 +20819,11 @@
       <c r="DM110" s="116"/>
       <c r="DN110" s="116"/>
       <c r="DO110" s="116"/>
+      <c r="DP110" s="116"/>
+      <c r="DQ110" s="116"/>
+      <c r="DR110" s="116"/>
     </row>
-    <row r="111" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A111" s="115"/>
       <c r="B111" s="117"/>
       <c r="C111" s="116"/>
@@ -20559,8 +20943,11 @@
       <c r="DM111" s="116"/>
       <c r="DN111" s="116"/>
       <c r="DO111" s="116"/>
+      <c r="DP111" s="116"/>
+      <c r="DQ111" s="116"/>
+      <c r="DR111" s="116"/>
     </row>
-    <row r="112" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A112" s="115"/>
       <c r="B112" s="115"/>
       <c r="C112" s="116"/>
@@ -20680,8 +21067,11 @@
       <c r="DM112" s="116"/>
       <c r="DN112" s="116"/>
       <c r="DO112" s="116"/>
+      <c r="DP112" s="116"/>
+      <c r="DQ112" s="116"/>
+      <c r="DR112" s="116"/>
     </row>
-    <row r="113" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A113" s="115"/>
       <c r="B113" s="117"/>
       <c r="C113" s="116"/>
@@ -20801,8 +21191,11 @@
       <c r="DM113" s="116"/>
       <c r="DN113" s="116"/>
       <c r="DO113" s="116"/>
+      <c r="DP113" s="116"/>
+      <c r="DQ113" s="116"/>
+      <c r="DR113" s="116"/>
     </row>
-    <row r="114" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A114" s="115"/>
       <c r="B114" s="117"/>
       <c r="C114" s="116"/>
@@ -20922,8 +21315,11 @@
       <c r="DM114" s="116"/>
       <c r="DN114" s="116"/>
       <c r="DO114" s="116"/>
+      <c r="DP114" s="116"/>
+      <c r="DQ114" s="116"/>
+      <c r="DR114" s="116"/>
     </row>
-    <row r="115" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A115" s="115"/>
       <c r="B115" s="117"/>
       <c r="C115" s="116"/>
@@ -21043,8 +21439,11 @@
       <c r="DM115" s="116"/>
       <c r="DN115" s="116"/>
       <c r="DO115" s="116"/>
+      <c r="DP115" s="116"/>
+      <c r="DQ115" s="116"/>
+      <c r="DR115" s="116"/>
     </row>
-    <row r="116" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A116" s="115"/>
       <c r="B116" s="117"/>
       <c r="C116" s="116"/>
@@ -21164,8 +21563,11 @@
       <c r="DM116" s="116"/>
       <c r="DN116" s="116"/>
       <c r="DO116" s="116"/>
+      <c r="DP116" s="116"/>
+      <c r="DQ116" s="116"/>
+      <c r="DR116" s="116"/>
     </row>
-    <row r="117" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A117" s="115"/>
       <c r="B117" s="117"/>
       <c r="C117" s="116"/>
@@ -21285,8 +21687,11 @@
       <c r="DM117" s="116"/>
       <c r="DN117" s="116"/>
       <c r="DO117" s="116"/>
+      <c r="DP117" s="116"/>
+      <c r="DQ117" s="116"/>
+      <c r="DR117" s="116"/>
     </row>
-    <row r="118" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A118" s="115"/>
       <c r="B118" s="117"/>
       <c r="C118" s="116"/>
@@ -21406,8 +21811,11 @@
       <c r="DM118" s="116"/>
       <c r="DN118" s="116"/>
       <c r="DO118" s="116"/>
+      <c r="DP118" s="116"/>
+      <c r="DQ118" s="116"/>
+      <c r="DR118" s="116"/>
     </row>
-    <row r="119" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A119" s="115"/>
       <c r="B119" s="115"/>
       <c r="C119" s="116"/>
@@ -21527,8 +21935,11 @@
       <c r="DM119" s="116"/>
       <c r="DN119" s="116"/>
       <c r="DO119" s="116"/>
+      <c r="DP119" s="116"/>
+      <c r="DQ119" s="116"/>
+      <c r="DR119" s="116"/>
     </row>
-    <row r="120" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A120" s="115"/>
       <c r="B120" s="115"/>
       <c r="C120" s="116"/>
@@ -21648,8 +22059,11 @@
       <c r="DM120" s="116"/>
       <c r="DN120" s="116"/>
       <c r="DO120" s="116"/>
+      <c r="DP120" s="116"/>
+      <c r="DQ120" s="116"/>
+      <c r="DR120" s="116"/>
     </row>
-    <row r="121" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A121" s="115"/>
       <c r="B121" s="117"/>
       <c r="C121" s="116"/>
@@ -21769,8 +22183,11 @@
       <c r="DM121" s="116"/>
       <c r="DN121" s="116"/>
       <c r="DO121" s="116"/>
+      <c r="DP121" s="116"/>
+      <c r="DQ121" s="116"/>
+      <c r="DR121" s="116"/>
     </row>
-    <row r="122" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A122" s="115"/>
       <c r="B122" s="117"/>
       <c r="C122" s="116"/>
@@ -21890,8 +22307,11 @@
       <c r="DM122" s="116"/>
       <c r="DN122" s="116"/>
       <c r="DO122" s="116"/>
+      <c r="DP122" s="116"/>
+      <c r="DQ122" s="116"/>
+      <c r="DR122" s="116"/>
     </row>
-    <row r="123" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A123" s="115"/>
       <c r="B123" s="115"/>
       <c r="C123" s="116"/>
@@ -22011,8 +22431,11 @@
       <c r="DM123" s="116"/>
       <c r="DN123" s="116"/>
       <c r="DO123" s="116"/>
+      <c r="DP123" s="116"/>
+      <c r="DQ123" s="116"/>
+      <c r="DR123" s="116"/>
     </row>
-    <row r="124" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A124" s="115"/>
       <c r="B124" s="115"/>
       <c r="C124" s="116"/>
@@ -22132,8 +22555,11 @@
       <c r="DM124" s="116"/>
       <c r="DN124" s="116"/>
       <c r="DO124" s="116"/>
+      <c r="DP124" s="116"/>
+      <c r="DQ124" s="116"/>
+      <c r="DR124" s="116"/>
     </row>
-    <row r="125" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A125" s="115"/>
       <c r="B125" s="115"/>
       <c r="C125" s="116"/>
@@ -22253,8 +22679,11 @@
       <c r="DM125" s="116"/>
       <c r="DN125" s="116"/>
       <c r="DO125" s="116"/>
+      <c r="DP125" s="116"/>
+      <c r="DQ125" s="116"/>
+      <c r="DR125" s="116"/>
     </row>
-    <row r="126" spans="1:119" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:122" x14ac:dyDescent="0.35">
       <c r="A126" s="115"/>
       <c r="B126" s="115"/>
       <c r="C126" s="116"/>
@@ -22374,31 +22803,34 @@
       <c r="DM126" s="116"/>
       <c r="DN126" s="116"/>
       <c r="DO126" s="116"/>
+      <c r="DP126" s="116"/>
+      <c r="DQ126" s="116"/>
+      <c r="DR126" s="116"/>
     </row>
   </sheetData>
   <sortState ref="A9:DO56">
     <sortCondition ref="B9:B56"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="F4:Y4"/>
-    <mergeCell ref="BV4:BY4"/>
+    <mergeCell ref="DC4:DJ4"/>
+    <mergeCell ref="DK4:DR4"/>
+    <mergeCell ref="CC4:CF4"/>
+    <mergeCell ref="CG4:CH4"/>
+    <mergeCell ref="CI4:CJ4"/>
+    <mergeCell ref="CK4:CN4"/>
+    <mergeCell ref="CO4:CR4"/>
+    <mergeCell ref="CS4:DB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="F4:AB4"/>
+    <mergeCell ref="BY4:CB4"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AW4"/>
-    <mergeCell ref="AX4:BG4"/>
-    <mergeCell ref="BH4:BQ4"/>
-    <mergeCell ref="BR4:BS4"/>
-    <mergeCell ref="BT4:BU4"/>
-    <mergeCell ref="CZ4:DG4"/>
-    <mergeCell ref="DH4:DO4"/>
-    <mergeCell ref="BZ4:CC4"/>
-    <mergeCell ref="CD4:CE4"/>
-    <mergeCell ref="CF4:CG4"/>
-    <mergeCell ref="CH4:CK4"/>
-    <mergeCell ref="CL4:CO4"/>
-    <mergeCell ref="CP4:CY4"/>
+    <mergeCell ref="AK4:AP4"/>
+    <mergeCell ref="AQ4:AZ4"/>
+    <mergeCell ref="BA4:BJ4"/>
+    <mergeCell ref="BK4:BT4"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BW4:BX4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="11" orientation="landscape" r:id="rId1"/>
@@ -22919,157 +23351,157 @@
       <c r="F4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="153"/>
-      <c r="I4" s="160" t="s">
+      <c r="H4" s="159"/>
+      <c r="I4" s="154" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="161"/>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="162"/>
-      <c r="Z4" s="157" t="s">
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="156"/>
+      <c r="Z4" s="151" t="s">
         <v>150</v>
       </c>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="159"/>
-      <c r="AD4" s="157" t="s">
+      <c r="AA4" s="152"/>
+      <c r="AB4" s="152"/>
+      <c r="AC4" s="153"/>
+      <c r="AD4" s="151" t="s">
         <v>151</v>
       </c>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="158"/>
-      <c r="AG4" s="159"/>
-      <c r="AH4" s="151" t="s">
+      <c r="AE4" s="152"/>
+      <c r="AF4" s="152"/>
+      <c r="AG4" s="153"/>
+      <c r="AH4" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="AI4" s="152"/>
-      <c r="AJ4" s="152"/>
-      <c r="AK4" s="152"/>
-      <c r="AL4" s="152"/>
-      <c r="AM4" s="155"/>
-      <c r="AN4" s="156" t="s">
+      <c r="AI4" s="158"/>
+      <c r="AJ4" s="158"/>
+      <c r="AK4" s="158"/>
+      <c r="AL4" s="158"/>
+      <c r="AM4" s="160"/>
+      <c r="AN4" s="161" t="s">
         <v>153</v>
       </c>
-      <c r="AO4" s="152"/>
-      <c r="AP4" s="152"/>
-      <c r="AQ4" s="152"/>
-      <c r="AR4" s="152"/>
-      <c r="AS4" s="152"/>
-      <c r="AT4" s="152"/>
-      <c r="AU4" s="152"/>
-      <c r="AV4" s="152"/>
-      <c r="AW4" s="153"/>
-      <c r="AX4" s="151" t="s">
+      <c r="AO4" s="158"/>
+      <c r="AP4" s="158"/>
+      <c r="AQ4" s="158"/>
+      <c r="AR4" s="158"/>
+      <c r="AS4" s="158"/>
+      <c r="AT4" s="158"/>
+      <c r="AU4" s="158"/>
+      <c r="AV4" s="158"/>
+      <c r="AW4" s="159"/>
+      <c r="AX4" s="157" t="s">
         <v>154</v>
       </c>
-      <c r="AY4" s="152"/>
-      <c r="AZ4" s="152"/>
-      <c r="BA4" s="152"/>
-      <c r="BB4" s="152"/>
-      <c r="BC4" s="152"/>
-      <c r="BD4" s="152"/>
-      <c r="BE4" s="152"/>
-      <c r="BF4" s="152"/>
-      <c r="BG4" s="153"/>
-      <c r="BH4" s="151" t="s">
+      <c r="AY4" s="158"/>
+      <c r="AZ4" s="158"/>
+      <c r="BA4" s="158"/>
+      <c r="BB4" s="158"/>
+      <c r="BC4" s="158"/>
+      <c r="BD4" s="158"/>
+      <c r="BE4" s="158"/>
+      <c r="BF4" s="158"/>
+      <c r="BG4" s="159"/>
+      <c r="BH4" s="157" t="s">
         <v>155</v>
       </c>
-      <c r="BI4" s="152"/>
-      <c r="BJ4" s="152"/>
-      <c r="BK4" s="152"/>
-      <c r="BL4" s="152"/>
-      <c r="BM4" s="152"/>
-      <c r="BN4" s="152"/>
-      <c r="BO4" s="152"/>
-      <c r="BP4" s="152"/>
-      <c r="BQ4" s="153"/>
-      <c r="BR4" s="151" t="s">
+      <c r="BI4" s="158"/>
+      <c r="BJ4" s="158"/>
+      <c r="BK4" s="158"/>
+      <c r="BL4" s="158"/>
+      <c r="BM4" s="158"/>
+      <c r="BN4" s="158"/>
+      <c r="BO4" s="158"/>
+      <c r="BP4" s="158"/>
+      <c r="BQ4" s="159"/>
+      <c r="BR4" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="BS4" s="155"/>
-      <c r="BT4" s="156" t="s">
+      <c r="BS4" s="160"/>
+      <c r="BT4" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="BU4" s="153"/>
-      <c r="BV4" s="151" t="s">
+      <c r="BU4" s="159"/>
+      <c r="BV4" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="BW4" s="152"/>
-      <c r="BX4" s="152"/>
-      <c r="BY4" s="153"/>
-      <c r="BZ4" s="151" t="s">
+      <c r="BW4" s="158"/>
+      <c r="BX4" s="158"/>
+      <c r="BY4" s="159"/>
+      <c r="BZ4" s="157" t="s">
         <v>161</v>
       </c>
-      <c r="CA4" s="152"/>
-      <c r="CB4" s="152"/>
-      <c r="CC4" s="153"/>
-      <c r="CD4" s="151" t="s">
+      <c r="CA4" s="158"/>
+      <c r="CB4" s="158"/>
+      <c r="CC4" s="159"/>
+      <c r="CD4" s="157" t="s">
         <v>158</v>
       </c>
-      <c r="CE4" s="155"/>
-      <c r="CF4" s="156" t="s">
+      <c r="CE4" s="160"/>
+      <c r="CF4" s="161" t="s">
         <v>159</v>
       </c>
-      <c r="CG4" s="153"/>
-      <c r="CH4" s="151" t="s">
+      <c r="CG4" s="159"/>
+      <c r="CH4" s="157" t="s">
         <v>162</v>
       </c>
-      <c r="CI4" s="152"/>
-      <c r="CJ4" s="152"/>
-      <c r="CK4" s="153"/>
-      <c r="CL4" s="151" t="s">
+      <c r="CI4" s="158"/>
+      <c r="CJ4" s="158"/>
+      <c r="CK4" s="159"/>
+      <c r="CL4" s="157" t="s">
         <v>163</v>
       </c>
-      <c r="CM4" s="152"/>
-      <c r="CN4" s="152"/>
-      <c r="CO4" s="153"/>
-      <c r="CP4" s="151" t="s">
+      <c r="CM4" s="158"/>
+      <c r="CN4" s="158"/>
+      <c r="CO4" s="159"/>
+      <c r="CP4" s="157" t="s">
         <v>164</v>
       </c>
-      <c r="CQ4" s="152"/>
-      <c r="CR4" s="152"/>
-      <c r="CS4" s="152"/>
-      <c r="CT4" s="152"/>
-      <c r="CU4" s="152"/>
-      <c r="CV4" s="152"/>
-      <c r="CW4" s="152"/>
-      <c r="CX4" s="152"/>
-      <c r="CY4" s="153"/>
-      <c r="CZ4" s="151" t="s">
+      <c r="CQ4" s="158"/>
+      <c r="CR4" s="158"/>
+      <c r="CS4" s="158"/>
+      <c r="CT4" s="158"/>
+      <c r="CU4" s="158"/>
+      <c r="CV4" s="158"/>
+      <c r="CW4" s="158"/>
+      <c r="CX4" s="158"/>
+      <c r="CY4" s="159"/>
+      <c r="CZ4" s="157" t="s">
         <v>165</v>
       </c>
-      <c r="DA4" s="152"/>
-      <c r="DB4" s="152"/>
-      <c r="DC4" s="152"/>
-      <c r="DD4" s="152"/>
-      <c r="DE4" s="152"/>
-      <c r="DF4" s="152"/>
-      <c r="DG4" s="153"/>
-      <c r="DH4" s="151" t="s">
+      <c r="DA4" s="158"/>
+      <c r="DB4" s="158"/>
+      <c r="DC4" s="158"/>
+      <c r="DD4" s="158"/>
+      <c r="DE4" s="158"/>
+      <c r="DF4" s="158"/>
+      <c r="DG4" s="159"/>
+      <c r="DH4" s="157" t="s">
         <v>178</v>
       </c>
-      <c r="DI4" s="152"/>
-      <c r="DJ4" s="152"/>
-      <c r="DK4" s="152"/>
-      <c r="DL4" s="152"/>
-      <c r="DM4" s="152"/>
-      <c r="DN4" s="152"/>
-      <c r="DO4" s="153"/>
+      <c r="DI4" s="158"/>
+      <c r="DJ4" s="158"/>
+      <c r="DK4" s="158"/>
+      <c r="DL4" s="158"/>
+      <c r="DM4" s="158"/>
+      <c r="DN4" s="158"/>
+      <c r="DO4" s="159"/>
     </row>
     <row r="5" spans="1:119" ht="70.900000000000006" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -24582,7 +25014,7 @@
       <c r="DO9" s="82"/>
     </row>
     <row r="10" spans="1:119" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="166" t="s">
         <v>148</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -24713,7 +25145,7 @@
       <c r="DO10" s="84"/>
     </row>
     <row r="11" spans="1:119" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="165"/>
+      <c r="A11" s="167"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17">
         <v>2</v>
@@ -24840,7 +25272,7 @@
       <c r="DO11" s="84"/>
     </row>
     <row r="12" spans="1:119" ht="40.9" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="163" t="s">
         <v>149</v>
       </c>
       <c r="B12" s="47" t="s">
@@ -26908,7 +27340,7 @@
       <c r="DO27" s="84"/>
     </row>
     <row r="28" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="167"/>
+      <c r="A28" s="165"/>
       <c r="B28" s="50" t="s">
         <v>46</v>
       </c>
@@ -27037,7 +27469,7 @@
       <c r="DO28" s="84"/>
     </row>
     <row r="29" spans="1:119" ht="54.4" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="163" t="s">
+      <c r="A29" s="166" t="s">
         <v>150</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -27428,7 +27860,7 @@
       <c r="DO31" s="84"/>
     </row>
     <row r="32" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="165"/>
+      <c r="A32" s="167"/>
       <c r="B32" s="17" t="s">
         <v>39</v>
       </c>
@@ -27557,7 +27989,7 @@
       <c r="DO32" s="84"/>
     </row>
     <row r="33" spans="1:119" ht="54.4" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="166" t="s">
+      <c r="A33" s="163" t="s">
         <v>151</v>
       </c>
       <c r="B33" s="48" t="s">
@@ -27948,7 +28380,7 @@
       <c r="DO35" s="84"/>
     </row>
     <row r="36" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="167"/>
+      <c r="A36" s="165"/>
       <c r="B36" s="50" t="s">
         <v>39</v>
       </c>
@@ -28077,7 +28509,7 @@
       <c r="DO36" s="84"/>
     </row>
     <row r="37" spans="1:119" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="163" t="s">
+      <c r="A37" s="166" t="s">
         <v>152</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -28726,7 +29158,7 @@
       <c r="DO41" s="84"/>
     </row>
     <row r="42" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="165"/>
+      <c r="A42" s="167"/>
       <c r="B42" s="17" t="s">
         <v>56</v>
       </c>
@@ -28855,7 +29287,7 @@
       <c r="DO42" s="84"/>
     </row>
     <row r="43" spans="1:119" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="166" t="s">
+      <c r="A43" s="163" t="s">
         <v>153</v>
       </c>
       <c r="B43" s="48" t="s">
@@ -30022,7 +30454,7 @@
       <c r="DO51" s="84"/>
     </row>
     <row r="52" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="167"/>
+      <c r="A52" s="165"/>
       <c r="B52" s="50" t="s">
         <v>56</v>
       </c>
@@ -30151,7 +30583,7 @@
       <c r="DO52" s="84"/>
     </row>
     <row r="53" spans="1:119" ht="54.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="163" t="s">
+      <c r="A53" s="166" t="s">
         <v>154</v>
       </c>
       <c r="B53" s="15" t="s">
@@ -31308,7 +31740,7 @@
       <c r="DO61" s="84"/>
     </row>
     <row r="62" spans="1:119" ht="94.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="165"/>
+      <c r="A62" s="167"/>
       <c r="B62" s="17" t="s">
         <v>79</v>
       </c>
@@ -31439,7 +31871,7 @@
       <c r="DO62" s="84"/>
     </row>
     <row r="63" spans="1:119" ht="54.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="166" t="s">
+      <c r="A63" s="163" t="s">
         <v>155</v>
       </c>
       <c r="B63" s="48" t="s">
@@ -32596,7 +33028,7 @@
       <c r="DO71" s="84"/>
     </row>
     <row r="72" spans="1:119" ht="94.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="167"/>
+      <c r="A72" s="165"/>
       <c r="B72" s="50" t="s">
         <v>79</v>
       </c>
@@ -32727,7 +33159,7 @@
       <c r="DO72" s="84"/>
     </row>
     <row r="73" spans="1:119" ht="40.9" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="163" t="s">
+      <c r="A73" s="166" t="s">
         <v>156</v>
       </c>
       <c r="B73" s="15" t="s">
@@ -32858,7 +33290,7 @@
       <c r="DO73" s="84"/>
     </row>
     <row r="74" spans="1:119" ht="67.900000000000006" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="165"/>
+      <c r="A74" s="167"/>
       <c r="B74" s="17" t="s">
         <v>67</v>
       </c>
@@ -32987,7 +33419,7 @@
       <c r="DO74" s="84"/>
     </row>
     <row r="75" spans="1:119" ht="40.9" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="166" t="s">
+      <c r="A75" s="163" t="s">
         <v>157</v>
       </c>
       <c r="B75" s="48" t="s">
@@ -33118,7 +33550,7 @@
       <c r="DO75" s="84"/>
     </row>
     <row r="76" spans="1:119" ht="67.900000000000006" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="167"/>
+      <c r="A76" s="165"/>
       <c r="B76" s="50" t="s">
         <v>67</v>
       </c>
@@ -33247,7 +33679,7 @@
       <c r="DO76" s="84"/>
     </row>
     <row r="77" spans="1:119" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="163" t="s">
+      <c r="A77" s="166" t="s">
         <v>160</v>
       </c>
       <c r="B77" s="15" t="s">
@@ -33636,7 +34068,7 @@
       <c r="DO79" s="84"/>
     </row>
     <row r="80" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="165"/>
+      <c r="A80" s="167"/>
       <c r="B80" s="17" t="s">
         <v>113</v>
       </c>
@@ -33765,7 +34197,7 @@
       <c r="DO80" s="84"/>
     </row>
     <row r="81" spans="1:119" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="166" t="s">
+      <c r="A81" s="163" t="s">
         <v>161</v>
       </c>
       <c r="B81" s="48" t="s">
@@ -34154,7 +34586,7 @@
       <c r="DO83" s="84"/>
     </row>
     <row r="84" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="167"/>
+      <c r="A84" s="165"/>
       <c r="B84" s="50" t="s">
         <v>113</v>
       </c>
@@ -34283,7 +34715,7 @@
       <c r="DO84" s="84"/>
     </row>
     <row r="85" spans="1:119" ht="40.9" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="163" t="s">
+      <c r="A85" s="166" t="s">
         <v>158</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -34414,7 +34846,7 @@
       <c r="DO85" s="84"/>
     </row>
     <row r="86" spans="1:119" ht="67.900000000000006" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="165"/>
+      <c r="A86" s="167"/>
       <c r="B86" s="17" t="s">
         <v>67</v>
       </c>
@@ -34543,7 +34975,7 @@
       <c r="DO86" s="84"/>
     </row>
     <row r="87" spans="1:119" ht="40.9" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="166" t="s">
+      <c r="A87" s="163" t="s">
         <v>159</v>
       </c>
       <c r="B87" s="48" t="s">
@@ -34674,7 +35106,7 @@
       <c r="DO87" s="84"/>
     </row>
     <row r="88" spans="1:119" ht="67.900000000000006" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="167"/>
+      <c r="A88" s="165"/>
       <c r="B88" s="50" t="s">
         <v>67</v>
       </c>
@@ -34803,7 +35235,7 @@
       <c r="DO88" s="84"/>
     </row>
     <row r="89" spans="1:119" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="163" t="s">
+      <c r="A89" s="166" t="s">
         <v>162</v>
       </c>
       <c r="B89" s="15" t="s">
@@ -35192,7 +35624,7 @@
       <c r="DO91" s="84"/>
     </row>
     <row r="92" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="165"/>
+      <c r="A92" s="167"/>
       <c r="B92" s="39" t="s">
         <v>113</v>
       </c>
@@ -35321,7 +35753,7 @@
       <c r="DO92" s="84"/>
     </row>
     <row r="93" spans="1:119" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="166" t="s">
+      <c r="A93" s="163" t="s">
         <v>163</v>
       </c>
       <c r="B93" s="48" t="s">
@@ -35710,7 +36142,7 @@
       <c r="DO95" s="84"/>
     </row>
     <row r="96" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="167"/>
+      <c r="A96" s="165"/>
       <c r="B96" s="53" t="s">
         <v>113</v>
       </c>
@@ -35839,7 +36271,7 @@
       <c r="DO96" s="84"/>
     </row>
     <row r="97" spans="1:119" ht="41" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="163" t="s">
+      <c r="A97" s="166" t="s">
         <v>164</v>
       </c>
       <c r="B97" s="15" t="s">
@@ -37002,7 +37434,7 @@
       <c r="DO105" s="84"/>
     </row>
     <row r="106" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="165"/>
+      <c r="A106" s="167"/>
       <c r="B106" s="39" t="s">
         <v>137</v>
       </c>
@@ -37131,7 +37563,7 @@
       <c r="DO106" s="84"/>
     </row>
     <row r="107" spans="1:119" ht="54.4" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="166" t="s">
+      <c r="A107" s="163" t="s">
         <v>165</v>
       </c>
       <c r="B107" s="48" t="s">
@@ -38036,7 +38468,7 @@
       <c r="DO113" s="84"/>
     </row>
     <row r="114" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="167"/>
+      <c r="A114" s="165"/>
       <c r="B114" s="50" t="s">
         <v>56</v>
       </c>
@@ -38165,7 +38597,7 @@
       <c r="DO114" s="84"/>
     </row>
     <row r="115" spans="1:119" ht="54.4" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="163" t="s">
+      <c r="A115" s="166" t="s">
         <v>178</v>
       </c>
       <c r="B115" s="15" t="s">
@@ -39070,7 +39502,7 @@
       <c r="DO121" s="84"/>
     </row>
     <row r="122" spans="1:119" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="165"/>
+      <c r="A122" s="167"/>
       <c r="B122" s="17" t="s">
         <v>56</v>
       </c>
@@ -39200,19 +39632,15 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A107:A114"/>
-    <mergeCell ref="A115:A122"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A106"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="A63:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="BT4:BU4"/>
+    <mergeCell ref="BV4:BY4"/>
+    <mergeCell ref="BZ4:CC4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:Y4"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AW4"/>
     <mergeCell ref="A77:A80"/>
     <mergeCell ref="DH4:DO4"/>
     <mergeCell ref="A10:A11"/>
@@ -39229,15 +39657,19 @@
     <mergeCell ref="AX4:BG4"/>
     <mergeCell ref="BH4:BQ4"/>
     <mergeCell ref="BR4:BS4"/>
-    <mergeCell ref="BT4:BU4"/>
-    <mergeCell ref="BV4:BY4"/>
-    <mergeCell ref="BZ4:CC4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:Y4"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AW4"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="A63:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A107:A114"/>
+    <mergeCell ref="A115:A122"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
